--- a/BackTest/2020-01-26 BackTest WPX.xlsx
+++ b/BackTest/2020-01-26 BackTest WPX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M270"/>
+  <dimension ref="A1:M271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>65.86</v>
+        <v>65.87</v>
       </c>
       <c r="C2" t="n">
-        <v>65.86</v>
+        <v>65.87</v>
       </c>
       <c r="D2" t="n">
-        <v>65.86</v>
+        <v>65.87</v>
       </c>
       <c r="E2" t="n">
-        <v>65.86</v>
+        <v>65.87</v>
       </c>
       <c r="F2" t="n">
-        <v>501.6438</v>
+        <v>219.3265</v>
       </c>
       <c r="G2" t="n">
-        <v>65.7581666666667</v>
+        <v>65.77050000000003</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>65.86</v>
       </c>
       <c r="C3" t="n">
-        <v>65.87</v>
+        <v>65.86</v>
       </c>
       <c r="D3" t="n">
-        <v>65.87</v>
+        <v>65.86</v>
       </c>
       <c r="E3" t="n">
         <v>65.86</v>
       </c>
       <c r="F3" t="n">
-        <v>6103.2504</v>
+        <v>501.6438</v>
       </c>
       <c r="G3" t="n">
-        <v>65.75583333333336</v>
+        <v>65.7581666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>65.87</v>
+        <v>65.86</v>
       </c>
       <c r="C4" t="n">
         <v>65.87</v>
@@ -512,13 +512,13 @@
         <v>65.87</v>
       </c>
       <c r="E4" t="n">
-        <v>65.87</v>
+        <v>65.86</v>
       </c>
       <c r="F4" t="n">
-        <v>370.0899</v>
+        <v>6103.2504</v>
       </c>
       <c r="G4" t="n">
-        <v>65.76283333333336</v>
+        <v>65.75583333333336</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>65.87</v>
       </c>
       <c r="F5" t="n">
-        <v>170.7284</v>
+        <v>370.0899</v>
       </c>
       <c r="G5" t="n">
-        <v>65.77650000000001</v>
+        <v>65.76283333333336</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>65.87</v>
       </c>
       <c r="F6" t="n">
-        <v>4913.0805</v>
+        <v>170.7284</v>
       </c>
       <c r="G6" t="n">
-        <v>65.79083333333334</v>
+        <v>65.77650000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66.2</v>
+        <v>65.87</v>
       </c>
       <c r="C7" t="n">
-        <v>66.3</v>
+        <v>65.87</v>
       </c>
       <c r="D7" t="n">
-        <v>66.3</v>
+        <v>65.87</v>
       </c>
       <c r="E7" t="n">
-        <v>66.2</v>
+        <v>65.87</v>
       </c>
       <c r="F7" t="n">
-        <v>30684.9538</v>
+        <v>4913.0805</v>
       </c>
       <c r="G7" t="n">
-        <v>65.81216666666668</v>
+        <v>65.79083333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66.56999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="C8" t="n">
-        <v>69.39</v>
+        <v>66.3</v>
       </c>
       <c r="D8" t="n">
-        <v>69.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="E8" t="n">
-        <v>66.56999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="F8" t="n">
-        <v>178481.5342</v>
+        <v>30684.9538</v>
       </c>
       <c r="G8" t="n">
-        <v>65.88516666666668</v>
+        <v>65.81216666666668</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>69.09999999999999</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>69</v>
+        <v>69.39</v>
       </c>
       <c r="D9" t="n">
-        <v>69.09999999999999</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>69</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>77180.4316</v>
+        <v>178481.5342</v>
       </c>
       <c r="G9" t="n">
-        <v>65.95166666666667</v>
+        <v>65.88516666666668</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="C10" t="n">
         <v>69</v>
       </c>
-      <c r="C10" t="n">
-        <v>69.3</v>
-      </c>
       <c r="D10" t="n">
-        <v>69.3</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E10" t="n">
         <v>69</v>
       </c>
       <c r="F10" t="n">
-        <v>30396.4668</v>
+        <v>77180.4316</v>
       </c>
       <c r="G10" t="n">
-        <v>66.02316666666667</v>
+        <v>65.95166666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>69</v>
       </c>
       <c r="C11" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="D11" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="E11" t="n">
         <v>69</v>
       </c>
       <c r="F11" t="n">
-        <v>32359.4635</v>
+        <v>30396.4668</v>
       </c>
       <c r="G11" t="n">
-        <v>66.08983333333335</v>
+        <v>66.02316666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>69</v>
       </c>
       <c r="F12" t="n">
-        <v>27836.8694</v>
+        <v>32359.4635</v>
       </c>
       <c r="G12" t="n">
-        <v>66.15633333333334</v>
+        <v>66.08983333333335</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -830,10 +830,10 @@
         <v>69</v>
       </c>
       <c r="F13" t="n">
-        <v>3989.7655</v>
+        <v>27836.8694</v>
       </c>
       <c r="G13" t="n">
-        <v>66.20416666666667</v>
+        <v>66.15633333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>68.90000000000001</v>
+        <v>69</v>
       </c>
       <c r="C14" t="n">
         <v>69</v>
@@ -862,13 +862,13 @@
         <v>69</v>
       </c>
       <c r="E14" t="n">
-        <v>68.90000000000001</v>
+        <v>69</v>
       </c>
       <c r="F14" t="n">
-        <v>2761.794325942029</v>
+        <v>3989.7655</v>
       </c>
       <c r="G14" t="n">
-        <v>66.25133333333333</v>
+        <v>66.20416666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>67.61</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>67.61</v>
+        <v>69</v>
       </c>
       <c r="D15" t="n">
-        <v>67.61</v>
+        <v>69</v>
       </c>
       <c r="E15" t="n">
-        <v>67.61</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>13756.835</v>
+        <v>2761.794325942029</v>
       </c>
       <c r="G15" t="n">
-        <v>66.26816666666667</v>
+        <v>66.25133333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>67.61</v>
       </c>
       <c r="F16" t="n">
-        <v>16568.4896</v>
+        <v>13756.835</v>
       </c>
       <c r="G16" t="n">
-        <v>66.30733333333333</v>
+        <v>66.26816666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>67.61</v>
       </c>
       <c r="F17" t="n">
-        <v>826.4332000000001</v>
+        <v>16568.4896</v>
       </c>
       <c r="G17" t="n">
-        <v>66.32516666666668</v>
+        <v>66.30733333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>67.61</v>
       </c>
       <c r="F18" t="n">
-        <v>2443.6113</v>
+        <v>826.4332000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>66.34283333333333</v>
+        <v>66.32516666666668</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>67.40000000000001</v>
+        <v>67.61</v>
       </c>
       <c r="C19" t="n">
-        <v>67.31</v>
+        <v>67.61</v>
       </c>
       <c r="D19" t="n">
-        <v>67.40000000000001</v>
+        <v>67.61</v>
       </c>
       <c r="E19" t="n">
-        <v>67.31</v>
+        <v>67.61</v>
       </c>
       <c r="F19" t="n">
-        <v>8662.833699999999</v>
+        <v>2443.6113</v>
       </c>
       <c r="G19" t="n">
-        <v>66.35549999999999</v>
+        <v>66.34283333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>67.31</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C20" t="n">
         <v>67.31</v>
       </c>
       <c r="D20" t="n">
-        <v>67.31</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E20" t="n">
         <v>67.31</v>
       </c>
       <c r="F20" t="n">
-        <v>7.4284</v>
+        <v>8662.833699999999</v>
       </c>
       <c r="G20" t="n">
-        <v>66.36799999999999</v>
+        <v>66.35549999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>67.31</v>
       </c>
       <c r="F21" t="n">
-        <v>1070.9069</v>
+        <v>7.4284</v>
       </c>
       <c r="G21" t="n">
-        <v>66.3805</v>
+        <v>66.36799999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>66.81</v>
+        <v>67.31</v>
       </c>
       <c r="C22" t="n">
-        <v>66.81</v>
+        <v>67.31</v>
       </c>
       <c r="D22" t="n">
-        <v>66.81</v>
+        <v>67.31</v>
       </c>
       <c r="E22" t="n">
-        <v>66.81</v>
+        <v>67.31</v>
       </c>
       <c r="F22" t="n">
-        <v>9968.7443</v>
+        <v>1070.9069</v>
       </c>
       <c r="G22" t="n">
-        <v>66.38483333333333</v>
+        <v>66.3805</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>66.90000000000001</v>
+        <v>66.81</v>
       </c>
       <c r="C23" t="n">
         <v>66.81</v>
       </c>
       <c r="D23" t="n">
-        <v>66.90000000000001</v>
+        <v>66.81</v>
       </c>
       <c r="E23" t="n">
         <v>66.81</v>
       </c>
       <c r="F23" t="n">
-        <v>6140.1698</v>
+        <v>9968.7443</v>
       </c>
       <c r="G23" t="n">
-        <v>66.38916666666665</v>
+        <v>66.38483333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>66.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>66.8</v>
+        <v>66.81</v>
       </c>
       <c r="D24" t="n">
-        <v>66.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>66.8</v>
+        <v>66.81</v>
       </c>
       <c r="F24" t="n">
-        <v>11360.1455</v>
+        <v>6140.1698</v>
       </c>
       <c r="G24" t="n">
-        <v>66.41683333333333</v>
+        <v>66.38916666666665</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>66.8</v>
       </c>
       <c r="F25" t="n">
-        <v>5833.6344</v>
+        <v>11360.1455</v>
       </c>
       <c r="G25" t="n">
-        <v>66.42066666666666</v>
+        <v>66.41683333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>66.8</v>
       </c>
       <c r="F26" t="n">
-        <v>80.9312</v>
+        <v>5833.6344</v>
       </c>
       <c r="G26" t="n">
-        <v>66.425</v>
+        <v>66.42066666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="C27" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="D27" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="E27" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="F27" t="n">
-        <v>4953.8156</v>
+        <v>80.9312</v>
       </c>
       <c r="G27" t="n">
-        <v>66.45016666666666</v>
+        <v>66.425</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>66.40000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="C28" t="n">
-        <v>66.3</v>
+        <v>66.7</v>
       </c>
       <c r="D28" t="n">
-        <v>66.40000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="E28" t="n">
-        <v>66.3</v>
+        <v>66.7</v>
       </c>
       <c r="F28" t="n">
-        <v>1804.0566</v>
+        <v>4953.8156</v>
       </c>
       <c r="G28" t="n">
-        <v>66.46866666666666</v>
+        <v>66.45016666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>66.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C29" t="n">
         <v>66.3</v>
       </c>
       <c r="D29" t="n">
-        <v>66.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E29" t="n">
         <v>66.3</v>
       </c>
       <c r="F29" t="n">
-        <v>1388.3406</v>
+        <v>1804.0566</v>
       </c>
       <c r="G29" t="n">
-        <v>66.467</v>
+        <v>66.46866666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>65.65000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="C30" t="n">
-        <v>65.65000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="D30" t="n">
-        <v>65.65000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="E30" t="n">
-        <v>65.65000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="F30" t="n">
-        <v>34627.1008</v>
+        <v>1388.3406</v>
       </c>
       <c r="G30" t="n">
-        <v>66.45183333333334</v>
+        <v>66.467</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>66.3</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>66.29000000000001</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>66.3</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>65.2</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>2786.1236</v>
+        <v>34627.1008</v>
       </c>
       <c r="G31" t="n">
-        <v>66.45</v>
+        <v>66.45183333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>65.23999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="C32" t="n">
-        <v>65.23999999999999</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>65.23999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="E32" t="n">
-        <v>65.23999999999999</v>
+        <v>65.2</v>
       </c>
       <c r="F32" t="n">
-        <v>11272.691</v>
+        <v>2786.1236</v>
       </c>
       <c r="G32" t="n">
-        <v>66.44883333333333</v>
+        <v>66.45</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>66.3</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>66.3</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>66.3</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>66.3</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>66.0808</v>
+        <v>11272.691</v>
       </c>
       <c r="G33" t="n">
-        <v>66.44716666666666</v>
+        <v>66.44883333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,31 +1553,35 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>66.0808</v>
+      </c>
+      <c r="G34" t="n">
+        <v>66.44716666666666</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>65.23999999999999</v>
       </c>
-      <c r="C34" t="n">
+      <c r="K34" t="n">
         <v>65.23999999999999</v>
       </c>
-      <c r="D34" t="n">
-        <v>65.23999999999999</v>
-      </c>
-      <c r="E34" t="n">
-        <v>65.23999999999999</v>
-      </c>
-      <c r="F34" t="n">
-        <v>40884.3586</v>
-      </c>
-      <c r="G34" t="n">
-        <v>66.42999999999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
@@ -1588,32 +1592,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>66.23999999999999</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>66.23999999999999</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>66.23999999999999</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>66.23999999999999</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>967.0719</v>
+        <v>40884.3586</v>
       </c>
       <c r="G35" t="n">
-        <v>66.434</v>
+        <v>66.42999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>65.23999999999999</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,32 +1635,40 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>66.68000000000001</v>
+        <v>66.23999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>66.7</v>
+        <v>66.23999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>66.7</v>
+        <v>66.23999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>66.68000000000001</v>
+        <v>66.23999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>74690.0616</v>
+        <v>967.0719</v>
       </c>
       <c r="G36" t="n">
-        <v>66.44566666666665</v>
+        <v>66.434</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>65.23999999999999</v>
+      </c>
+      <c r="K36" t="n">
+        <v>65.23999999999999</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,31 +1678,35 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>68.5</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>70.38</v>
+        <v>66.7</v>
       </c>
       <c r="D37" t="n">
-        <v>70.38</v>
+        <v>66.7</v>
       </c>
       <c r="E37" t="n">
-        <v>68.5</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>108784.5900862319</v>
+        <v>74690.0616</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51416666666665</v>
+        <v>66.44566666666665</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>66.23999999999999</v>
+      </c>
+      <c r="K37" t="n">
+        <v>66.23999999999999</v>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
@@ -1696,19 +1720,19 @@
         <v>68.5</v>
       </c>
       <c r="C38" t="n">
-        <v>68.61</v>
+        <v>70.38</v>
       </c>
       <c r="D38" t="n">
-        <v>68.61</v>
+        <v>70.38</v>
       </c>
       <c r="E38" t="n">
         <v>68.5</v>
       </c>
       <c r="F38" t="n">
-        <v>7492.0713</v>
+        <v>108784.5900862319</v>
       </c>
       <c r="G38" t="n">
-        <v>66.56933333333332</v>
+        <v>66.51416666666665</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,8 +1741,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>66.23999999999999</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,10 +1758,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C39" t="n">
         <v>68.61</v>
-      </c>
-      <c r="C39" t="n">
-        <v>68.5</v>
       </c>
       <c r="D39" t="n">
         <v>68.61</v>
@@ -1740,10 +1770,10 @@
         <v>68.5</v>
       </c>
       <c r="F39" t="n">
-        <v>17536.6472</v>
+        <v>7492.0713</v>
       </c>
       <c r="G39" t="n">
-        <v>66.61116666666666</v>
+        <v>66.56933333333332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,8 +1782,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>66.23999999999999</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1799,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>66.91</v>
+        <v>68.61</v>
       </c>
       <c r="C40" t="n">
-        <v>66.91</v>
+        <v>68.5</v>
       </c>
       <c r="D40" t="n">
-        <v>66.91</v>
+        <v>68.61</v>
       </c>
       <c r="E40" t="n">
-        <v>66.91</v>
+        <v>68.5</v>
       </c>
       <c r="F40" t="n">
-        <v>6441.8172</v>
+        <v>17536.6472</v>
       </c>
       <c r="G40" t="n">
-        <v>66.63816666666666</v>
+        <v>66.61116666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1834,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>66.90000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="C41" t="n">
-        <v>66.90000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="D41" t="n">
-        <v>66.90000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="E41" t="n">
-        <v>66.90000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="F41" t="n">
-        <v>2147.2725</v>
+        <v>6441.8172</v>
       </c>
       <c r="G41" t="n">
-        <v>66.65366666666667</v>
+        <v>66.63816666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1869,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>66.91</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>66.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>66.91</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>66.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>4946.9976</v>
+        <v>2147.2725</v>
       </c>
       <c r="G42" t="n">
-        <v>66.67883333333333</v>
+        <v>66.65366666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1904,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>68.69</v>
+        <v>66.91</v>
       </c>
       <c r="C43" t="n">
-        <v>68.69</v>
+        <v>66.8</v>
       </c>
       <c r="D43" t="n">
-        <v>68.69</v>
+        <v>66.91</v>
       </c>
       <c r="E43" t="n">
-        <v>68.69</v>
+        <v>66.8</v>
       </c>
       <c r="F43" t="n">
-        <v>7.6695</v>
+        <v>4946.9976</v>
       </c>
       <c r="G43" t="n">
-        <v>66.72450000000001</v>
+        <v>66.67883333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1939,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>66.8</v>
+        <v>68.69</v>
       </c>
       <c r="C44" t="n">
-        <v>66.8</v>
+        <v>68.69</v>
       </c>
       <c r="D44" t="n">
-        <v>66.8</v>
+        <v>68.69</v>
       </c>
       <c r="E44" t="n">
-        <v>66.8</v>
+        <v>68.69</v>
       </c>
       <c r="F44" t="n">
-        <v>7000</v>
+        <v>7.6695</v>
       </c>
       <c r="G44" t="n">
-        <v>66.73883333333335</v>
+        <v>66.72450000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1974,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>66.81999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="C45" t="n">
-        <v>66.81999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="D45" t="n">
-        <v>66.81999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="E45" t="n">
-        <v>66.81999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="F45" t="n">
-        <v>3080.6986</v>
+        <v>7000</v>
       </c>
       <c r="G45" t="n">
-        <v>66.75383333333335</v>
+        <v>66.73883333333335</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +2012,19 @@
         <v>66.81999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>67.8</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>67.8</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="E46" t="n">
         <v>66.81999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>4456.327433628318</v>
+        <v>3080.6986</v>
       </c>
       <c r="G46" t="n">
-        <v>66.79566666666668</v>
+        <v>66.75383333333335</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2044,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>67.48999999999999</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>67.81999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="D47" t="n">
-        <v>67.81999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="E47" t="n">
-        <v>67.48999999999999</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>6849.4732</v>
+        <v>4456.327433628318</v>
       </c>
       <c r="G47" t="n">
-        <v>66.83950000000002</v>
+        <v>66.79566666666668</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2079,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>68.5</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>68.5</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>68.5</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>68.5</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>108.6453</v>
+        <v>6849.4732</v>
       </c>
       <c r="G48" t="n">
-        <v>66.89466666666668</v>
+        <v>66.83950000000002</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2114,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>68.11</v>
+        <v>68.5</v>
       </c>
       <c r="C49" t="n">
-        <v>68</v>
+        <v>68.5</v>
       </c>
       <c r="D49" t="n">
-        <v>68.11</v>
+        <v>68.5</v>
       </c>
       <c r="E49" t="n">
-        <v>68</v>
+        <v>68.5</v>
       </c>
       <c r="F49" t="n">
-        <v>17296.589</v>
+        <v>108.6453</v>
       </c>
       <c r="G49" t="n">
-        <v>66.93016666666668</v>
+        <v>66.89466666666668</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2149,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>68.09999999999999</v>
+        <v>68.11</v>
       </c>
       <c r="C50" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="D50" t="n">
-        <v>68.09999999999999</v>
+        <v>68.11</v>
       </c>
       <c r="E50" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="F50" t="n">
-        <v>635.2782999999999</v>
+        <v>17296.589</v>
       </c>
       <c r="G50" t="n">
-        <v>66.97766666666668</v>
+        <v>66.93016666666668</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2196,10 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>3066.5672</v>
+        <v>635.2782999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>67.02616666666668</v>
+        <v>66.97766666666668</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,19 +2222,19 @@
         <v>68.09999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>67.84999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D52" t="n">
         <v>68.09999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>67.84999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>11991.3321</v>
+        <v>3066.5672</v>
       </c>
       <c r="G52" t="n">
-        <v>67.07316666666667</v>
+        <v>67.02616666666668</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2254,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>66.83</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>66.83</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>66.83</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>66.83</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>3456.3275</v>
+        <v>11991.3321</v>
       </c>
       <c r="G53" t="n">
-        <v>67.10300000000001</v>
+        <v>67.07316666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2289,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>68.09999999999999</v>
+        <v>66.83</v>
       </c>
       <c r="C54" t="n">
-        <v>68.09999999999999</v>
+        <v>66.83</v>
       </c>
       <c r="D54" t="n">
-        <v>68.09999999999999</v>
+        <v>66.83</v>
       </c>
       <c r="E54" t="n">
-        <v>68.09999999999999</v>
+        <v>66.83</v>
       </c>
       <c r="F54" t="n">
-        <v>15000</v>
+        <v>3456.3275</v>
       </c>
       <c r="G54" t="n">
-        <v>67.15400000000001</v>
+        <v>67.10300000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2324,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>67.09999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>67.09</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>67.09999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>67.09</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>16307.2048</v>
+        <v>15000</v>
       </c>
       <c r="G55" t="n">
-        <v>67.17433333333334</v>
+        <v>67.15400000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2359,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>67.12</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C56" t="n">
         <v>67.09</v>
       </c>
       <c r="D56" t="n">
-        <v>67.12</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E56" t="n">
         <v>67.09</v>
       </c>
       <c r="F56" t="n">
-        <v>10000</v>
+        <v>16307.2048</v>
       </c>
       <c r="G56" t="n">
-        <v>67.19483333333334</v>
+        <v>67.17433333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2394,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>68.89</v>
+        <v>67.12</v>
       </c>
       <c r="C57" t="n">
-        <v>68.89</v>
+        <v>67.09</v>
       </c>
       <c r="D57" t="n">
-        <v>68.89</v>
+        <v>67.12</v>
       </c>
       <c r="E57" t="n">
-        <v>68.89</v>
+        <v>67.09</v>
       </c>
       <c r="F57" t="n">
-        <v>80</v>
+        <v>10000</v>
       </c>
       <c r="G57" t="n">
-        <v>67.24516666666666</v>
+        <v>67.19483333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2429,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>67.09</v>
+        <v>68.89</v>
       </c>
       <c r="C58" t="n">
-        <v>67.09</v>
+        <v>68.89</v>
       </c>
       <c r="D58" t="n">
-        <v>67.09</v>
+        <v>68.89</v>
       </c>
       <c r="E58" t="n">
-        <v>67.09</v>
+        <v>68.89</v>
       </c>
       <c r="F58" t="n">
-        <v>6794.7569</v>
+        <v>80</v>
       </c>
       <c r="G58" t="n">
-        <v>67.26566666666666</v>
+        <v>67.24516666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2467,19 @@
         <v>67.09</v>
       </c>
       <c r="C59" t="n">
-        <v>66.79000000000001</v>
+        <v>67.09</v>
       </c>
       <c r="D59" t="n">
         <v>67.09</v>
       </c>
       <c r="E59" t="n">
-        <v>66.79000000000001</v>
+        <v>67.09</v>
       </c>
       <c r="F59" t="n">
-        <v>45679.2596</v>
+        <v>6794.7569</v>
       </c>
       <c r="G59" t="n">
-        <v>67.28116666666668</v>
+        <v>67.26566666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2499,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>67.09</v>
+      </c>
+      <c r="C60" t="n">
         <v>66.79000000000001</v>
       </c>
-      <c r="C60" t="n">
-        <v>68.89</v>
-      </c>
       <c r="D60" t="n">
-        <v>68.89</v>
+        <v>67.09</v>
       </c>
       <c r="E60" t="n">
         <v>66.79000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>1638.7495</v>
+        <v>45679.2596</v>
       </c>
       <c r="G60" t="n">
-        <v>67.33166666666666</v>
+        <v>67.28116666666668</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2534,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>66.8</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>66.8</v>
+        <v>68.89</v>
       </c>
       <c r="D61" t="n">
-        <v>66.8</v>
+        <v>68.89</v>
       </c>
       <c r="E61" t="n">
-        <v>66.8</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>3116.1168</v>
+        <v>1638.7495</v>
       </c>
       <c r="G61" t="n">
-        <v>67.34716666666667</v>
+        <v>67.33166666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2569,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>66.79000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="C62" t="n">
-        <v>66.79000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="D62" t="n">
-        <v>66.79000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="E62" t="n">
-        <v>66.79000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="F62" t="n">
-        <v>1438.7152</v>
+        <v>3116.1168</v>
       </c>
       <c r="G62" t="n">
-        <v>67.36266666666667</v>
+        <v>67.34716666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2616,10 @@
         <v>66.79000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>14930.9618</v>
+        <v>1438.7152</v>
       </c>
       <c r="G63" t="n">
-        <v>67.378</v>
+        <v>67.36266666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2639,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>65.87</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>65.41</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>65.87</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>65.41</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>20000</v>
+        <v>14930.9618</v>
       </c>
       <c r="G64" t="n">
-        <v>67.37033333333333</v>
+        <v>67.378</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2674,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>66.8</v>
+        <v>65.87</v>
       </c>
       <c r="C65" t="n">
-        <v>66.8</v>
+        <v>65.41</v>
       </c>
       <c r="D65" t="n">
-        <v>66.8</v>
+        <v>65.87</v>
       </c>
       <c r="E65" t="n">
-        <v>66.8</v>
+        <v>65.41</v>
       </c>
       <c r="F65" t="n">
-        <v>1163.6632</v>
+        <v>20000</v>
       </c>
       <c r="G65" t="n">
-        <v>67.38583333333334</v>
+        <v>67.37033333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2709,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>65.5</v>
+        <v>66.8</v>
       </c>
       <c r="C66" t="n">
-        <v>68.39</v>
+        <v>66.8</v>
       </c>
       <c r="D66" t="n">
-        <v>68.39</v>
+        <v>66.8</v>
       </c>
       <c r="E66" t="n">
-        <v>65.5</v>
+        <v>66.8</v>
       </c>
       <c r="F66" t="n">
-        <v>15.6238</v>
+        <v>1163.6632</v>
       </c>
       <c r="G66" t="n">
-        <v>67.42783333333335</v>
+        <v>67.38583333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,7 +2744,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>68.39</v>
+        <v>65.5</v>
       </c>
       <c r="C67" t="n">
         <v>68.39</v>
@@ -2717,13 +2753,13 @@
         <v>68.39</v>
       </c>
       <c r="E67" t="n">
-        <v>68.39</v>
+        <v>65.5</v>
       </c>
       <c r="F67" t="n">
-        <v>9786.627699999999</v>
+        <v>15.6238</v>
       </c>
       <c r="G67" t="n">
-        <v>67.46266666666669</v>
+        <v>67.42783333333335</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2779,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>67.98999999999999</v>
+        <v>68.39</v>
       </c>
       <c r="C68" t="n">
-        <v>67.98999999999999</v>
+        <v>68.39</v>
       </c>
       <c r="D68" t="n">
-        <v>67.98999999999999</v>
+        <v>68.39</v>
       </c>
       <c r="E68" t="n">
-        <v>67.98999999999999</v>
+        <v>68.39</v>
       </c>
       <c r="F68" t="n">
-        <v>29.244</v>
+        <v>9786.627699999999</v>
       </c>
       <c r="G68" t="n">
-        <v>67.43933333333335</v>
+        <v>67.46266666666669</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2814,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>65.48999999999999</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>67.8</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>67.8</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>65.48999999999999</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>1446.1352</v>
+        <v>29.244</v>
       </c>
       <c r="G69" t="n">
-        <v>67.41933333333334</v>
+        <v>67.43933333333335</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,7 +2849,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>67.8</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="C70" t="n">
         <v>67.8</v>
@@ -2822,13 +2858,13 @@
         <v>67.8</v>
       </c>
       <c r="E70" t="n">
-        <v>67.8</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>1374.837</v>
+        <v>1446.1352</v>
       </c>
       <c r="G70" t="n">
-        <v>67.39433333333335</v>
+        <v>67.41933333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2884,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>65.77</v>
+        <v>67.8</v>
       </c>
       <c r="C71" t="n">
-        <v>65.77</v>
+        <v>67.8</v>
       </c>
       <c r="D71" t="n">
-        <v>65.77</v>
+        <v>67.8</v>
       </c>
       <c r="E71" t="n">
-        <v>65.77</v>
+        <v>67.8</v>
       </c>
       <c r="F71" t="n">
-        <v>9109.9336</v>
+        <v>1374.837</v>
       </c>
       <c r="G71" t="n">
-        <v>67.34050000000002</v>
+        <v>67.39433333333335</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2919,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>67.59</v>
+        <v>65.77</v>
       </c>
       <c r="C72" t="n">
-        <v>67.59</v>
+        <v>65.77</v>
       </c>
       <c r="D72" t="n">
-        <v>67.59</v>
+        <v>65.77</v>
       </c>
       <c r="E72" t="n">
-        <v>67.59</v>
+        <v>65.77</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>9109.9336</v>
       </c>
       <c r="G72" t="n">
-        <v>67.31700000000002</v>
+        <v>67.34050000000002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2954,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>65.77</v>
+        <v>67.59</v>
       </c>
       <c r="C73" t="n">
-        <v>65.48999999999999</v>
+        <v>67.59</v>
       </c>
       <c r="D73" t="n">
-        <v>65.77</v>
+        <v>67.59</v>
       </c>
       <c r="E73" t="n">
-        <v>65.48999999999999</v>
+        <v>67.59</v>
       </c>
       <c r="F73" t="n">
-        <v>17751.1086</v>
+        <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>67.25850000000001</v>
+        <v>67.31700000000002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2989,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>67.59</v>
+        <v>65.77</v>
       </c>
       <c r="C74" t="n">
-        <v>67.59</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>67.59</v>
+        <v>65.77</v>
       </c>
       <c r="E74" t="n">
-        <v>67.59</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>8</v>
+        <v>17751.1086</v>
       </c>
       <c r="G74" t="n">
-        <v>67.23500000000003</v>
+        <v>67.25850000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3036,10 @@
         <v>67.59</v>
       </c>
       <c r="F75" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G75" t="n">
-        <v>67.23466666666668</v>
+        <v>67.23500000000003</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3071,10 @@
         <v>67.59</v>
       </c>
       <c r="F76" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G76" t="n">
-        <v>67.23433333333335</v>
+        <v>67.23466666666668</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,7 +3094,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>65.5</v>
+        <v>67.59</v>
       </c>
       <c r="C77" t="n">
         <v>67.59</v>
@@ -3067,13 +3103,13 @@
         <v>67.59</v>
       </c>
       <c r="E77" t="n">
-        <v>65.43000000000001</v>
+        <v>67.59</v>
       </c>
       <c r="F77" t="n">
-        <v>17759.1086</v>
+        <v>8</v>
       </c>
       <c r="G77" t="n">
-        <v>67.23400000000001</v>
+        <v>67.23433333333335</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,7 +3129,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>67.59</v>
+        <v>65.5</v>
       </c>
       <c r="C78" t="n">
         <v>67.59</v>
@@ -3102,13 +3138,13 @@
         <v>67.59</v>
       </c>
       <c r="E78" t="n">
-        <v>67.59</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>8</v>
+        <v>17759.1086</v>
       </c>
       <c r="G78" t="n">
-        <v>67.23366666666666</v>
+        <v>67.23400000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3176,10 @@
         <v>67.59</v>
       </c>
       <c r="F79" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G79" t="n">
-        <v>67.23833333333333</v>
+        <v>67.23366666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3178,7 +3214,7 @@
         <v>24</v>
       </c>
       <c r="G80" t="n">
-        <v>67.24299999999999</v>
+        <v>67.23833333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,7 +3234,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>67.58</v>
+        <v>67.59</v>
       </c>
       <c r="C81" t="n">
         <v>67.59</v>
@@ -3207,13 +3243,13 @@
         <v>67.59</v>
       </c>
       <c r="E81" t="n">
-        <v>67.58</v>
+        <v>67.59</v>
       </c>
       <c r="F81" t="n">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="G81" t="n">
-        <v>67.24766666666666</v>
+        <v>67.24299999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3269,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>67.58</v>
+      </c>
+      <c r="C82" t="n">
         <v>67.59</v>
       </c>
-      <c r="C82" t="n">
-        <v>67.95</v>
-      </c>
       <c r="D82" t="n">
-        <v>67.95</v>
+        <v>67.59</v>
       </c>
       <c r="E82" t="n">
-        <v>67.59</v>
+        <v>67.58</v>
       </c>
       <c r="F82" t="n">
-        <v>12376.8778</v>
+        <v>200</v>
       </c>
       <c r="G82" t="n">
-        <v>67.26666666666667</v>
+        <v>67.24766666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3304,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>67.90000000000001</v>
+        <v>67.59</v>
       </c>
       <c r="C83" t="n">
-        <v>67.59</v>
+        <v>67.95</v>
       </c>
       <c r="D83" t="n">
-        <v>67.90000000000001</v>
+        <v>67.95</v>
       </c>
       <c r="E83" t="n">
         <v>67.59</v>
       </c>
       <c r="F83" t="n">
-        <v>9623.1222</v>
+        <v>12376.8778</v>
       </c>
       <c r="G83" t="n">
-        <v>67.27966666666666</v>
+        <v>67.26666666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3339,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>67.94</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>67.94</v>
+        <v>67.59</v>
       </c>
       <c r="D84" t="n">
-        <v>67.94</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>67.94</v>
+        <v>67.59</v>
       </c>
       <c r="F84" t="n">
-        <v>8</v>
+        <v>9623.1222</v>
       </c>
       <c r="G84" t="n">
-        <v>67.29866666666665</v>
+        <v>67.27966666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3374,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>65.59999999999999</v>
+        <v>67.94</v>
       </c>
       <c r="C85" t="n">
-        <v>65.43000000000001</v>
+        <v>67.94</v>
       </c>
       <c r="D85" t="n">
-        <v>65.59999999999999</v>
+        <v>67.94</v>
       </c>
       <c r="E85" t="n">
-        <v>65.43000000000001</v>
+        <v>67.94</v>
       </c>
       <c r="F85" t="n">
-        <v>12418.8829</v>
+        <v>8</v>
       </c>
       <c r="G85" t="n">
-        <v>67.27583333333332</v>
+        <v>67.29866666666665</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3409,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>67.19</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>67.19</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>67.19</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>67.19</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>8</v>
+        <v>12418.8829</v>
       </c>
       <c r="G86" t="n">
-        <v>67.28233333333331</v>
+        <v>67.27583333333332</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3444,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>65.5</v>
+        <v>67.19</v>
       </c>
       <c r="C87" t="n">
-        <v>65.43000000000001</v>
+        <v>67.19</v>
       </c>
       <c r="D87" t="n">
-        <v>65.5</v>
+        <v>67.19</v>
       </c>
       <c r="E87" t="n">
-        <v>65.43000000000001</v>
+        <v>67.19</v>
       </c>
       <c r="F87" t="n">
-        <v>9604.627399999999</v>
+        <v>8</v>
       </c>
       <c r="G87" t="n">
-        <v>67.26116666666665</v>
+        <v>67.28233333333331</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3479,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="C88" t="n">
         <v>65.43000000000001</v>
       </c>
-      <c r="C88" t="n">
-        <v>65.41</v>
-      </c>
       <c r="D88" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="E88" t="n">
         <v>65.43000000000001</v>
       </c>
-      <c r="E88" t="n">
-        <v>65.41</v>
-      </c>
       <c r="F88" t="n">
-        <v>14736.795</v>
+        <v>9604.627399999999</v>
       </c>
       <c r="G88" t="n">
-        <v>67.24633333333331</v>
+        <v>67.26116666666665</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3514,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>67.09</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>67.09</v>
+        <v>65.41</v>
       </c>
       <c r="D89" t="n">
-        <v>67.09</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>67.09</v>
+        <v>65.41</v>
       </c>
       <c r="F89" t="n">
-        <v>58.7868</v>
+        <v>14736.795</v>
       </c>
       <c r="G89" t="n">
-        <v>67.25949999999997</v>
+        <v>67.24633333333331</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3561,10 @@
         <v>67.09</v>
       </c>
       <c r="F90" t="n">
-        <v>4340.002981070204</v>
+        <v>58.7868</v>
       </c>
       <c r="G90" t="n">
-        <v>67.28349999999998</v>
+        <v>67.25949999999997</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3584,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>66.98999999999999</v>
+        <v>67.09</v>
       </c>
       <c r="C91" t="n">
-        <v>66.98999999999999</v>
+        <v>67.09</v>
       </c>
       <c r="D91" t="n">
-        <v>66.98999999999999</v>
+        <v>67.09</v>
       </c>
       <c r="E91" t="n">
-        <v>66.98999999999999</v>
+        <v>67.09</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>4340.002981070204</v>
       </c>
       <c r="G91" t="n">
-        <v>67.29516666666665</v>
+        <v>67.28349999999998</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3631,10 @@
         <v>66.98999999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>197.1637557844454</v>
+        <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>67.32433333333331</v>
+        <v>67.29516666666665</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3654,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>65.52</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>66.89</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>66.89</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>65.5</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>41776.8409</v>
+        <v>197.1637557844454</v>
       </c>
       <c r="G93" t="n">
-        <v>67.33416666666666</v>
+        <v>67.32433333333331</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3689,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>65.5</v>
+        <v>65.52</v>
       </c>
       <c r="C94" t="n">
-        <v>65.5</v>
+        <v>66.89</v>
       </c>
       <c r="D94" t="n">
-        <v>65.5</v>
+        <v>66.89</v>
       </c>
       <c r="E94" t="n">
         <v>65.5</v>
       </c>
       <c r="F94" t="n">
-        <v>45350</v>
+        <v>41776.8409</v>
       </c>
       <c r="G94" t="n">
-        <v>67.3385</v>
+        <v>67.33416666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3724,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>66.89</v>
+        <v>65.5</v>
       </c>
       <c r="C95" t="n">
         <v>65.5</v>
       </c>
       <c r="D95" t="n">
-        <v>66.89</v>
+        <v>65.5</v>
       </c>
       <c r="E95" t="n">
         <v>65.5</v>
       </c>
       <c r="F95" t="n">
-        <v>2849.1716</v>
+        <v>45350</v>
       </c>
       <c r="G95" t="n">
-        <v>67.32616666666667</v>
+        <v>67.3385</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3726,19 +3762,19 @@
         <v>66.89</v>
       </c>
       <c r="C96" t="n">
-        <v>66.89</v>
+        <v>65.5</v>
       </c>
       <c r="D96" t="n">
         <v>66.89</v>
       </c>
       <c r="E96" t="n">
-        <v>66.89</v>
+        <v>65.5</v>
       </c>
       <c r="F96" t="n">
-        <v>197.5728</v>
+        <v>2849.1716</v>
       </c>
       <c r="G96" t="n">
-        <v>67.32933333333334</v>
+        <v>67.32616666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3806,10 @@
         <v>66.89</v>
       </c>
       <c r="F97" t="n">
-        <v>50404.2052</v>
+        <v>197.5728</v>
       </c>
       <c r="G97" t="n">
-        <v>67.27116666666667</v>
+        <v>67.32933333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3829,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>66.09</v>
+        <v>66.89</v>
       </c>
       <c r="C98" t="n">
-        <v>66.09</v>
+        <v>66.89</v>
       </c>
       <c r="D98" t="n">
-        <v>66.09</v>
+        <v>66.89</v>
       </c>
       <c r="E98" t="n">
-        <v>66.09</v>
+        <v>66.89</v>
       </c>
       <c r="F98" t="n">
-        <v>11886.5186</v>
+        <v>50404.2052</v>
       </c>
       <c r="G98" t="n">
-        <v>67.22916666666667</v>
+        <v>67.27116666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3864,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>66.86</v>
+        <v>66.09</v>
       </c>
       <c r="C99" t="n">
-        <v>66.86</v>
+        <v>66.09</v>
       </c>
       <c r="D99" t="n">
-        <v>66.86</v>
+        <v>66.09</v>
       </c>
       <c r="E99" t="n">
-        <v>66.86</v>
+        <v>66.09</v>
       </c>
       <c r="F99" t="n">
-        <v>8</v>
+        <v>11886.5186</v>
       </c>
       <c r="G99" t="n">
-        <v>67.20183333333334</v>
+        <v>67.22916666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3899,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>66.09</v>
+        <v>66.86</v>
       </c>
       <c r="C100" t="n">
-        <v>66.09</v>
+        <v>66.86</v>
       </c>
       <c r="D100" t="n">
-        <v>66.09</v>
+        <v>66.86</v>
       </c>
       <c r="E100" t="n">
-        <v>66.09</v>
+        <v>66.86</v>
       </c>
       <c r="F100" t="n">
-        <v>3500</v>
+        <v>8</v>
       </c>
       <c r="G100" t="n">
-        <v>67.18816666666667</v>
+        <v>67.20183333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3934,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>66.8</v>
+        <v>66.09</v>
       </c>
       <c r="C101" t="n">
-        <v>66.8</v>
+        <v>66.09</v>
       </c>
       <c r="D101" t="n">
-        <v>66.8</v>
+        <v>66.09</v>
       </c>
       <c r="E101" t="n">
-        <v>66.8</v>
+        <v>66.09</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>3500</v>
       </c>
       <c r="G101" t="n">
-        <v>67.18650000000001</v>
+        <v>67.18816666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3936,19 +3972,19 @@
         <v>66.8</v>
       </c>
       <c r="C102" t="n">
-        <v>66.88</v>
+        <v>66.8</v>
       </c>
       <c r="D102" t="n">
-        <v>66.88</v>
+        <v>66.8</v>
       </c>
       <c r="E102" t="n">
         <v>66.8</v>
       </c>
       <c r="F102" t="n">
-        <v>12093.6525</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>67.18783333333334</v>
+        <v>67.18650000000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +4004,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>66.90000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="C103" t="n">
-        <v>67.19</v>
+        <v>66.88</v>
       </c>
       <c r="D103" t="n">
-        <v>67.19</v>
+        <v>66.88</v>
       </c>
       <c r="E103" t="n">
-        <v>66.90000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="F103" t="n">
-        <v>15299.5708</v>
+        <v>12093.6525</v>
       </c>
       <c r="G103" t="n">
-        <v>67.16283333333334</v>
+        <v>67.18783333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4039,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C104" t="n">
         <v>67.19</v>
       </c>
-      <c r="C104" t="n">
-        <v>67.95</v>
-      </c>
       <c r="D104" t="n">
-        <v>67.95999999999999</v>
+        <v>67.19</v>
       </c>
       <c r="E104" t="n">
-        <v>67.19</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>6524.3078</v>
+        <v>15299.5708</v>
       </c>
       <c r="G104" t="n">
-        <v>67.182</v>
+        <v>67.16283333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4074,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>67.94</v>
+        <v>67.19</v>
       </c>
       <c r="C105" t="n">
-        <v>67.90000000000001</v>
+        <v>67.95</v>
       </c>
       <c r="D105" t="n">
-        <v>67.94</v>
+        <v>67.95999999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>67.90000000000001</v>
+        <v>67.19</v>
       </c>
       <c r="F105" t="n">
-        <v>5475.6931</v>
+        <v>6524.3078</v>
       </c>
       <c r="G105" t="n">
-        <v>67.19999999999999</v>
+        <v>67.182</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4109,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>67.40000000000001</v>
+        <v>67.94</v>
       </c>
       <c r="C106" t="n">
-        <v>67.3</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>67.40000000000001</v>
+        <v>67.94</v>
       </c>
       <c r="E106" t="n">
-        <v>67.3</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>6499.6713</v>
+        <v>5475.6931</v>
       </c>
       <c r="G106" t="n">
-        <v>67.19166666666665</v>
+        <v>67.19999999999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4144,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>67.2</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>67.19</v>
+        <v>67.3</v>
       </c>
       <c r="D107" t="n">
-        <v>67.2</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>67.19</v>
+        <v>67.3</v>
       </c>
       <c r="F107" t="n">
-        <v>41038.4997</v>
+        <v>6499.6713</v>
       </c>
       <c r="G107" t="n">
-        <v>67.18116666666664</v>
+        <v>67.19166666666665</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4179,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>67.8</v>
+        <v>67.2</v>
       </c>
       <c r="C108" t="n">
         <v>67.19</v>
       </c>
       <c r="D108" t="n">
-        <v>67.8</v>
+        <v>67.2</v>
       </c>
       <c r="E108" t="n">
         <v>67.19</v>
       </c>
       <c r="F108" t="n">
-        <v>14193.8041</v>
+        <v>41038.4997</v>
       </c>
       <c r="G108" t="n">
-        <v>67.15933333333331</v>
+        <v>67.18116666666664</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4214,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="C109" t="n">
         <v>67.19</v>
       </c>
-      <c r="C109" t="n">
-        <v>67.18000000000001</v>
-      </c>
       <c r="D109" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="E109" t="n">
         <v>67.19</v>
       </c>
-      <c r="E109" t="n">
-        <v>67.18000000000001</v>
-      </c>
       <c r="F109" t="n">
-        <v>29993.4604</v>
+        <v>14193.8041</v>
       </c>
       <c r="G109" t="n">
-        <v>67.14566666666664</v>
+        <v>67.15933333333331</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4249,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>67.18000000000001</v>
+        <v>67.19</v>
       </c>
       <c r="C110" t="n">
         <v>67.18000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>67.18000000000001</v>
+        <v>67.19</v>
       </c>
       <c r="E110" t="n">
         <v>67.18000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>4616.6013</v>
+        <v>29993.4604</v>
       </c>
       <c r="G110" t="n">
-        <v>67.13033333333331</v>
+        <v>67.14566666666664</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4284,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>67.17</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>67.17</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>67.17</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>67.17</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>3282.1016</v>
+        <v>4616.6013</v>
       </c>
       <c r="G111" t="n">
-        <v>67.11483333333332</v>
+        <v>67.13033333333331</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4319,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>66.90000000000001</v>
+        <v>67.17</v>
       </c>
       <c r="C112" t="n">
-        <v>66.90000000000001</v>
+        <v>67.17</v>
       </c>
       <c r="D112" t="n">
-        <v>66.90000000000001</v>
+        <v>67.17</v>
       </c>
       <c r="E112" t="n">
-        <v>66.90000000000001</v>
+        <v>67.17</v>
       </c>
       <c r="F112" t="n">
-        <v>1878.4159</v>
+        <v>3282.1016</v>
       </c>
       <c r="G112" t="n">
-        <v>67.09899999999999</v>
+        <v>67.11483333333332</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4321,19 +4357,19 @@
         <v>66.90000000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>66.09999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D113" t="n">
         <v>66.90000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>66.09999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>24343.6379</v>
+        <v>1878.4159</v>
       </c>
       <c r="G113" t="n">
-        <v>67.08683333333332</v>
+        <v>67.09899999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4389,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>66.09</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>65.55</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>66.09</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>65.55</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>21404.7697</v>
+        <v>24343.6379</v>
       </c>
       <c r="G114" t="n">
-        <v>67.04433333333333</v>
+        <v>67.08683333333332</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4424,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>65.54000000000001</v>
+        <v>66.09</v>
       </c>
       <c r="C115" t="n">
-        <v>67.15000000000001</v>
+        <v>65.55</v>
       </c>
       <c r="D115" t="n">
-        <v>67.15000000000001</v>
+        <v>66.09</v>
       </c>
       <c r="E115" t="n">
-        <v>65.54000000000001</v>
+        <v>65.55</v>
       </c>
       <c r="F115" t="n">
-        <v>11422.2176</v>
+        <v>21404.7697</v>
       </c>
       <c r="G115" t="n">
-        <v>67.04533333333332</v>
+        <v>67.04433333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4459,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>66.09999999999999</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>65.90000000000001</v>
+        <v>67.15000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>66.09999999999999</v>
+        <v>67.15000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>65.90000000000001</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>47444.1201</v>
+        <v>11422.2176</v>
       </c>
       <c r="G116" t="n">
-        <v>67.02549999999999</v>
+        <v>67.04533333333332</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4494,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="C117" t="n">
         <v>65.90000000000001</v>
       </c>
-      <c r="C117" t="n">
-        <v>66</v>
-      </c>
       <c r="D117" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E117" t="n">
         <v>65.90000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>814.6976</v>
+        <v>47444.1201</v>
       </c>
       <c r="G117" t="n">
-        <v>66.97733333333332</v>
+        <v>67.02549999999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4529,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>67.13</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>67.13</v>
+        <v>66</v>
       </c>
       <c r="D118" t="n">
-        <v>67.13</v>
+        <v>66</v>
       </c>
       <c r="E118" t="n">
-        <v>67.13</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>45.07671681811411</v>
+        <v>814.6976</v>
       </c>
       <c r="G118" t="n">
-        <v>66.97799999999999</v>
+        <v>66.97733333333332</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4564,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>67.15000000000001</v>
+        <v>67.13</v>
       </c>
       <c r="C119" t="n">
-        <v>67.15000000000001</v>
+        <v>67.13</v>
       </c>
       <c r="D119" t="n">
-        <v>67.15000000000001</v>
+        <v>67.13</v>
       </c>
       <c r="E119" t="n">
-        <v>67.15000000000001</v>
+        <v>67.13</v>
       </c>
       <c r="F119" t="n">
-        <v>200</v>
+        <v>45.07671681811411</v>
       </c>
       <c r="G119" t="n">
-        <v>66.98399999999999</v>
+        <v>66.97799999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4599,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>66.59999999999999</v>
+        <v>67.15000000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>66.59999999999999</v>
+        <v>67.15000000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>66.59999999999999</v>
+        <v>67.15000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>66.59999999999999</v>
+        <v>67.15000000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>1371.955</v>
+        <v>200</v>
       </c>
       <c r="G120" t="n">
-        <v>66.94583333333333</v>
+        <v>66.98399999999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4634,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>66.55</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>67.09</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>67.09</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E121" t="n">
-        <v>66.55</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>4156.4881</v>
+        <v>1371.955</v>
       </c>
       <c r="G121" t="n">
-        <v>66.95066666666666</v>
+        <v>66.94583333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4636,19 +4672,19 @@
         <v>66.55</v>
       </c>
       <c r="C122" t="n">
-        <v>66.55</v>
+        <v>67.09</v>
       </c>
       <c r="D122" t="n">
-        <v>66.55</v>
+        <v>67.09</v>
       </c>
       <c r="E122" t="n">
         <v>66.55</v>
       </c>
       <c r="F122" t="n">
-        <v>800.1879</v>
+        <v>4156.4881</v>
       </c>
       <c r="G122" t="n">
-        <v>66.94666666666666</v>
+        <v>66.95066666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4704,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>67.09</v>
+        <v>66.55</v>
       </c>
       <c r="C123" t="n">
-        <v>67.09</v>
+        <v>66.55</v>
       </c>
       <c r="D123" t="n">
-        <v>67.09</v>
+        <v>66.55</v>
       </c>
       <c r="E123" t="n">
-        <v>67.09</v>
+        <v>66.55</v>
       </c>
       <c r="F123" t="n">
-        <v>8</v>
+        <v>800.1879</v>
       </c>
       <c r="G123" t="n">
-        <v>66.95166666666667</v>
+        <v>66.94666666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4715,10 +4751,10 @@
         <v>67.09</v>
       </c>
       <c r="F124" t="n">
-        <v>4813.361</v>
+        <v>8</v>
       </c>
       <c r="G124" t="n">
-        <v>66.97966666666667</v>
+        <v>66.95166666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4750,10 +4786,10 @@
         <v>67.09</v>
       </c>
       <c r="F125" t="n">
-        <v>3607.7796</v>
+        <v>4813.361</v>
       </c>
       <c r="G125" t="n">
-        <v>66.9845</v>
+        <v>66.97966666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4809,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>67</v>
+        <v>67.09</v>
       </c>
       <c r="C126" t="n">
-        <v>67</v>
+        <v>67.09</v>
       </c>
       <c r="D126" t="n">
-        <v>67</v>
+        <v>67.09</v>
       </c>
       <c r="E126" t="n">
-        <v>67</v>
+        <v>67.09</v>
       </c>
       <c r="F126" t="n">
-        <v>6059.5213</v>
+        <v>3607.7796</v>
       </c>
       <c r="G126" t="n">
-        <v>66.96133333333334</v>
+        <v>66.9845</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4844,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="C127" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="D127" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="E127" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="F127" t="n">
-        <v>1371.955</v>
+        <v>6059.5213</v>
       </c>
       <c r="G127" t="n">
-        <v>66.93650000000001</v>
+        <v>66.96133333333334</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4879,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>4803.3302</v>
+        <v>1371.955</v>
       </c>
       <c r="G128" t="n">
-        <v>66.91500000000001</v>
+        <v>66.93650000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4914,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>67</v>
+        <v>66.7</v>
       </c>
       <c r="C129" t="n">
-        <v>67</v>
+        <v>66.7</v>
       </c>
       <c r="D129" t="n">
-        <v>67</v>
+        <v>66.7</v>
       </c>
       <c r="E129" t="n">
-        <v>67</v>
+        <v>66.7</v>
       </c>
       <c r="F129" t="n">
-        <v>23718.3812</v>
+        <v>4803.3302</v>
       </c>
       <c r="G129" t="n">
-        <v>66.90166666666667</v>
+        <v>66.91500000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4949,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>66.7</v>
+        <v>67</v>
       </c>
       <c r="C130" t="n">
-        <v>66.7</v>
+        <v>67</v>
       </c>
       <c r="D130" t="n">
-        <v>66.7</v>
+        <v>67</v>
       </c>
       <c r="E130" t="n">
-        <v>66.7</v>
+        <v>67</v>
       </c>
       <c r="F130" t="n">
-        <v>4193.7042</v>
+        <v>23718.3812</v>
       </c>
       <c r="G130" t="n">
-        <v>66.88333333333334</v>
+        <v>66.90166666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,10 +4996,10 @@
         <v>66.7</v>
       </c>
       <c r="F131" t="n">
-        <v>24579.0407</v>
+        <v>4193.7042</v>
       </c>
       <c r="G131" t="n">
-        <v>66.89883333333333</v>
+        <v>66.88333333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4986,19 +5022,19 @@
         <v>66.7</v>
       </c>
       <c r="C132" t="n">
-        <v>66.61</v>
+        <v>66.7</v>
       </c>
       <c r="D132" t="n">
         <v>66.7</v>
       </c>
       <c r="E132" t="n">
-        <v>66.61</v>
+        <v>66.7</v>
       </c>
       <c r="F132" t="n">
-        <v>3146.9195</v>
+        <v>24579.0407</v>
       </c>
       <c r="G132" t="n">
-        <v>66.88249999999999</v>
+        <v>66.89883333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5021,19 +5057,19 @@
         <v>66.7</v>
       </c>
       <c r="C133" t="n">
-        <v>66.7</v>
+        <v>66.61</v>
       </c>
       <c r="D133" t="n">
         <v>66.7</v>
       </c>
       <c r="E133" t="n">
-        <v>66.7</v>
+        <v>66.61</v>
       </c>
       <c r="F133" t="n">
-        <v>9786.7518</v>
+        <v>3146.9195</v>
       </c>
       <c r="G133" t="n">
-        <v>66.90266666666666</v>
+        <v>66.88249999999999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5065,10 +5101,10 @@
         <v>66.7</v>
       </c>
       <c r="F134" t="n">
-        <v>6360.1815</v>
+        <v>9786.7518</v>
       </c>
       <c r="G134" t="n">
-        <v>66.88783333333332</v>
+        <v>66.90266666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5124,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>66.70999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="C135" t="n">
         <v>66.7</v>
       </c>
       <c r="D135" t="n">
-        <v>66.70999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="E135" t="n">
         <v>66.7</v>
       </c>
       <c r="F135" t="n">
-        <v>23519.6084</v>
+        <v>6360.1815</v>
       </c>
       <c r="G135" t="n">
-        <v>66.87299999999999</v>
+        <v>66.88783333333332</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5159,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>66.61</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>66.61</v>
+        <v>66.7</v>
       </c>
       <c r="D136" t="n">
-        <v>66.61</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>66.61</v>
+        <v>66.7</v>
       </c>
       <c r="F136" t="n">
-        <v>3000</v>
+        <v>23519.6084</v>
       </c>
       <c r="G136" t="n">
-        <v>66.85666666666665</v>
+        <v>66.87299999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5194,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>66.65000000000001</v>
+        <v>66.61</v>
       </c>
       <c r="C137" t="n">
-        <v>66.63</v>
+        <v>66.61</v>
       </c>
       <c r="D137" t="n">
-        <v>66.65000000000001</v>
+        <v>66.61</v>
       </c>
       <c r="E137" t="n">
-        <v>66.63</v>
+        <v>66.61</v>
       </c>
       <c r="F137" t="n">
-        <v>10710</v>
+        <v>3000</v>
       </c>
       <c r="G137" t="n">
-        <v>66.84066666666665</v>
+        <v>66.85666666666665</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5229,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>66.61</v>
+        <v>66.65000000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>66.55</v>
+        <v>66.63</v>
       </c>
       <c r="D138" t="n">
-        <v>66.61</v>
+        <v>66.65000000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>66.55</v>
+        <v>66.63</v>
       </c>
       <c r="F138" t="n">
-        <v>5882.4344</v>
+        <v>10710</v>
       </c>
       <c r="G138" t="n">
-        <v>66.82333333333332</v>
+        <v>66.84066666666665</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5264,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>66.02</v>
+        <v>66.61</v>
       </c>
       <c r="C139" t="n">
-        <v>66.02</v>
+        <v>66.55</v>
       </c>
       <c r="D139" t="n">
-        <v>66.02</v>
+        <v>66.61</v>
       </c>
       <c r="E139" t="n">
-        <v>66.02</v>
+        <v>66.55</v>
       </c>
       <c r="F139" t="n">
-        <v>10018.408</v>
+        <v>5882.4344</v>
       </c>
       <c r="G139" t="n">
-        <v>66.79716666666666</v>
+        <v>66.82333333333332</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5299,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>66.03</v>
+        <v>66.02</v>
       </c>
       <c r="C140" t="n">
-        <v>66.03</v>
+        <v>66.02</v>
       </c>
       <c r="D140" t="n">
-        <v>66.03</v>
+        <v>66.02</v>
       </c>
       <c r="E140" t="n">
-        <v>66.03</v>
+        <v>66.02</v>
       </c>
       <c r="F140" t="n">
-        <v>22525.4984</v>
+        <v>10018.408</v>
       </c>
       <c r="G140" t="n">
-        <v>66.77116666666664</v>
+        <v>66.79716666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5310,10 +5346,10 @@
         <v>66.03</v>
       </c>
       <c r="F141" t="n">
-        <v>131035.2018</v>
+        <v>22525.4984</v>
       </c>
       <c r="G141" t="n">
-        <v>66.74516666666665</v>
+        <v>66.77116666666664</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5369,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>66.11</v>
+        <v>66.03</v>
       </c>
       <c r="C142" t="n">
-        <v>66.11</v>
+        <v>66.03</v>
       </c>
       <c r="D142" t="n">
-        <v>66.11</v>
+        <v>66.03</v>
       </c>
       <c r="E142" t="n">
-        <v>66.11</v>
+        <v>66.03</v>
       </c>
       <c r="F142" t="n">
-        <v>8</v>
+        <v>131035.2018</v>
       </c>
       <c r="G142" t="n">
-        <v>66.71449999999999</v>
+        <v>66.74516666666665</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5404,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>66.59999999999999</v>
+        <v>66.11</v>
       </c>
       <c r="C143" t="n">
-        <v>66.59999999999999</v>
+        <v>66.11</v>
       </c>
       <c r="D143" t="n">
-        <v>66.59999999999999</v>
+        <v>66.11</v>
       </c>
       <c r="E143" t="n">
-        <v>66.59999999999999</v>
+        <v>66.11</v>
       </c>
       <c r="F143" t="n">
         <v>8</v>
       </c>
       <c r="G143" t="n">
-        <v>66.69799999999999</v>
+        <v>66.71449999999999</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5415,10 +5451,10 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F144" t="n">
-        <v>1448.4712</v>
+        <v>8</v>
       </c>
       <c r="G144" t="n">
-        <v>66.67566666666666</v>
+        <v>66.69799999999999</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5450,10 +5486,10 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F145" t="n">
-        <v>26453.0412</v>
+        <v>1448.4712</v>
       </c>
       <c r="G145" t="n">
-        <v>66.69516666666665</v>
+        <v>66.67566666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5476,19 +5512,19 @@
         <v>66.59999999999999</v>
       </c>
       <c r="C146" t="n">
-        <v>67.94</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D146" t="n">
-        <v>67.94</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E146" t="n">
         <v>66.59999999999999</v>
       </c>
       <c r="F146" t="n">
-        <v>12500</v>
+        <v>26453.0412</v>
       </c>
       <c r="G146" t="n">
-        <v>66.70766666666665</v>
+        <v>66.69516666666665</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5544,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>67.90000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C147" t="n">
-        <v>67.90000000000001</v>
+        <v>67.94</v>
       </c>
       <c r="D147" t="n">
-        <v>67.90000000000001</v>
+        <v>67.94</v>
       </c>
       <c r="E147" t="n">
-        <v>67.90000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F147" t="n">
-        <v>363.5866</v>
+        <v>12500</v>
       </c>
       <c r="G147" t="n">
-        <v>66.74883333333332</v>
+        <v>66.70766666666665</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5555,10 +5591,10 @@
         <v>67.90000000000001</v>
       </c>
       <c r="F148" t="n">
-        <v>4666.4494</v>
+        <v>363.5866</v>
       </c>
       <c r="G148" t="n">
-        <v>66.79033333333332</v>
+        <v>66.74883333333332</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5614,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>66.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C149" t="n">
-        <v>66.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D149" t="n">
-        <v>66.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E149" t="n">
-        <v>66.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F149" t="n">
-        <v>8.5015</v>
+        <v>4666.4494</v>
       </c>
       <c r="G149" t="n">
-        <v>66.78049999999999</v>
+        <v>66.79033333333332</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5649,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>66.52</v>
+        <v>66.5</v>
       </c>
       <c r="C150" t="n">
-        <v>66.52</v>
+        <v>66.5</v>
       </c>
       <c r="D150" t="n">
-        <v>66.52</v>
+        <v>66.5</v>
       </c>
       <c r="E150" t="n">
-        <v>66.52</v>
+        <v>66.5</v>
       </c>
       <c r="F150" t="n">
-        <v>39.3143</v>
+        <v>8.5015</v>
       </c>
       <c r="G150" t="n">
-        <v>66.77099999999999</v>
+        <v>66.78049999999999</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5684,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>67.94</v>
+        <v>66.52</v>
       </c>
       <c r="C151" t="n">
-        <v>67.94</v>
+        <v>66.52</v>
       </c>
       <c r="D151" t="n">
-        <v>67.94</v>
+        <v>66.52</v>
       </c>
       <c r="E151" t="n">
-        <v>67.94</v>
+        <v>66.52</v>
       </c>
       <c r="F151" t="n">
-        <v>10</v>
+        <v>39.3143</v>
       </c>
       <c r="G151" t="n">
-        <v>66.78683333333332</v>
+        <v>66.77099999999999</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5719,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>66.52</v>
+        <v>67.94</v>
       </c>
       <c r="C152" t="n">
-        <v>66.52</v>
+        <v>67.94</v>
       </c>
       <c r="D152" t="n">
-        <v>66.52</v>
+        <v>67.94</v>
       </c>
       <c r="E152" t="n">
-        <v>66.52</v>
+        <v>67.94</v>
       </c>
       <c r="F152" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G152" t="n">
-        <v>66.779</v>
+        <v>66.78683333333332</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5754,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>67.48999999999999</v>
+        <v>66.52</v>
       </c>
       <c r="C153" t="n">
-        <v>67.48999999999999</v>
+        <v>66.52</v>
       </c>
       <c r="D153" t="n">
-        <v>67.48999999999999</v>
+        <v>66.52</v>
       </c>
       <c r="E153" t="n">
-        <v>67.48999999999999</v>
+        <v>66.52</v>
       </c>
       <c r="F153" t="n">
-        <v>52.6073</v>
+        <v>180</v>
       </c>
       <c r="G153" t="n">
-        <v>66.789</v>
+        <v>66.779</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5789,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>66.44</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="C154" t="n">
-        <v>66.3</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="D154" t="n">
-        <v>66.44</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="E154" t="n">
-        <v>66.3</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="F154" t="n">
-        <v>25728.1692</v>
+        <v>52.6073</v>
       </c>
       <c r="G154" t="n">
-        <v>66.80233333333334</v>
+        <v>66.789</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5824,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>66.3</v>
+        <v>66.44</v>
       </c>
       <c r="C155" t="n">
         <v>66.3</v>
       </c>
       <c r="D155" t="n">
-        <v>66.3</v>
+        <v>66.44</v>
       </c>
       <c r="E155" t="n">
         <v>66.3</v>
       </c>
       <c r="F155" t="n">
-        <v>283.1622</v>
+        <v>25728.1692</v>
       </c>
       <c r="G155" t="n">
-        <v>66.81566666666667</v>
+        <v>66.80233333333334</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5826,19 +5862,19 @@
         <v>66.3</v>
       </c>
       <c r="C156" t="n">
-        <v>66</v>
+        <v>66.3</v>
       </c>
       <c r="D156" t="n">
         <v>66.3</v>
       </c>
       <c r="E156" t="n">
-        <v>66</v>
+        <v>66.3</v>
       </c>
       <c r="F156" t="n">
-        <v>65281.42221674208</v>
+        <v>283.1622</v>
       </c>
       <c r="G156" t="n">
-        <v>66.80083333333333</v>
+        <v>66.81566666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5894,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C157" t="n">
         <v>66</v>
       </c>
-      <c r="C157" t="n">
-        <v>65.52</v>
-      </c>
       <c r="D157" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E157" t="n">
         <v>66</v>
       </c>
-      <c r="E157" t="n">
-        <v>65.52</v>
-      </c>
       <c r="F157" t="n">
-        <v>77271.5295</v>
+        <v>65281.42221674208</v>
       </c>
       <c r="G157" t="n">
-        <v>66.77800000000001</v>
+        <v>66.80083333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5929,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>67.39</v>
+        <v>66</v>
       </c>
       <c r="C158" t="n">
-        <v>67.39</v>
+        <v>65.52</v>
       </c>
       <c r="D158" t="n">
-        <v>67.39</v>
+        <v>66</v>
       </c>
       <c r="E158" t="n">
-        <v>67.39</v>
+        <v>65.52</v>
       </c>
       <c r="F158" t="n">
-        <v>51.8627</v>
+        <v>77271.5295</v>
       </c>
       <c r="G158" t="n">
-        <v>66.79966666666667</v>
+        <v>66.77800000000001</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5964,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>65.62</v>
+        <v>67.39</v>
       </c>
       <c r="C159" t="n">
-        <v>65</v>
+        <v>67.39</v>
       </c>
       <c r="D159" t="n">
-        <v>65.62</v>
+        <v>67.39</v>
       </c>
       <c r="E159" t="n">
-        <v>64.55</v>
+        <v>67.39</v>
       </c>
       <c r="F159" t="n">
-        <v>274443.8129</v>
+        <v>51.8627</v>
       </c>
       <c r="G159" t="n">
-        <v>66.76866666666666</v>
+        <v>66.79966666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5999,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>65</v>
+        <v>65.62</v>
       </c>
       <c r="C160" t="n">
         <v>65</v>
       </c>
       <c r="D160" t="n">
-        <v>65</v>
+        <v>65.62</v>
       </c>
       <c r="E160" t="n">
-        <v>65</v>
+        <v>64.55</v>
       </c>
       <c r="F160" t="n">
-        <v>8</v>
+        <v>274443.8129</v>
       </c>
       <c r="G160" t="n">
-        <v>66.7505</v>
+        <v>66.76866666666666</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +6034,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>66.09999999999999</v>
+        <v>65</v>
       </c>
       <c r="C161" t="n">
-        <v>66.09999999999999</v>
+        <v>65</v>
       </c>
       <c r="D161" t="n">
-        <v>66.09999999999999</v>
+        <v>65</v>
       </c>
       <c r="E161" t="n">
-        <v>66.09999999999999</v>
+        <v>65</v>
       </c>
       <c r="F161" t="n">
-        <v>15065</v>
+        <v>8</v>
       </c>
       <c r="G161" t="n">
-        <v>66.73883333333332</v>
+        <v>66.7505</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6069,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>66.40000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C162" t="n">
-        <v>66.40000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D162" t="n">
-        <v>66.40000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E162" t="n">
-        <v>66.40000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F162" t="n">
-        <v>207.6656626506024</v>
+        <v>15065</v>
       </c>
       <c r="G162" t="n">
-        <v>66.73083333333332</v>
+        <v>66.73883333333332</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6071,19 +6107,19 @@
         <v>66.40000000000001</v>
       </c>
       <c r="C163" t="n">
-        <v>66.56999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D163" t="n">
-        <v>66.7</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E163" t="n">
         <v>66.40000000000001</v>
       </c>
       <c r="F163" t="n">
-        <v>19936.4204373494</v>
+        <v>207.6656626506024</v>
       </c>
       <c r="G163" t="n">
-        <v>66.72049999999999</v>
+        <v>66.73083333333332</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6139,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>66.8</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>66.8</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="D164" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="E164" t="n">
-        <v>66.8</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F164" t="n">
-        <v>1714.5599</v>
+        <v>19936.4204373494</v>
       </c>
       <c r="G164" t="n">
-        <v>66.70133333333334</v>
+        <v>66.72049999999999</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6150,10 +6186,10 @@
         <v>66.8</v>
       </c>
       <c r="F165" t="n">
-        <v>72432.848</v>
+        <v>1714.5599</v>
       </c>
       <c r="G165" t="n">
-        <v>66.68300000000001</v>
+        <v>66.70133333333334</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6209,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>67.40000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="C166" t="n">
-        <v>67.5</v>
+        <v>66.8</v>
       </c>
       <c r="D166" t="n">
-        <v>67.5</v>
+        <v>66.8</v>
       </c>
       <c r="E166" t="n">
-        <v>67.40000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="F166" t="n">
-        <v>3292.9177</v>
+        <v>72432.848</v>
       </c>
       <c r="G166" t="n">
-        <v>66.68633333333334</v>
+        <v>66.68300000000001</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,7 +6244,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C167" t="n">
         <v>67.5</v>
@@ -6217,13 +6253,13 @@
         <v>67.5</v>
       </c>
       <c r="E167" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F167" t="n">
-        <v>3213.916</v>
+        <v>3292.9177</v>
       </c>
       <c r="G167" t="n">
-        <v>66.69149999999999</v>
+        <v>66.68633333333334</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6279,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="C168" t="n">
-        <v>66.8</v>
+        <v>67.5</v>
       </c>
       <c r="D168" t="n">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="E168" t="n">
-        <v>66.8</v>
+        <v>67.5</v>
       </c>
       <c r="F168" t="n">
-        <v>7917.282</v>
+        <v>3213.916</v>
       </c>
       <c r="G168" t="n">
-        <v>66.685</v>
+        <v>66.69149999999999</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6314,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>67.40000000000001</v>
+        <v>67</v>
       </c>
       <c r="C169" t="n">
-        <v>67.40000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="D169" t="n">
-        <v>67.40000000000001</v>
+        <v>67</v>
       </c>
       <c r="E169" t="n">
-        <v>67.40000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="F169" t="n">
-        <v>200</v>
+        <v>7917.282</v>
       </c>
       <c r="G169" t="n">
-        <v>66.68866666666666</v>
+        <v>66.685</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6349,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>66.90000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C170" t="n">
-        <v>67</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D170" t="n">
-        <v>67</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E170" t="n">
-        <v>66.90000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F170" t="n">
-        <v>2000.7691</v>
+        <v>200</v>
       </c>
       <c r="G170" t="n">
-        <v>66.68566666666668</v>
+        <v>66.68866666666666</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,7 +6384,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>67</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C171" t="n">
         <v>67</v>
@@ -6357,13 +6393,13 @@
         <v>67</v>
       </c>
       <c r="E171" t="n">
-        <v>67</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F171" t="n">
-        <v>913.0569</v>
+        <v>2000.7691</v>
       </c>
       <c r="G171" t="n">
-        <v>66.68283333333333</v>
+        <v>66.68566666666668</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6395,10 +6431,10 @@
         <v>67</v>
       </c>
       <c r="F172" t="n">
-        <v>480.4057</v>
+        <v>913.0569</v>
       </c>
       <c r="G172" t="n">
-        <v>66.6845</v>
+        <v>66.68283333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6430,10 +6466,10 @@
         <v>67</v>
       </c>
       <c r="F173" t="n">
-        <v>3351.8487</v>
+        <v>480.4057</v>
       </c>
       <c r="G173" t="n">
-        <v>66.6995</v>
+        <v>66.6845</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6489,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="C174" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="D174" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="E174" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="F174" t="n">
-        <v>14631.0583</v>
+        <v>3351.8487</v>
       </c>
       <c r="G174" t="n">
-        <v>66.72200000000001</v>
+        <v>66.6995</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6500,10 +6536,10 @@
         <v>66.90000000000001</v>
       </c>
       <c r="F175" t="n">
-        <v>11516.8051</v>
+        <v>14631.0583</v>
       </c>
       <c r="G175" t="n">
-        <v>66.71783333333333</v>
+        <v>66.72200000000001</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6526,19 +6562,19 @@
         <v>66.90000000000001</v>
       </c>
       <c r="C176" t="n">
-        <v>66.56999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D176" t="n">
         <v>66.90000000000001</v>
       </c>
       <c r="E176" t="n">
-        <v>66.56999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F176" t="n">
-        <v>18453.5485</v>
+        <v>11516.8051</v>
       </c>
       <c r="G176" t="n">
-        <v>66.729</v>
+        <v>66.71783333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6594,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C177" t="n">
-        <v>66.7</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="D177" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E177" t="n">
-        <v>66.7</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="F177" t="n">
-        <v>45.0767</v>
+        <v>18453.5485</v>
       </c>
       <c r="G177" t="n">
-        <v>66.74066666666667</v>
+        <v>66.729</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6596,19 +6632,19 @@
         <v>66.7</v>
       </c>
       <c r="C178" t="n">
-        <v>66.56999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="D178" t="n">
         <v>66.7</v>
       </c>
       <c r="E178" t="n">
-        <v>66.56999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="F178" t="n">
-        <v>16630.5434</v>
+        <v>45.0767</v>
       </c>
       <c r="G178" t="n">
-        <v>66.73133333333334</v>
+        <v>66.74066666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6664,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>66.56999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="C179" t="n">
         <v>66.56999999999999</v>
       </c>
       <c r="D179" t="n">
-        <v>66.56999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="E179" t="n">
         <v>66.56999999999999</v>
       </c>
       <c r="F179" t="n">
-        <v>151.7922</v>
+        <v>16630.5434</v>
       </c>
       <c r="G179" t="n">
-        <v>66.72166666666666</v>
+        <v>66.73133333333334</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6699,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>66</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="C180" t="n">
-        <v>65.09999999999999</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="D180" t="n">
-        <v>66</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="E180" t="n">
-        <v>65.09999999999999</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="F180" t="n">
-        <v>35047.0399</v>
+        <v>151.7922</v>
       </c>
       <c r="G180" t="n">
-        <v>66.69666666666667</v>
+        <v>66.72166666666666</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6734,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>65.22</v>
+        <v>66</v>
       </c>
       <c r="C181" t="n">
-        <v>65.22</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="D181" t="n">
-        <v>65.22</v>
+        <v>66</v>
       </c>
       <c r="E181" t="n">
-        <v>65.22</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="F181" t="n">
-        <v>8617.2389</v>
+        <v>35047.0399</v>
       </c>
       <c r="G181" t="n">
-        <v>66.66549999999999</v>
+        <v>66.69666666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6745,10 +6781,10 @@
         <v>65.22</v>
       </c>
       <c r="F182" t="n">
-        <v>1169.5129</v>
+        <v>8617.2389</v>
       </c>
       <c r="G182" t="n">
-        <v>66.64333333333333</v>
+        <v>66.66549999999999</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +6804,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>66</v>
+        <v>65.22</v>
       </c>
       <c r="C183" t="n">
-        <v>66</v>
+        <v>65.22</v>
       </c>
       <c r="D183" t="n">
-        <v>66</v>
+        <v>65.22</v>
       </c>
       <c r="E183" t="n">
-        <v>66</v>
+        <v>65.22</v>
       </c>
       <c r="F183" t="n">
-        <v>186.9898</v>
+        <v>1169.5129</v>
       </c>
       <c r="G183" t="n">
-        <v>66.62516666666666</v>
+        <v>66.64333333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,7 +6839,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>65.8</v>
+        <v>66</v>
       </c>
       <c r="C184" t="n">
         <v>66</v>
@@ -6812,13 +6848,13 @@
         <v>66</v>
       </c>
       <c r="E184" t="n">
-        <v>65.8</v>
+        <v>66</v>
       </c>
       <c r="F184" t="n">
-        <v>29357.416</v>
+        <v>186.9898</v>
       </c>
       <c r="G184" t="n">
-        <v>66.60699999999999</v>
+        <v>66.62516666666666</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6874,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>66.09999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="C185" t="n">
         <v>66</v>
       </c>
       <c r="D185" t="n">
-        <v>66.09999999999999</v>
+        <v>66</v>
       </c>
       <c r="E185" t="n">
-        <v>66</v>
+        <v>65.8</v>
       </c>
       <c r="F185" t="n">
-        <v>9036.5954</v>
+        <v>29357.416</v>
       </c>
       <c r="G185" t="n">
-        <v>66.58883333333331</v>
+        <v>66.60699999999999</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +6909,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>66.40000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C186" t="n">
-        <v>66.40000000000001</v>
+        <v>66</v>
       </c>
       <c r="D186" t="n">
-        <v>66.40000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E186" t="n">
-        <v>66.40000000000001</v>
+        <v>66</v>
       </c>
       <c r="F186" t="n">
-        <v>4222.3692</v>
+        <v>9036.5954</v>
       </c>
       <c r="G186" t="n">
-        <v>66.57883333333332</v>
+        <v>66.58883333333331</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +6944,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>66.48999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C187" t="n">
-        <v>66.48999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D187" t="n">
-        <v>66.48999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E187" t="n">
-        <v>66.48999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F187" t="n">
-        <v>2611.5971</v>
+        <v>4222.3692</v>
       </c>
       <c r="G187" t="n">
-        <v>66.57199999999997</v>
+        <v>66.57883333333332</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6979,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>65.70999999999999</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="C188" t="n">
-        <v>65.70999999999999</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="D188" t="n">
-        <v>65.70999999999999</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="E188" t="n">
-        <v>65.70999999999999</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="F188" t="n">
-        <v>5219.905</v>
+        <v>2611.5971</v>
       </c>
       <c r="G188" t="n">
-        <v>66.55549999999998</v>
+        <v>66.57199999999997</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +7014,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>65.56999999999999</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="C189" t="n">
-        <v>65.56999999999999</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="D189" t="n">
-        <v>65.56999999999999</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="E189" t="n">
-        <v>65.56999999999999</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="F189" t="n">
-        <v>24409.8088</v>
+        <v>5219.905</v>
       </c>
       <c r="G189" t="n">
-        <v>66.53166666666665</v>
+        <v>66.55549999999998</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7025,10 +7061,10 @@
         <v>65.56999999999999</v>
       </c>
       <c r="F190" t="n">
-        <v>30347.8922</v>
+        <v>24409.8088</v>
       </c>
       <c r="G190" t="n">
-        <v>66.51283333333332</v>
+        <v>66.53166666666665</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7084,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>65.40000000000001</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="C191" t="n">
-        <v>65.40000000000001</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="D191" t="n">
-        <v>65.40000000000001</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="E191" t="n">
-        <v>65.40000000000001</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="F191" t="n">
-        <v>1488.2474</v>
+        <v>30347.8922</v>
       </c>
       <c r="G191" t="n">
-        <v>66.49116666666666</v>
+        <v>66.51283333333332</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7095,10 +7131,10 @@
         <v>65.40000000000001</v>
       </c>
       <c r="F192" t="n">
-        <v>30</v>
+        <v>1488.2474</v>
       </c>
       <c r="G192" t="n">
-        <v>66.47099999999999</v>
+        <v>66.49116666666666</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7130,10 +7166,10 @@
         <v>65.40000000000001</v>
       </c>
       <c r="F193" t="n">
-        <v>4115.9414</v>
+        <v>30</v>
       </c>
       <c r="G193" t="n">
-        <v>66.44933333333333</v>
+        <v>66.47099999999999</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7189,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>65.5</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="C194" t="n">
-        <v>65.5</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="D194" t="n">
-        <v>65.5</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E194" t="n">
-        <v>65.5</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="F194" t="n">
-        <v>6652.2938</v>
+        <v>4115.9414</v>
       </c>
       <c r="G194" t="n">
-        <v>66.42933333333333</v>
+        <v>66.44933333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7224,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>65.59999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="C195" t="n">
-        <v>66.29000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="D195" t="n">
-        <v>66.29000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="E195" t="n">
-        <v>65.59999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="F195" t="n">
-        <v>13061.5519</v>
+        <v>6652.2938</v>
       </c>
       <c r="G195" t="n">
-        <v>66.4225</v>
+        <v>66.42933333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7259,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="C196" t="n">
         <v>66.29000000000001</v>
       </c>
-      <c r="C196" t="n">
-        <v>66.48</v>
-      </c>
       <c r="D196" t="n">
-        <v>66.48</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="E196" t="n">
-        <v>66.29000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F196" t="n">
-        <v>16368.9422</v>
+        <v>13061.5519</v>
       </c>
       <c r="G196" t="n">
-        <v>66.42033333333333</v>
+        <v>66.4225</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,7 +7294,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>66.48</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="C197" t="n">
         <v>66.48</v>
@@ -7267,13 +7303,13 @@
         <v>66.48</v>
       </c>
       <c r="E197" t="n">
-        <v>66.48</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="F197" t="n">
-        <v>1320.6438</v>
+        <v>16368.9422</v>
       </c>
       <c r="G197" t="n">
-        <v>66.41783333333333</v>
+        <v>66.42033333333333</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7329,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>65.76000000000001</v>
+        <v>66.48</v>
       </c>
       <c r="C198" t="n">
-        <v>66.40000000000001</v>
+        <v>66.48</v>
       </c>
       <c r="D198" t="n">
-        <v>66.45</v>
+        <v>66.48</v>
       </c>
       <c r="E198" t="n">
-        <v>65.5</v>
+        <v>66.48</v>
       </c>
       <c r="F198" t="n">
-        <v>58514.2855</v>
+        <v>1320.6438</v>
       </c>
       <c r="G198" t="n">
-        <v>66.41533333333334</v>
+        <v>66.41783333333333</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,22 +7364,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>66.45</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="C199" t="n">
-        <v>65.70999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D199" t="n">
         <v>66.45</v>
       </c>
       <c r="E199" t="n">
-        <v>65.70999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="F199" t="n">
-        <v>5527.3807</v>
+        <v>58514.2855</v>
       </c>
       <c r="G199" t="n">
-        <v>66.41016666666667</v>
+        <v>66.41533333333334</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7363,22 +7399,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
+        <v>66.45</v>
+      </c>
+      <c r="C200" t="n">
         <v>65.70999999999999</v>
       </c>
-      <c r="C200" t="n">
-        <v>65.51000000000001</v>
-      </c>
       <c r="D200" t="n">
+        <v>66.45</v>
+      </c>
+      <c r="E200" t="n">
         <v>65.70999999999999</v>
       </c>
-      <c r="E200" t="n">
-        <v>65.51000000000001</v>
-      </c>
       <c r="F200" t="n">
-        <v>19236.8573</v>
+        <v>5527.3807</v>
       </c>
       <c r="G200" t="n">
-        <v>66.4015</v>
+        <v>66.41016666666667</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7398,22 +7434,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>66.29000000000001</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="C201" t="n">
-        <v>66.29000000000001</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="D201" t="n">
-        <v>66.29000000000001</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="E201" t="n">
-        <v>66.29000000000001</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="F201" t="n">
-        <v>219.4657</v>
+        <v>19236.8573</v>
       </c>
       <c r="G201" t="n">
-        <v>66.40583333333333</v>
+        <v>66.4015</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7445,10 +7481,10 @@
         <v>66.29000000000001</v>
       </c>
       <c r="F202" t="n">
-        <v>538.1514</v>
+        <v>219.4657</v>
       </c>
       <c r="G202" t="n">
-        <v>66.40883333333333</v>
+        <v>66.40583333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7480,10 +7516,10 @@
         <v>66.29000000000001</v>
       </c>
       <c r="F203" t="n">
-        <v>1493.6002</v>
+        <v>538.1514</v>
       </c>
       <c r="G203" t="n">
-        <v>66.40366666666667</v>
+        <v>66.40883333333333</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7506,19 +7542,19 @@
         <v>66.29000000000001</v>
       </c>
       <c r="C204" t="n">
-        <v>67.25</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="D204" t="n">
-        <v>67.25</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="E204" t="n">
         <v>66.29000000000001</v>
       </c>
       <c r="F204" t="n">
-        <v>11491.93842486245</v>
+        <v>1493.6002</v>
       </c>
       <c r="G204" t="n">
-        <v>66.4145</v>
+        <v>66.40366666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,22 +7574,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>67.2</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="C205" t="n">
-        <v>67.2</v>
+        <v>67.25</v>
       </c>
       <c r="D205" t="n">
-        <v>67.2</v>
+        <v>67.25</v>
       </c>
       <c r="E205" t="n">
-        <v>67.2</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="F205" t="n">
-        <v>10</v>
+        <v>11491.93842486245</v>
       </c>
       <c r="G205" t="n">
-        <v>66.42449999999999</v>
+        <v>66.4145</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7573,22 +7609,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>67.19</v>
+        <v>67.2</v>
       </c>
       <c r="C206" t="n">
-        <v>67.19</v>
+        <v>67.2</v>
       </c>
       <c r="D206" t="n">
-        <v>67.19</v>
+        <v>67.2</v>
       </c>
       <c r="E206" t="n">
-        <v>67.19</v>
+        <v>67.2</v>
       </c>
       <c r="F206" t="n">
-        <v>44856.4592</v>
+        <v>10</v>
       </c>
       <c r="G206" t="n">
-        <v>66.41199999999999</v>
+        <v>66.42449999999999</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,22 +7644,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>66.20999999999999</v>
+        <v>67.19</v>
       </c>
       <c r="C207" t="n">
-        <v>66.20999999999999</v>
+        <v>67.19</v>
       </c>
       <c r="D207" t="n">
-        <v>66.20999999999999</v>
+        <v>67.19</v>
       </c>
       <c r="E207" t="n">
-        <v>66.20999999999999</v>
+        <v>67.19</v>
       </c>
       <c r="F207" t="n">
-        <v>5233.348</v>
+        <v>44856.4592</v>
       </c>
       <c r="G207" t="n">
-        <v>66.38383333333333</v>
+        <v>66.41199999999999</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7655,10 +7691,10 @@
         <v>66.20999999999999</v>
       </c>
       <c r="F208" t="n">
-        <v>5210.042</v>
+        <v>5233.348</v>
       </c>
       <c r="G208" t="n">
-        <v>66.35566666666666</v>
+        <v>66.38383333333333</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7690,10 +7726,10 @@
         <v>66.20999999999999</v>
       </c>
       <c r="F209" t="n">
-        <v>20000</v>
+        <v>5210.042</v>
       </c>
       <c r="G209" t="n">
-        <v>66.35083333333333</v>
+        <v>66.35566666666666</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7713,22 +7749,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>66.19</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="C210" t="n">
-        <v>66.19</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="D210" t="n">
-        <v>66.19</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="E210" t="n">
-        <v>66.19</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="F210" t="n">
-        <v>4666.4494</v>
+        <v>20000</v>
       </c>
       <c r="G210" t="n">
-        <v>66.34533333333333</v>
+        <v>66.35083333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +7784,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>66.13</v>
+        <v>66.19</v>
       </c>
       <c r="C211" t="n">
-        <v>66.13</v>
+        <v>66.19</v>
       </c>
       <c r="D211" t="n">
-        <v>66.13</v>
+        <v>66.19</v>
       </c>
       <c r="E211" t="n">
-        <v>66.13</v>
+        <v>66.19</v>
       </c>
       <c r="F211" t="n">
-        <v>2437.7202</v>
+        <v>4666.4494</v>
       </c>
       <c r="G211" t="n">
-        <v>66.31516666666667</v>
+        <v>66.34533333333333</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7783,22 +7819,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>66.12</v>
+        <v>66.13</v>
       </c>
       <c r="C212" t="n">
-        <v>66.12</v>
+        <v>66.13</v>
       </c>
       <c r="D212" t="n">
-        <v>66.12</v>
+        <v>66.13</v>
       </c>
       <c r="E212" t="n">
-        <v>66.12</v>
+        <v>66.13</v>
       </c>
       <c r="F212" t="n">
-        <v>26219.3397</v>
+        <v>2437.7202</v>
       </c>
       <c r="G212" t="n">
-        <v>66.3085</v>
+        <v>66.31516666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7818,22 +7854,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>66.2</v>
+        <v>66.12</v>
       </c>
       <c r="C213" t="n">
         <v>66.12</v>
       </c>
       <c r="D213" t="n">
-        <v>66.2</v>
+        <v>66.12</v>
       </c>
       <c r="E213" t="n">
         <v>66.12</v>
       </c>
       <c r="F213" t="n">
-        <v>6641.4329</v>
+        <v>26219.3397</v>
       </c>
       <c r="G213" t="n">
-        <v>66.28566666666667</v>
+        <v>66.3085</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,22 +7889,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>66.68000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="C214" t="n">
-        <v>66.68000000000001</v>
+        <v>66.12</v>
       </c>
       <c r="D214" t="n">
-        <v>66.68000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="E214" t="n">
-        <v>66.68000000000001</v>
+        <v>66.12</v>
       </c>
       <c r="F214" t="n">
-        <v>47.9334</v>
+        <v>6641.4329</v>
       </c>
       <c r="G214" t="n">
-        <v>66.29199999999999</v>
+        <v>66.28566666666667</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,22 +7924,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>66.59999999999999</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="C215" t="n">
-        <v>66.59999999999999</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="D215" t="n">
-        <v>66.59999999999999</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="E215" t="n">
-        <v>66.59999999999999</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="F215" t="n">
-        <v>122.62</v>
+        <v>47.9334</v>
       </c>
       <c r="G215" t="n">
-        <v>66.29699999999998</v>
+        <v>66.29199999999999</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7923,22 +7959,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>66.67</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C216" t="n">
-        <v>66.67</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D216" t="n">
-        <v>66.67</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E216" t="n">
-        <v>66.67</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F216" t="n">
-        <v>3761.3082</v>
+        <v>122.62</v>
       </c>
       <c r="G216" t="n">
-        <v>66.30816666666665</v>
+        <v>66.29699999999998</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7970,10 +8006,10 @@
         <v>66.67</v>
       </c>
       <c r="F217" t="n">
-        <v>3638.8319</v>
+        <v>3761.3082</v>
       </c>
       <c r="G217" t="n">
-        <v>66.32733333333333</v>
+        <v>66.30816666666665</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8005,10 +8041,10 @@
         <v>66.67</v>
       </c>
       <c r="F218" t="n">
-        <v>444.805</v>
+        <v>3638.8319</v>
       </c>
       <c r="G218" t="n">
-        <v>66.31533333333333</v>
+        <v>66.32733333333333</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8028,22 +8064,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>66.68000000000001</v>
+        <v>66.67</v>
       </c>
       <c r="C219" t="n">
-        <v>66.68000000000001</v>
+        <v>66.67</v>
       </c>
       <c r="D219" t="n">
-        <v>66.68000000000001</v>
+        <v>66.67</v>
       </c>
       <c r="E219" t="n">
-        <v>66.68000000000001</v>
+        <v>66.67</v>
       </c>
       <c r="F219" t="n">
-        <v>2071.8036</v>
+        <v>444.805</v>
       </c>
       <c r="G219" t="n">
-        <v>66.34333333333332</v>
+        <v>66.31533333333333</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,22 +8099,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>66.3</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="C220" t="n">
-        <v>66.59999999999999</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="D220" t="n">
-        <v>66.59999999999999</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="E220" t="n">
-        <v>66.22</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="F220" t="n">
-        <v>2115.0061</v>
+        <v>2071.8036</v>
       </c>
       <c r="G220" t="n">
-        <v>66.36999999999999</v>
+        <v>66.34333333333332</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8098,22 +8134,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C221" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D221" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E221" t="n">
         <v>66.22</v>
       </c>
-      <c r="C221" t="n">
-        <v>66.20999999999999</v>
-      </c>
-      <c r="D221" t="n">
-        <v>66.22</v>
-      </c>
-      <c r="E221" t="n">
-        <v>66.20999999999999</v>
-      </c>
       <c r="F221" t="n">
-        <v>36340.7731</v>
+        <v>2115.0061</v>
       </c>
       <c r="G221" t="n">
-        <v>66.37183333333333</v>
+        <v>66.36999999999999</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8169,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>66.20999999999999</v>
+        <v>66.22</v>
       </c>
       <c r="C222" t="n">
         <v>66.20999999999999</v>
       </c>
       <c r="D222" t="n">
-        <v>66.20999999999999</v>
+        <v>66.22</v>
       </c>
       <c r="E222" t="n">
         <v>66.20999999999999</v>
       </c>
       <c r="F222" t="n">
-        <v>15280.7914</v>
+        <v>36340.7731</v>
       </c>
       <c r="G222" t="n">
-        <v>66.36866666666666</v>
+        <v>66.37183333333333</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8171,19 +8207,19 @@
         <v>66.20999999999999</v>
       </c>
       <c r="C223" t="n">
-        <v>66.12</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="D223" t="n">
         <v>66.20999999999999</v>
       </c>
       <c r="E223" t="n">
-        <v>66.12</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="F223" t="n">
-        <v>4356.0809</v>
+        <v>15280.7914</v>
       </c>
       <c r="G223" t="n">
-        <v>66.36116666666665</v>
+        <v>66.36866666666666</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8203,22 +8239,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>66.12</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="C224" t="n">
         <v>66.12</v>
       </c>
       <c r="D224" t="n">
-        <v>66.12</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="E224" t="n">
         <v>66.12</v>
       </c>
       <c r="F224" t="n">
-        <v>3007.0073</v>
+        <v>4356.0809</v>
       </c>
       <c r="G224" t="n">
-        <v>66.34983333333331</v>
+        <v>66.36116666666665</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8238,22 +8274,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>66.59999999999999</v>
+        <v>66.12</v>
       </c>
       <c r="C225" t="n">
-        <v>66.59999999999999</v>
+        <v>66.12</v>
       </c>
       <c r="D225" t="n">
-        <v>66.59999999999999</v>
+        <v>66.12</v>
       </c>
       <c r="E225" t="n">
-        <v>66.59999999999999</v>
+        <v>66.12</v>
       </c>
       <c r="F225" t="n">
-        <v>1000</v>
+        <v>3007.0073</v>
       </c>
       <c r="G225" t="n">
-        <v>66.34649999999998</v>
+        <v>66.34983333333331</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8273,22 +8309,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>65.84999999999999</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C226" t="n">
-        <v>65.8</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D226" t="n">
-        <v>65.84999999999999</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E226" t="n">
-        <v>65.8</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F226" t="n">
-        <v>5958</v>
+        <v>1000</v>
       </c>
       <c r="G226" t="n">
-        <v>66.31816666666664</v>
+        <v>66.34649999999998</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8308,22 +8344,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>65.81999999999999</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="C227" t="n">
-        <v>65.81</v>
+        <v>65.8</v>
       </c>
       <c r="D227" t="n">
-        <v>65.81999999999999</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="E227" t="n">
-        <v>65.81</v>
+        <v>65.8</v>
       </c>
       <c r="F227" t="n">
-        <v>28750.9557</v>
+        <v>5958</v>
       </c>
       <c r="G227" t="n">
-        <v>66.28999999999998</v>
+        <v>66.31816666666664</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8343,22 +8379,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
+        <v>65.81999999999999</v>
+      </c>
+      <c r="C228" t="n">
         <v>65.81</v>
       </c>
-      <c r="C228" t="n">
-        <v>65.8</v>
-      </c>
       <c r="D228" t="n">
+        <v>65.81999999999999</v>
+      </c>
+      <c r="E228" t="n">
         <v>65.81</v>
       </c>
-      <c r="E228" t="n">
-        <v>65.8</v>
-      </c>
       <c r="F228" t="n">
-        <v>16052.0685</v>
+        <v>28750.9557</v>
       </c>
       <c r="G228" t="n">
-        <v>66.27333333333331</v>
+        <v>66.28999999999998</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,22 +8414,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>65.8</v>
+        <v>65.81</v>
       </c>
       <c r="C229" t="n">
         <v>65.8</v>
       </c>
       <c r="D229" t="n">
-        <v>65.8</v>
+        <v>65.81</v>
       </c>
       <c r="E229" t="n">
         <v>65.8</v>
       </c>
       <c r="F229" t="n">
-        <v>22572.7245</v>
+        <v>16052.0685</v>
       </c>
       <c r="G229" t="n">
-        <v>66.24666666666664</v>
+        <v>66.27333333333331</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8425,10 +8461,10 @@
         <v>65.8</v>
       </c>
       <c r="F230" t="n">
-        <v>5666.4929</v>
+        <v>22572.7245</v>
       </c>
       <c r="G230" t="n">
-        <v>66.22666666666665</v>
+        <v>66.24666666666664</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8451,19 +8487,19 @@
         <v>65.8</v>
       </c>
       <c r="C231" t="n">
-        <v>65.90000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="D231" t="n">
-        <v>65.90000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="E231" t="n">
         <v>65.8</v>
       </c>
       <c r="F231" t="n">
-        <v>3878.7372</v>
+        <v>5666.4929</v>
       </c>
       <c r="G231" t="n">
-        <v>66.20833333333331</v>
+        <v>66.22666666666665</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8483,22 +8519,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>66.09</v>
+        <v>65.8</v>
       </c>
       <c r="C232" t="n">
-        <v>66.09</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D232" t="n">
-        <v>66.09</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E232" t="n">
-        <v>66.09</v>
+        <v>65.8</v>
       </c>
       <c r="F232" t="n">
-        <v>4381.374</v>
+        <v>3878.7372</v>
       </c>
       <c r="G232" t="n">
-        <v>66.19316666666666</v>
+        <v>66.20833333333331</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8518,22 +8554,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>66.20999999999999</v>
+        <v>66.09</v>
       </c>
       <c r="C233" t="n">
-        <v>66.20999999999999</v>
+        <v>66.09</v>
       </c>
       <c r="D233" t="n">
-        <v>66.20999999999999</v>
+        <v>66.09</v>
       </c>
       <c r="E233" t="n">
-        <v>66.20999999999999</v>
+        <v>66.09</v>
       </c>
       <c r="F233" t="n">
-        <v>2721.009</v>
+        <v>4381.374</v>
       </c>
       <c r="G233" t="n">
-        <v>66.17999999999999</v>
+        <v>66.19316666666666</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8553,22 +8589,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>66.59999999999999</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="C234" t="n">
-        <v>66.59999999999999</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="D234" t="n">
-        <v>66.59999999999999</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="E234" t="n">
-        <v>66.59999999999999</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="F234" t="n">
-        <v>1360.1415</v>
+        <v>2721.009</v>
       </c>
       <c r="G234" t="n">
-        <v>66.17499999999998</v>
+        <v>66.17999999999999</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8588,22 +8624,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>66.68000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C235" t="n">
-        <v>66.68000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D235" t="n">
-        <v>66.68000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E235" t="n">
-        <v>66.68000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F235" t="n">
-        <v>6168.6197</v>
+        <v>1360.1415</v>
       </c>
       <c r="G235" t="n">
-        <v>66.17133333333331</v>
+        <v>66.17499999999998</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8623,22 +8659,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>66.3</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="C236" t="n">
-        <v>66.3</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="D236" t="n">
-        <v>66.3</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="E236" t="n">
-        <v>66.3</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="F236" t="n">
-        <v>1521.3929</v>
+        <v>6168.6197</v>
       </c>
       <c r="G236" t="n">
-        <v>66.16683333333332</v>
+        <v>66.17133333333331</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8658,22 +8694,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>66.20999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="C237" t="n">
-        <v>66.20999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="D237" t="n">
-        <v>66.20999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="E237" t="n">
-        <v>66.20999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="F237" t="n">
-        <v>1369.1126</v>
+        <v>1521.3929</v>
       </c>
       <c r="G237" t="n">
-        <v>66.15866666666665</v>
+        <v>66.16683333333332</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8705,10 +8741,10 @@
         <v>66.20999999999999</v>
       </c>
       <c r="F238" t="n">
-        <v>1689.5731</v>
+        <v>1369.1126</v>
       </c>
       <c r="G238" t="n">
-        <v>66.15266666666665</v>
+        <v>66.15866666666665</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8728,22 +8764,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>66</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="C239" t="n">
-        <v>66</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="D239" t="n">
-        <v>66</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="E239" t="n">
-        <v>66</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="F239" t="n">
-        <v>5023.6554</v>
+        <v>1689.5731</v>
       </c>
       <c r="G239" t="n">
-        <v>66.14316666666664</v>
+        <v>66.15266666666665</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8763,22 +8799,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>65.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="C240" t="n">
-        <v>65.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="D240" t="n">
-        <v>65.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="E240" t="n">
-        <v>65.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="F240" t="n">
-        <v>401.1077389984825</v>
+        <v>5023.6554</v>
       </c>
       <c r="G240" t="n">
-        <v>66.15649999999998</v>
+        <v>66.14316666666664</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8801,19 +8837,19 @@
         <v>65.90000000000001</v>
       </c>
       <c r="C241" t="n">
-        <v>65.8</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D241" t="n">
         <v>65.90000000000001</v>
       </c>
       <c r="E241" t="n">
-        <v>65.8</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="F241" t="n">
-        <v>7290.4295</v>
+        <v>401.1077389984825</v>
       </c>
       <c r="G241" t="n">
-        <v>66.16616666666665</v>
+        <v>66.15649999999998</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8833,22 +8869,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="C242" t="n">
         <v>65.8</v>
       </c>
-      <c r="C242" t="n">
-        <v>65.70999999999999</v>
-      </c>
       <c r="D242" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="E242" t="n">
         <v>65.8</v>
       </c>
-      <c r="E242" t="n">
-        <v>65.70999999999999</v>
-      </c>
       <c r="F242" t="n">
-        <v>57710.9511</v>
+        <v>7290.4295</v>
       </c>
       <c r="G242" t="n">
-        <v>66.17433333333332</v>
+        <v>66.16616666666665</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8868,22 +8904,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>66.59999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="C243" t="n">
-        <v>65.52</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="D243" t="n">
-        <v>66.59999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="E243" t="n">
-        <v>65.52</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="F243" t="n">
-        <v>11973.2050009009</v>
+        <v>57710.9511</v>
       </c>
       <c r="G243" t="n">
-        <v>66.16633333333333</v>
+        <v>66.17433333333332</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8903,22 +8939,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>65.52</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C244" t="n">
         <v>65.52</v>
       </c>
       <c r="D244" t="n">
-        <v>65.52</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E244" t="n">
         <v>65.52</v>
       </c>
       <c r="F244" t="n">
-        <v>739.7094</v>
+        <v>11973.2050009009</v>
       </c>
       <c r="G244" t="n">
-        <v>66.15833333333333</v>
+        <v>66.16633333333333</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8938,22 +8974,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>66.29000000000001</v>
+        <v>65.52</v>
       </c>
       <c r="C245" t="n">
-        <v>66.29000000000001</v>
+        <v>65.52</v>
       </c>
       <c r="D245" t="n">
-        <v>66.29000000000001</v>
+        <v>65.52</v>
       </c>
       <c r="E245" t="n">
-        <v>66.29000000000001</v>
+        <v>65.52</v>
       </c>
       <c r="F245" t="n">
-        <v>2500.4992</v>
+        <v>739.7094</v>
       </c>
       <c r="G245" t="n">
-        <v>66.16316666666665</v>
+        <v>66.15833333333333</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8973,22 +9009,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>66</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="C246" t="n">
-        <v>65.98999999999999</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="D246" t="n">
-        <v>66</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="E246" t="n">
-        <v>65.98999999999999</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="F246" t="n">
-        <v>4489.7561</v>
+        <v>2500.4992</v>
       </c>
       <c r="G246" t="n">
-        <v>66.15633333333332</v>
+        <v>66.16316666666665</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9008,10 +9044,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
+        <v>66</v>
+      </c>
+      <c r="C247" t="n">
         <v>65.98999999999999</v>
-      </c>
-      <c r="C247" t="n">
-        <v>66</v>
       </c>
       <c r="D247" t="n">
         <v>66</v>
@@ -9020,10 +9056,10 @@
         <v>65.98999999999999</v>
       </c>
       <c r="F247" t="n">
-        <v>3468.2879</v>
+        <v>4489.7561</v>
       </c>
       <c r="G247" t="n">
-        <v>66.14816666666665</v>
+        <v>66.15633333333332</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9043,22 +9079,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>66.29000000000001</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="C248" t="n">
-        <v>66.3</v>
+        <v>66</v>
       </c>
       <c r="D248" t="n">
-        <v>66.3</v>
+        <v>66</v>
       </c>
       <c r="E248" t="n">
-        <v>66.29000000000001</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="F248" t="n">
-        <v>10988.6505</v>
+        <v>3468.2879</v>
       </c>
       <c r="G248" t="n">
-        <v>66.15799999999999</v>
+        <v>66.14816666666665</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9078,22 +9114,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>65.98999999999999</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="C249" t="n">
-        <v>65.90000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="D249" t="n">
-        <v>65.98999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="E249" t="n">
-        <v>65.90000000000001</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="F249" t="n">
-        <v>2690.8934</v>
+        <v>10988.6505</v>
       </c>
       <c r="G249" t="n">
-        <v>66.16349999999998</v>
+        <v>66.15799999999999</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9113,22 +9149,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>65.61</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="C250" t="n">
-        <v>65.55</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D250" t="n">
-        <v>65.61</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="E250" t="n">
-        <v>65.55</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="F250" t="n">
-        <v>50000</v>
+        <v>2690.8934</v>
       </c>
       <c r="G250" t="n">
-        <v>66.16316666666665</v>
+        <v>66.16349999999998</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9148,22 +9184,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
+        <v>65.61</v>
+      </c>
+      <c r="C251" t="n">
         <v>65.55</v>
       </c>
-      <c r="C251" t="n">
-        <v>65.51000000000001</v>
-      </c>
       <c r="D251" t="n">
+        <v>65.61</v>
+      </c>
+      <c r="E251" t="n">
         <v>65.55</v>
       </c>
-      <c r="E251" t="n">
-        <v>65.51000000000001</v>
-      </c>
       <c r="F251" t="n">
-        <v>29407.5982</v>
+        <v>50000</v>
       </c>
       <c r="G251" t="n">
-        <v>66.16499999999999</v>
+        <v>66.16316666666665</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9183,22 +9219,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
+        <v>65.55</v>
+      </c>
+      <c r="C252" t="n">
         <v>65.51000000000001</v>
       </c>
-      <c r="C252" t="n">
-        <v>65.5</v>
-      </c>
       <c r="D252" t="n">
+        <v>65.55</v>
+      </c>
+      <c r="E252" t="n">
         <v>65.51000000000001</v>
       </c>
-      <c r="E252" t="n">
-        <v>65.5</v>
-      </c>
       <c r="F252" t="n">
-        <v>92467.04180000001</v>
+        <v>29407.5982</v>
       </c>
       <c r="G252" t="n">
-        <v>66.16666666666666</v>
+        <v>66.16499999999999</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9221,19 +9257,19 @@
         <v>65.51000000000001</v>
       </c>
       <c r="C253" t="n">
-        <v>65.51000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="D253" t="n">
         <v>65.51000000000001</v>
       </c>
       <c r="E253" t="n">
-        <v>65.51000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="F253" t="n">
-        <v>5421.4851</v>
+        <v>92467.04180000001</v>
       </c>
       <c r="G253" t="n">
-        <v>66.16849999999999</v>
+        <v>66.16666666666666</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9256,19 +9292,19 @@
         <v>65.51000000000001</v>
       </c>
       <c r="C254" t="n">
-        <v>65.11</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="D254" t="n">
         <v>65.51000000000001</v>
       </c>
       <c r="E254" t="n">
-        <v>65.11</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="F254" t="n">
-        <v>174536.69</v>
+        <v>5421.4851</v>
       </c>
       <c r="G254" t="n">
-        <v>66.16199999999999</v>
+        <v>66.16849999999999</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9288,22 +9324,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>65.2</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C255" t="n">
-        <v>65.2</v>
+        <v>65.11</v>
       </c>
       <c r="D255" t="n">
-        <v>65.2</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="E255" t="n">
-        <v>65.2</v>
+        <v>65.11</v>
       </c>
       <c r="F255" t="n">
-        <v>100</v>
+        <v>174536.69</v>
       </c>
       <c r="G255" t="n">
-        <v>66.14383333333333</v>
+        <v>66.16199999999999</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9323,22 +9359,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>65.20999999999999</v>
+        <v>65.2</v>
       </c>
       <c r="C256" t="n">
         <v>65.2</v>
       </c>
       <c r="D256" t="n">
-        <v>65.20999999999999</v>
+        <v>65.2</v>
       </c>
       <c r="E256" t="n">
         <v>65.2</v>
       </c>
       <c r="F256" t="n">
-        <v>21593.4504</v>
+        <v>100</v>
       </c>
       <c r="G256" t="n">
-        <v>66.12249999999999</v>
+        <v>66.14383333333333</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9358,22 +9394,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
+        <v>65.20999999999999</v>
+      </c>
+      <c r="C257" t="n">
         <v>65.2</v>
       </c>
-      <c r="C257" t="n">
-        <v>65.11</v>
-      </c>
       <c r="D257" t="n">
+        <v>65.20999999999999</v>
+      </c>
+      <c r="E257" t="n">
         <v>65.2</v>
       </c>
-      <c r="E257" t="n">
-        <v>65.11</v>
-      </c>
       <c r="F257" t="n">
-        <v>64871.6359</v>
+        <v>21593.4504</v>
       </c>
       <c r="G257" t="n">
-        <v>66.09966666666666</v>
+        <v>66.12249999999999</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9393,22 +9429,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="C258" t="n">
         <v>65.11</v>
       </c>
-      <c r="C258" t="n">
-        <v>65.13</v>
-      </c>
       <c r="D258" t="n">
-        <v>65.13</v>
+        <v>65.2</v>
       </c>
       <c r="E258" t="n">
         <v>65.11</v>
       </c>
       <c r="F258" t="n">
-        <v>4.1446</v>
+        <v>64871.6359</v>
       </c>
       <c r="G258" t="n">
-        <v>66.07849999999999</v>
+        <v>66.09966666666666</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9428,22 +9464,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>65.78</v>
+        <v>65.11</v>
       </c>
       <c r="C259" t="n">
-        <v>65.78</v>
+        <v>65.13</v>
       </c>
       <c r="D259" t="n">
-        <v>65.78</v>
+        <v>65.13</v>
       </c>
       <c r="E259" t="n">
-        <v>65.78</v>
+        <v>65.11</v>
       </c>
       <c r="F259" t="n">
-        <v>464</v>
+        <v>4.1446</v>
       </c>
       <c r="G259" t="n">
-        <v>66.07966666666667</v>
+        <v>66.07849999999999</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9475,10 +9511,10 @@
         <v>65.78</v>
       </c>
       <c r="F260" t="n">
-        <v>2646.579</v>
+        <v>464</v>
       </c>
       <c r="G260" t="n">
-        <v>66.08416666666666</v>
+        <v>66.07966666666667</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9498,35 +9534,31 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>65.8</v>
+        <v>65.78</v>
       </c>
       <c r="C261" t="n">
-        <v>65.8</v>
+        <v>65.78</v>
       </c>
       <c r="D261" t="n">
-        <v>65.8</v>
+        <v>65.78</v>
       </c>
       <c r="E261" t="n">
-        <v>65.8</v>
+        <v>65.78</v>
       </c>
       <c r="F261" t="n">
-        <v>816.1048</v>
+        <v>2646.579</v>
       </c>
       <c r="G261" t="n">
-        <v>66.07599999999999</v>
+        <v>66.08416666666666</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="K261" t="n">
-        <v>65.78</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
@@ -9549,28 +9581,20 @@
         <v>65.8</v>
       </c>
       <c r="F262" t="n">
-        <v>844.0365</v>
+        <v>816.1048</v>
       </c>
       <c r="G262" t="n">
-        <v>66.06783333333334</v>
+        <v>66.07599999999999</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="K262" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9580,22 +9604,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>65.2</v>
+        <v>65.8</v>
       </c>
       <c r="C263" t="n">
-        <v>65.78</v>
+        <v>65.8</v>
       </c>
       <c r="D263" t="n">
-        <v>65.78</v>
+        <v>65.8</v>
       </c>
       <c r="E263" t="n">
-        <v>65.2</v>
+        <v>65.8</v>
       </c>
       <c r="F263" t="n">
-        <v>2529</v>
+        <v>844.0365</v>
       </c>
       <c r="G263" t="n">
-        <v>66.05933333333334</v>
+        <v>66.06783333333334</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9604,14 +9628,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9621,7 +9639,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>65.78</v>
+        <v>65.2</v>
       </c>
       <c r="C264" t="n">
         <v>65.78</v>
@@ -9630,13 +9648,13 @@
         <v>65.78</v>
       </c>
       <c r="E264" t="n">
-        <v>65.78</v>
+        <v>65.2</v>
       </c>
       <c r="F264" t="n">
-        <v>2392.0363</v>
+        <v>2529</v>
       </c>
       <c r="G264" t="n">
-        <v>66.03483333333334</v>
+        <v>66.05933333333334</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9645,14 +9663,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9674,28 +9686,20 @@
         <v>65.78</v>
       </c>
       <c r="F265" t="n">
-        <v>540.1499</v>
+        <v>2392.0363</v>
       </c>
       <c r="G265" t="n">
-        <v>66.01116666666668</v>
+        <v>66.03483333333334</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="K265" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9705,22 +9709,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>65.8</v>
+        <v>65.78</v>
       </c>
       <c r="C266" t="n">
-        <v>65.8</v>
+        <v>65.78</v>
       </c>
       <c r="D266" t="n">
-        <v>65.8</v>
+        <v>65.78</v>
       </c>
       <c r="E266" t="n">
-        <v>65.8</v>
+        <v>65.78</v>
       </c>
       <c r="F266" t="n">
-        <v>8</v>
+        <v>540.1499</v>
       </c>
       <c r="G266" t="n">
-        <v>65.98800000000001</v>
+        <v>66.01116666666668</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9729,14 +9733,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9758,10 +9756,10 @@
         <v>65.8</v>
       </c>
       <c r="F267" t="n">
-        <v>54.0831</v>
+        <v>8</v>
       </c>
       <c r="G267" t="n">
-        <v>65.98116666666668</v>
+        <v>65.98800000000001</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9770,14 +9768,8 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9787,22 +9779,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>65.78</v>
+        <v>65.8</v>
       </c>
       <c r="C268" t="n">
-        <v>65.78</v>
+        <v>65.8</v>
       </c>
       <c r="D268" t="n">
-        <v>65.78</v>
+        <v>65.8</v>
       </c>
       <c r="E268" t="n">
-        <v>65.78</v>
+        <v>65.8</v>
       </c>
       <c r="F268" t="n">
-        <v>660.1159</v>
+        <v>54.0831</v>
       </c>
       <c r="G268" t="n">
-        <v>65.97400000000002</v>
+        <v>65.98116666666668</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9811,14 +9803,8 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9828,22 +9814,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>65.3</v>
+        <v>65.78</v>
       </c>
       <c r="C269" t="n">
-        <v>65.2</v>
+        <v>65.78</v>
       </c>
       <c r="D269" t="n">
-        <v>65.3</v>
+        <v>65.78</v>
       </c>
       <c r="E269" t="n">
-        <v>65.2</v>
+        <v>65.78</v>
       </c>
       <c r="F269" t="n">
-        <v>18996.1529</v>
+        <v>660.1159</v>
       </c>
       <c r="G269" t="n">
-        <v>65.95716666666668</v>
+        <v>65.97400000000002</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9852,14 +9838,8 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9869,39 +9849,68 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="C270" t="n">
         <v>65.2</v>
       </c>
-      <c r="C270" t="n">
+      <c r="D270" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="E270" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="F270" t="n">
+        <v>18996.1529</v>
+      </c>
+      <c r="G270" t="n">
+        <v>65.95716666666668</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="C271" t="n">
         <v>65.09999999999999</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D271" t="n">
         <v>65.2</v>
       </c>
-      <c r="E270" t="n">
+      <c r="E271" t="n">
         <v>65.09999999999999</v>
       </c>
-      <c r="F270" t="n">
+      <c r="F271" t="n">
         <v>4922.7719</v>
       </c>
-      <c r="G270" t="n">
+      <c r="G271" t="n">
         <v>65.93900000000002</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-26 BackTest WPX.xlsx
+++ b/BackTest/2020-01-26 BackTest WPX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M271"/>
+  <dimension ref="A1:N281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>219.3265</v>
       </c>
       <c r="G2" t="n">
+        <v>65.52333333333326</v>
+      </c>
+      <c r="H2" t="n">
         <v>65.77050000000003</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>501.6438</v>
       </c>
       <c r="G3" t="n">
+        <v>65.56799999999991</v>
+      </c>
+      <c r="H3" t="n">
         <v>65.7581666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="L3" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,27 @@
         <v>6103.2504</v>
       </c>
       <c r="G4" t="n">
+        <v>65.61333333333323</v>
+      </c>
+      <c r="H4" t="n">
         <v>65.75583333333336</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="L4" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +577,27 @@
         <v>370.0899</v>
       </c>
       <c r="G5" t="n">
+        <v>65.61333333333322</v>
+      </c>
+      <c r="H5" t="n">
         <v>65.76283333333336</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +621,27 @@
         <v>170.7284</v>
       </c>
       <c r="G6" t="n">
+        <v>65.65466666666656</v>
+      </c>
+      <c r="H6" t="n">
         <v>65.77650000000001</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="L6" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +665,27 @@
         <v>4913.0805</v>
       </c>
       <c r="G7" t="n">
+        <v>65.69999999999987</v>
+      </c>
+      <c r="H7" t="n">
         <v>65.79083333333334</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="L7" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +709,27 @@
         <v>30684.9538</v>
       </c>
       <c r="G8" t="n">
+        <v>65.78466666666654</v>
+      </c>
+      <c r="H8" t="n">
         <v>65.81216666666668</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +753,27 @@
         <v>178481.5342</v>
       </c>
       <c r="G9" t="n">
+        <v>66.07466666666656</v>
+      </c>
+      <c r="H9" t="n">
         <v>65.88516666666668</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +797,27 @@
         <v>77180.4316</v>
       </c>
       <c r="G10" t="n">
+        <v>66.33866666666655</v>
+      </c>
+      <c r="H10" t="n">
         <v>65.95166666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +841,27 @@
         <v>30396.4668</v>
       </c>
       <c r="G11" t="n">
+        <v>66.56733333333322</v>
+      </c>
+      <c r="H11" t="n">
         <v>66.02316666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +885,27 @@
         <v>32359.4635</v>
       </c>
       <c r="G12" t="n">
+        <v>66.77666666666656</v>
+      </c>
+      <c r="H12" t="n">
         <v>66.08983333333335</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +929,27 @@
         <v>27836.8694</v>
       </c>
       <c r="G13" t="n">
+        <v>66.98533333333322</v>
+      </c>
+      <c r="H13" t="n">
         <v>66.15633333333334</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +973,27 @@
         <v>3989.7655</v>
       </c>
       <c r="G14" t="n">
+        <v>67.19466666666656</v>
+      </c>
+      <c r="H14" t="n">
         <v>66.20416666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1017,27 @@
         <v>2761.794325942029</v>
       </c>
       <c r="G15" t="n">
+        <v>67.40399999999988</v>
+      </c>
+      <c r="H15" t="n">
         <v>66.25133333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1061,27 @@
         <v>13756.835</v>
       </c>
       <c r="G16" t="n">
+        <v>67.52066666666654</v>
+      </c>
+      <c r="H16" t="n">
         <v>66.26816666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1105,27 @@
         <v>16568.4896</v>
       </c>
       <c r="G17" t="n">
+        <v>67.63666666666656</v>
+      </c>
+      <c r="H17" t="n">
         <v>66.30733333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1149,27 @@
         <v>826.4332000000001</v>
       </c>
       <c r="G18" t="n">
+        <v>67.75333333333322</v>
+      </c>
+      <c r="H18" t="n">
         <v>66.32516666666668</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1193,27 @@
         <v>2443.6113</v>
       </c>
       <c r="G19" t="n">
+        <v>67.86933333333322</v>
+      </c>
+      <c r="H19" t="n">
         <v>66.34283333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1237,27 @@
         <v>8662.833699999999</v>
       </c>
       <c r="G20" t="n">
+        <v>67.96533333333322</v>
+      </c>
+      <c r="H20" t="n">
         <v>66.35549999999999</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1281,27 @@
         <v>7.4284</v>
       </c>
       <c r="G21" t="n">
+        <v>68.06133333333322</v>
+      </c>
+      <c r="H21" t="n">
         <v>66.36799999999999</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1325,27 @@
         <v>1070.9069</v>
       </c>
       <c r="G22" t="n">
+        <v>68.15733333333323</v>
+      </c>
+      <c r="H22" t="n">
         <v>66.3805</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1369,27 @@
         <v>9968.7443</v>
       </c>
       <c r="G23" t="n">
+        <v>68.19133333333323</v>
+      </c>
+      <c r="H23" t="n">
         <v>66.38483333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1413,27 @@
         <v>6140.1698</v>
       </c>
       <c r="G24" t="n">
+        <v>68.01933333333324</v>
+      </c>
+      <c r="H24" t="n">
         <v>66.38916666666665</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1457,27 @@
         <v>11360.1455</v>
       </c>
       <c r="G25" t="n">
+        <v>67.87266666666657</v>
+      </c>
+      <c r="H25" t="n">
         <v>66.41683333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1501,27 @@
         <v>5833.6344</v>
       </c>
       <c r="G26" t="n">
+        <v>67.7059999999999</v>
+      </c>
+      <c r="H26" t="n">
         <v>66.42066666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1545,27 @@
         <v>80.9312</v>
       </c>
       <c r="G27" t="n">
+        <v>67.55933333333323</v>
+      </c>
+      <c r="H27" t="n">
         <v>66.425</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1589,27 @@
         <v>4953.8156</v>
       </c>
       <c r="G28" t="n">
+        <v>67.40599999999991</v>
+      </c>
+      <c r="H28" t="n">
         <v>66.45016666666666</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1633,27 @@
         <v>1804.0566</v>
       </c>
       <c r="G29" t="n">
+        <v>67.2259999999999</v>
+      </c>
+      <c r="H29" t="n">
         <v>66.46866666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1677,27 @@
         <v>1388.3406</v>
       </c>
       <c r="G30" t="n">
+        <v>67.04599999999989</v>
+      </c>
+      <c r="H30" t="n">
         <v>66.467</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1721,27 @@
         <v>34627.1008</v>
       </c>
       <c r="G31" t="n">
+        <v>66.91533333333324</v>
+      </c>
+      <c r="H31" t="n">
         <v>66.45183333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1765,27 @@
         <v>2786.1236</v>
       </c>
       <c r="G32" t="n">
+        <v>66.82733333333324</v>
+      </c>
+      <c r="H32" t="n">
         <v>66.45</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1809,27 @@
         <v>11272.691</v>
       </c>
       <c r="G33" t="n">
+        <v>66.66933333333323</v>
+      </c>
+      <c r="H33" t="n">
         <v>66.44883333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,22 +1853,27 @@
         <v>66.0808</v>
       </c>
       <c r="G34" t="n">
+        <v>66.58199999999991</v>
+      </c>
+      <c r="H34" t="n">
         <v>66.44716666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.23999999999999</v>
-      </c>
-      <c r="K34" t="n">
-        <v>65.23999999999999</v>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1607,26 +1897,27 @@
         <v>40884.3586</v>
       </c>
       <c r="G35" t="n">
+        <v>66.4439999999999</v>
+      </c>
+      <c r="H35" t="n">
         <v>66.42999999999999</v>
       </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K35" t="n">
-        <v>65.23999999999999</v>
-      </c>
-      <c r="L35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1650,26 +1941,27 @@
         <v>967.0719</v>
       </c>
       <c r="G36" t="n">
+        <v>66.37266666666657</v>
+      </c>
+      <c r="H36" t="n">
         <v>66.434</v>
       </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>65.23999999999999</v>
-      </c>
-      <c r="K36" t="n">
-        <v>65.23999999999999</v>
-      </c>
-      <c r="L36" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1693,22 +1985,27 @@
         <v>74690.0616</v>
       </c>
       <c r="G37" t="n">
+        <v>66.33199999999991</v>
+      </c>
+      <c r="H37" t="n">
         <v>66.44566666666665</v>
       </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>66.23999999999999</v>
-      </c>
-      <c r="K37" t="n">
-        <v>66.23999999999999</v>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1732,24 +2029,27 @@
         <v>108784.5900862319</v>
       </c>
       <c r="G38" t="n">
+        <v>66.56999999999992</v>
+      </c>
+      <c r="H38" t="n">
         <v>66.51416666666665</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>66.23999999999999</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1773,24 +2073,27 @@
         <v>7492.0713</v>
       </c>
       <c r="G39" t="n">
+        <v>66.68999999999991</v>
+      </c>
+      <c r="H39" t="n">
         <v>66.56933333333332</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>66.23999999999999</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1814,18 +2117,27 @@
         <v>17536.6472</v>
       </c>
       <c r="G40" t="n">
+        <v>66.80333333333326</v>
+      </c>
+      <c r="H40" t="n">
         <v>66.61116666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1849,19 +2161,28 @@
         <v>6441.8172</v>
       </c>
       <c r="G41" t="n">
+        <v>66.81066666666659</v>
+      </c>
+      <c r="H41" t="n">
         <v>66.63816666666666</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
+      <c r="L41" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>1.010788674662213</v>
       </c>
     </row>
     <row r="42">
@@ -1884,18 +2205,21 @@
         <v>2147.2725</v>
       </c>
       <c r="G42" t="n">
+        <v>66.81733333333327</v>
+      </c>
+      <c r="H42" t="n">
         <v>66.65366666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1919,18 +2243,21 @@
         <v>4946.9976</v>
       </c>
       <c r="G43" t="n">
+        <v>66.82399999999993</v>
+      </c>
+      <c r="H43" t="n">
         <v>66.67883333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1954,18 +2281,21 @@
         <v>7.6695</v>
       </c>
       <c r="G44" t="n">
+        <v>66.98333333333328</v>
+      </c>
+      <c r="H44" t="n">
         <v>66.72450000000001</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1989,18 +2319,21 @@
         <v>7000</v>
       </c>
       <c r="G45" t="n">
+        <v>67.01666666666661</v>
+      </c>
+      <c r="H45" t="n">
         <v>66.73883333333335</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2024,18 +2357,21 @@
         <v>3080.6986</v>
       </c>
       <c r="G46" t="n">
+        <v>67.0946666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>66.75383333333335</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2059,18 +2395,21 @@
         <v>4456.327433628318</v>
       </c>
       <c r="G47" t="n">
+        <v>67.19533333333328</v>
+      </c>
+      <c r="H47" t="n">
         <v>66.79566666666668</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2094,18 +2433,21 @@
         <v>6849.4732</v>
       </c>
       <c r="G48" t="n">
+        <v>67.36733333333328</v>
+      </c>
+      <c r="H48" t="n">
         <v>66.83950000000002</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2129,18 +2471,21 @@
         <v>108.6453</v>
       </c>
       <c r="G49" t="n">
+        <v>67.51399999999994</v>
+      </c>
+      <c r="H49" t="n">
         <v>66.89466666666668</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2164,18 +2509,21 @@
         <v>17296.589</v>
       </c>
       <c r="G50" t="n">
+        <v>67.69799999999994</v>
+      </c>
+      <c r="H50" t="n">
         <v>66.93016666666668</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2199,18 +2547,21 @@
         <v>635.2782999999999</v>
       </c>
       <c r="G51" t="n">
+        <v>67.82199999999993</v>
+      </c>
+      <c r="H51" t="n">
         <v>66.97766666666668</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2234,18 +2585,21 @@
         <v>3066.5672</v>
       </c>
       <c r="G52" t="n">
+        <v>67.91533333333327</v>
+      </c>
+      <c r="H52" t="n">
         <v>67.02616666666668</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2269,18 +2623,21 @@
         <v>11991.3321</v>
       </c>
       <c r="G53" t="n">
+        <v>67.74666666666658</v>
+      </c>
+      <c r="H53" t="n">
         <v>67.07316666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2304,18 +2661,21 @@
         <v>3456.3275</v>
       </c>
       <c r="G54" t="n">
+        <v>67.62799999999991</v>
+      </c>
+      <c r="H54" t="n">
         <v>67.10300000000001</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2339,18 +2699,21 @@
         <v>15000</v>
       </c>
       <c r="G55" t="n">
+        <v>67.60133333333326</v>
+      </c>
+      <c r="H55" t="n">
         <v>67.15400000000001</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2374,18 +2737,21 @@
         <v>16307.2048</v>
       </c>
       <c r="G56" t="n">
+        <v>67.61333333333326</v>
+      </c>
+      <c r="H56" t="n">
         <v>67.17433333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2409,18 +2775,21 @@
         <v>10000</v>
       </c>
       <c r="G57" t="n">
+        <v>67.62599999999992</v>
+      </c>
+      <c r="H57" t="n">
         <v>67.19483333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2444,18 +2813,21 @@
         <v>80</v>
       </c>
       <c r="G58" t="n">
+        <v>67.76533333333326</v>
+      </c>
+      <c r="H58" t="n">
         <v>67.24516666666666</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2479,18 +2851,21 @@
         <v>6794.7569</v>
       </c>
       <c r="G59" t="n">
+        <v>67.65866666666658</v>
+      </c>
+      <c r="H59" t="n">
         <v>67.26566666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2514,18 +2889,21 @@
         <v>45679.2596</v>
       </c>
       <c r="G60" t="n">
+        <v>67.65799999999992</v>
+      </c>
+      <c r="H60" t="n">
         <v>67.28116666666668</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2549,18 +2927,21 @@
         <v>1638.7495</v>
       </c>
       <c r="G61" t="n">
+        <v>67.79599999999992</v>
+      </c>
+      <c r="H61" t="n">
         <v>67.33166666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2584,18 +2965,21 @@
         <v>3116.1168</v>
       </c>
       <c r="G62" t="n">
+        <v>67.72933333333326</v>
+      </c>
+      <c r="H62" t="n">
         <v>67.34716666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2619,18 +3003,21 @@
         <v>1438.7152</v>
       </c>
       <c r="G63" t="n">
+        <v>67.6606666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>67.36266666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2654,18 +3041,21 @@
         <v>14930.9618</v>
       </c>
       <c r="G64" t="n">
+        <v>67.5466666666666</v>
+      </c>
+      <c r="H64" t="n">
         <v>67.378</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2689,18 +3079,21 @@
         <v>20000</v>
       </c>
       <c r="G65" t="n">
+        <v>67.37399999999994</v>
+      </c>
+      <c r="H65" t="n">
         <v>67.37033333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2724,18 +3117,21 @@
         <v>1163.6632</v>
       </c>
       <c r="G66" t="n">
+        <v>67.28733333333327</v>
+      </c>
+      <c r="H66" t="n">
         <v>67.38583333333334</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2759,18 +3155,21 @@
         <v>15.6238</v>
       </c>
       <c r="G67" t="n">
+        <v>67.30666666666659</v>
+      </c>
+      <c r="H67" t="n">
         <v>67.42783333333335</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,18 +3193,21 @@
         <v>9786.627699999999</v>
       </c>
       <c r="G68" t="n">
+        <v>67.34266666666659</v>
+      </c>
+      <c r="H68" t="n">
         <v>67.46266666666669</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2829,18 +3231,21 @@
         <v>29.244</v>
       </c>
       <c r="G69" t="n">
+        <v>67.41999999999992</v>
+      </c>
+      <c r="H69" t="n">
         <v>67.43933333333335</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2864,18 +3269,21 @@
         <v>1446.1352</v>
       </c>
       <c r="G70" t="n">
+        <v>67.39999999999992</v>
+      </c>
+      <c r="H70" t="n">
         <v>67.41933333333334</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2899,18 +3307,21 @@
         <v>1374.837</v>
       </c>
       <c r="G71" t="n">
+        <v>67.44733333333325</v>
+      </c>
+      <c r="H71" t="n">
         <v>67.39433333333335</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2934,18 +3345,21 @@
         <v>9109.9336</v>
       </c>
       <c r="G72" t="n">
+        <v>67.35933333333325</v>
+      </c>
+      <c r="H72" t="n">
         <v>67.34050000000002</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2969,18 +3383,21 @@
         <v>10</v>
       </c>
       <c r="G73" t="n">
+        <v>67.27266666666659</v>
+      </c>
+      <c r="H73" t="n">
         <v>67.31700000000002</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3004,18 +3421,21 @@
         <v>17751.1086</v>
       </c>
       <c r="G74" t="n">
+        <v>67.16599999999991</v>
+      </c>
+      <c r="H74" t="n">
         <v>67.25850000000001</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3039,18 +3459,21 @@
         <v>8</v>
       </c>
       <c r="G75" t="n">
+        <v>67.21933333333325</v>
+      </c>
+      <c r="H75" t="n">
         <v>67.23500000000003</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3074,18 +3497,21 @@
         <v>16</v>
       </c>
       <c r="G76" t="n">
+        <v>67.13266666666658</v>
+      </c>
+      <c r="H76" t="n">
         <v>67.23466666666668</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3109,18 +3535,21 @@
         <v>8</v>
       </c>
       <c r="G77" t="n">
+        <v>67.18533333333326</v>
+      </c>
+      <c r="H77" t="n">
         <v>67.23433333333335</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3144,18 +3573,21 @@
         <v>17759.1086</v>
       </c>
       <c r="G78" t="n">
+        <v>67.23866666666659</v>
+      </c>
+      <c r="H78" t="n">
         <v>67.23400000000001</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3179,18 +3611,21 @@
         <v>8</v>
       </c>
       <c r="G79" t="n">
+        <v>67.29199999999992</v>
+      </c>
+      <c r="H79" t="n">
         <v>67.23366666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3214,18 +3649,21 @@
         <v>24</v>
       </c>
       <c r="G80" t="n">
+        <v>67.43733333333324</v>
+      </c>
+      <c r="H80" t="n">
         <v>67.23833333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3249,18 +3687,21 @@
         <v>24</v>
       </c>
       <c r="G81" t="n">
+        <v>67.48999999999992</v>
+      </c>
+      <c r="H81" t="n">
         <v>67.24299999999999</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3284,18 +3725,21 @@
         <v>200</v>
       </c>
       <c r="G82" t="n">
+        <v>67.43666666666658</v>
+      </c>
+      <c r="H82" t="n">
         <v>67.24766666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3319,18 +3763,21 @@
         <v>12376.8778</v>
       </c>
       <c r="G83" t="n">
+        <v>67.40733333333324</v>
+      </c>
+      <c r="H83" t="n">
         <v>67.26666666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3354,18 +3801,21 @@
         <v>9623.1222</v>
       </c>
       <c r="G84" t="n">
+        <v>67.38066666666658</v>
+      </c>
+      <c r="H84" t="n">
         <v>67.27966666666666</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3389,18 +3839,21 @@
         <v>8</v>
       </c>
       <c r="G85" t="n">
+        <v>67.38999999999992</v>
+      </c>
+      <c r="H85" t="n">
         <v>67.29866666666665</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3424,18 +3877,21 @@
         <v>12418.8829</v>
       </c>
       <c r="G86" t="n">
+        <v>67.23199999999993</v>
+      </c>
+      <c r="H86" t="n">
         <v>67.27583333333332</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3459,18 +3915,21 @@
         <v>8</v>
       </c>
       <c r="G87" t="n">
+        <v>67.3266666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>67.28233333333331</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3494,18 +3953,21 @@
         <v>9604.627399999999</v>
       </c>
       <c r="G88" t="n">
+        <v>67.18266666666661</v>
+      </c>
+      <c r="H88" t="n">
         <v>67.26116666666665</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3529,18 +3991,21 @@
         <v>14736.795</v>
       </c>
       <c r="G89" t="n">
+        <v>67.17733333333327</v>
+      </c>
+      <c r="H89" t="n">
         <v>67.24633333333331</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3564,18 +4029,21 @@
         <v>58.7868</v>
       </c>
       <c r="G90" t="n">
+        <v>67.14399999999992</v>
+      </c>
+      <c r="H90" t="n">
         <v>67.25949999999997</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3599,18 +4067,21 @@
         <v>4340.002981070204</v>
       </c>
       <c r="G91" t="n">
+        <v>67.11066666666659</v>
+      </c>
+      <c r="H91" t="n">
         <v>67.28349999999998</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3634,18 +4105,21 @@
         <v>10</v>
       </c>
       <c r="G92" t="n">
+        <v>67.07066666666658</v>
+      </c>
+      <c r="H92" t="n">
         <v>67.29516666666665</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3669,18 +4143,21 @@
         <v>197.1637557844454</v>
       </c>
       <c r="G93" t="n">
+        <v>67.03066666666658</v>
+      </c>
+      <c r="H93" t="n">
         <v>67.32433333333331</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3704,18 +4181,21 @@
         <v>41776.8409</v>
       </c>
       <c r="G94" t="n">
+        <v>66.9839999999999</v>
+      </c>
+      <c r="H94" t="n">
         <v>67.33416666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3739,18 +4219,21 @@
         <v>45350</v>
       </c>
       <c r="G95" t="n">
+        <v>66.84466666666655</v>
+      </c>
+      <c r="H95" t="n">
         <v>67.3385</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3774,18 +4257,21 @@
         <v>2849.1716</v>
       </c>
       <c r="G96" t="n">
+        <v>66.70533333333321</v>
+      </c>
+      <c r="H96" t="n">
         <v>67.32616666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3809,18 +4295,21 @@
         <v>197.5728</v>
       </c>
       <c r="G97" t="n">
+        <v>66.65866666666655</v>
+      </c>
+      <c r="H97" t="n">
         <v>67.32933333333334</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,18 +4333,21 @@
         <v>50404.2052</v>
       </c>
       <c r="G98" t="n">
+        <v>66.58799999999988</v>
+      </c>
+      <c r="H98" t="n">
         <v>67.27116666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3879,18 +4371,21 @@
         <v>11886.5186</v>
       </c>
       <c r="G99" t="n">
+        <v>66.48799999999987</v>
+      </c>
+      <c r="H99" t="n">
         <v>67.22916666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3914,18 +4409,21 @@
         <v>8</v>
       </c>
       <c r="G100" t="n">
+        <v>66.41599999999987</v>
+      </c>
+      <c r="H100" t="n">
         <v>67.20183333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3949,18 +4447,21 @@
         <v>3500</v>
       </c>
       <c r="G101" t="n">
+        <v>66.45999999999985</v>
+      </c>
+      <c r="H101" t="n">
         <v>67.18816666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3984,18 +4485,21 @@
         <v>10</v>
       </c>
       <c r="G102" t="n">
+        <v>66.43399999999984</v>
+      </c>
+      <c r="H102" t="n">
         <v>67.18650000000001</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4019,18 +4523,21 @@
         <v>12093.6525</v>
       </c>
       <c r="G103" t="n">
+        <v>66.53066666666651</v>
+      </c>
+      <c r="H103" t="n">
         <v>67.18783333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4054,18 +4561,21 @@
         <v>15299.5708</v>
       </c>
       <c r="G104" t="n">
+        <v>66.64933333333317</v>
+      </c>
+      <c r="H104" t="n">
         <v>67.16283333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4089,18 +4599,21 @@
         <v>6524.3078</v>
       </c>
       <c r="G105" t="n">
+        <v>66.70666666666651</v>
+      </c>
+      <c r="H105" t="n">
         <v>67.182</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,18 +4637,21 @@
         <v>5475.6931</v>
       </c>
       <c r="G106" t="n">
+        <v>66.76066666666649</v>
+      </c>
+      <c r="H106" t="n">
         <v>67.19999999999999</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4159,18 +4675,21 @@
         <v>6499.6713</v>
       </c>
       <c r="G107" t="n">
+        <v>66.78133333333317</v>
+      </c>
+      <c r="H107" t="n">
         <v>67.19166666666665</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4194,18 +4713,21 @@
         <v>41038.4997</v>
       </c>
       <c r="G108" t="n">
+        <v>66.7946666666665</v>
+      </c>
+      <c r="H108" t="n">
         <v>67.18116666666664</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4229,18 +4751,21 @@
         <v>14193.8041</v>
       </c>
       <c r="G109" t="n">
+        <v>66.81466666666651</v>
+      </c>
+      <c r="H109" t="n">
         <v>67.15933333333331</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4264,18 +4789,21 @@
         <v>29993.4604</v>
       </c>
       <c r="G110" t="n">
+        <v>66.92666666666651</v>
+      </c>
+      <c r="H110" t="n">
         <v>67.14566666666664</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4299,18 +4827,21 @@
         <v>4616.6013</v>
       </c>
       <c r="G111" t="n">
+        <v>67.03866666666651</v>
+      </c>
+      <c r="H111" t="n">
         <v>67.13033333333331</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4334,18 +4865,21 @@
         <v>3282.1016</v>
       </c>
       <c r="G112" t="n">
+        <v>67.05733333333318</v>
+      </c>
+      <c r="H112" t="n">
         <v>67.11483333333332</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4369,18 +4903,21 @@
         <v>1878.4159</v>
       </c>
       <c r="G113" t="n">
+        <v>67.05799999999985</v>
+      </c>
+      <c r="H113" t="n">
         <v>67.09899999999999</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4404,18 +4941,21 @@
         <v>24343.6379</v>
       </c>
       <c r="G114" t="n">
+        <v>67.05866666666651</v>
+      </c>
+      <c r="H114" t="n">
         <v>67.08683333333332</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4439,18 +4979,21 @@
         <v>21404.7697</v>
       </c>
       <c r="G115" t="n">
+        <v>66.97133333333319</v>
+      </c>
+      <c r="H115" t="n">
         <v>67.04433333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,18 +5017,21 @@
         <v>11422.2176</v>
       </c>
       <c r="G116" t="n">
+        <v>67.04199999999985</v>
+      </c>
+      <c r="H116" t="n">
         <v>67.04533333333332</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4509,18 +5055,21 @@
         <v>47444.1201</v>
       </c>
       <c r="G117" t="n">
+        <v>66.98199999999984</v>
+      </c>
+      <c r="H117" t="n">
         <v>67.02549999999999</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4544,18 +5093,21 @@
         <v>814.6976</v>
       </c>
       <c r="G118" t="n">
+        <v>66.92333333333319</v>
+      </c>
+      <c r="H118" t="n">
         <v>66.97733333333332</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,18 +5131,21 @@
         <v>45.07671681811411</v>
       </c>
       <c r="G119" t="n">
+        <v>66.91933333333319</v>
+      </c>
+      <c r="H119" t="n">
         <v>66.97799999999999</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4614,18 +5169,21 @@
         <v>200</v>
       </c>
       <c r="G120" t="n">
+        <v>66.86599999999984</v>
+      </c>
+      <c r="H120" t="n">
         <v>66.98399999999999</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4649,18 +5207,21 @@
         <v>1371.955</v>
       </c>
       <c r="G121" t="n">
+        <v>66.77933333333318</v>
+      </c>
+      <c r="H121" t="n">
         <v>66.94583333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4684,18 +5245,21 @@
         <v>4156.4881</v>
       </c>
       <c r="G122" t="n">
+        <v>66.76533333333319</v>
+      </c>
+      <c r="H122" t="n">
         <v>66.95066666666666</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4719,18 +5283,21 @@
         <v>800.1879</v>
       </c>
       <c r="G123" t="n">
+        <v>66.72266666666651</v>
+      </c>
+      <c r="H123" t="n">
         <v>66.94666666666666</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4754,18 +5321,21 @@
         <v>8</v>
       </c>
       <c r="G124" t="n">
+        <v>66.71599999999984</v>
+      </c>
+      <c r="H124" t="n">
         <v>66.95166666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4789,18 +5359,21 @@
         <v>4813.361</v>
       </c>
       <c r="G125" t="n">
+        <v>66.70999999999982</v>
+      </c>
+      <c r="H125" t="n">
         <v>66.97966666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4824,18 +5397,21 @@
         <v>3607.7796</v>
       </c>
       <c r="G126" t="n">
+        <v>66.70399999999981</v>
+      </c>
+      <c r="H126" t="n">
         <v>66.9845</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4859,18 +5435,21 @@
         <v>6059.5213</v>
       </c>
       <c r="G127" t="n">
+        <v>66.69266666666648</v>
+      </c>
+      <c r="H127" t="n">
         <v>66.96133333333334</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4894,18 +5473,21 @@
         <v>1371.955</v>
       </c>
       <c r="G128" t="n">
+        <v>66.69266666666648</v>
+      </c>
+      <c r="H128" t="n">
         <v>66.93650000000001</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4929,18 +5511,21 @@
         <v>4803.3302</v>
       </c>
       <c r="G129" t="n">
+        <v>66.73266666666647</v>
+      </c>
+      <c r="H129" t="n">
         <v>66.91500000000001</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4964,18 +5549,21 @@
         <v>23718.3812</v>
       </c>
       <c r="G130" t="n">
+        <v>66.82933333333314</v>
+      </c>
+      <c r="H130" t="n">
         <v>66.90166666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4999,18 +5587,21 @@
         <v>4193.7042</v>
       </c>
       <c r="G131" t="n">
+        <v>66.79933333333314</v>
+      </c>
+      <c r="H131" t="n">
         <v>66.88333333333334</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5034,18 +5625,21 @@
         <v>24579.0407</v>
       </c>
       <c r="G132" t="n">
+        <v>66.85266666666648</v>
+      </c>
+      <c r="H132" t="n">
         <v>66.89883333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5069,18 +5663,21 @@
         <v>3146.9195</v>
       </c>
       <c r="G133" t="n">
+        <v>66.89333333333315</v>
+      </c>
+      <c r="H133" t="n">
         <v>66.88249999999999</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5104,18 +5701,21 @@
         <v>9786.7518</v>
       </c>
       <c r="G134" t="n">
+        <v>66.86466666666648</v>
+      </c>
+      <c r="H134" t="n">
         <v>66.90266666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5139,18 +5739,21 @@
         <v>6360.1815</v>
       </c>
       <c r="G135" t="n">
+        <v>66.83466666666648</v>
+      </c>
+      <c r="H135" t="n">
         <v>66.88783333333332</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5174,18 +5777,21 @@
         <v>23519.6084</v>
       </c>
       <c r="G136" t="n">
+        <v>66.84133333333314</v>
+      </c>
+      <c r="H136" t="n">
         <v>66.87299999999999</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5209,18 +5815,21 @@
         <v>3000</v>
       </c>
       <c r="G137" t="n">
+        <v>66.80933333333313</v>
+      </c>
+      <c r="H137" t="n">
         <v>66.85666666666665</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5244,18 +5853,21 @@
         <v>10710</v>
       </c>
       <c r="G138" t="n">
+        <v>66.81466666666647</v>
+      </c>
+      <c r="H138" t="n">
         <v>66.84066666666665</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5279,18 +5891,21 @@
         <v>5882.4344</v>
       </c>
       <c r="G139" t="n">
+        <v>66.77866666666647</v>
+      </c>
+      <c r="H139" t="n">
         <v>66.82333333333332</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5314,18 +5929,21 @@
         <v>10018.408</v>
       </c>
       <c r="G140" t="n">
+        <v>66.70733333333314</v>
+      </c>
+      <c r="H140" t="n">
         <v>66.79716666666666</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5349,18 +5967,21 @@
         <v>22525.4984</v>
       </c>
       <c r="G141" t="n">
+        <v>66.63666666666647</v>
+      </c>
+      <c r="H141" t="n">
         <v>66.77116666666664</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5384,18 +6005,21 @@
         <v>131035.2018</v>
       </c>
       <c r="G142" t="n">
+        <v>66.57199999999982</v>
+      </c>
+      <c r="H142" t="n">
         <v>66.74516666666665</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5419,18 +6043,21 @@
         <v>8</v>
       </c>
       <c r="G143" t="n">
+        <v>66.51933333333314</v>
+      </c>
+      <c r="H143" t="n">
         <v>66.71449999999999</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,18 +6081,21 @@
         <v>8</v>
       </c>
       <c r="G144" t="n">
+        <v>66.51266666666648</v>
+      </c>
+      <c r="H144" t="n">
         <v>66.69799999999999</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5489,18 +6119,21 @@
         <v>1448.4712</v>
       </c>
       <c r="G145" t="n">
+        <v>66.48599999999981</v>
+      </c>
+      <c r="H145" t="n">
         <v>66.67566666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5524,18 +6157,21 @@
         <v>26453.0412</v>
       </c>
       <c r="G146" t="n">
+        <v>66.47933333333313</v>
+      </c>
+      <c r="H146" t="n">
         <v>66.69516666666665</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5559,18 +6195,21 @@
         <v>12500</v>
       </c>
       <c r="G147" t="n">
+        <v>66.5619999999998</v>
+      </c>
+      <c r="H147" t="n">
         <v>66.70766666666665</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5594,18 +6233,21 @@
         <v>363.5866</v>
       </c>
       <c r="G148" t="n">
+        <v>66.6479999999998</v>
+      </c>
+      <c r="H148" t="n">
         <v>66.74883333333332</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5629,18 +6271,21 @@
         <v>4666.4494</v>
       </c>
       <c r="G149" t="n">
+        <v>66.7279999999998</v>
+      </c>
+      <c r="H149" t="n">
         <v>66.79033333333332</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5664,18 +6309,21 @@
         <v>8.5015</v>
       </c>
       <c r="G150" t="n">
+        <v>66.71466666666646</v>
+      </c>
+      <c r="H150" t="n">
         <v>66.78049999999999</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5699,18 +6347,21 @@
         <v>39.3143</v>
       </c>
       <c r="G151" t="n">
+        <v>66.70266666666645</v>
+      </c>
+      <c r="H151" t="n">
         <v>66.77099999999999</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5734,18 +6385,21 @@
         <v>10</v>
       </c>
       <c r="G152" t="n">
+        <v>66.79133333333313</v>
+      </c>
+      <c r="H152" t="n">
         <v>66.78683333333332</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5769,18 +6423,21 @@
         <v>180</v>
       </c>
       <c r="G153" t="n">
+        <v>66.78399999999979</v>
+      </c>
+      <c r="H153" t="n">
         <v>66.779</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5804,18 +6461,21 @@
         <v>52.6073</v>
       </c>
       <c r="G154" t="n">
+        <v>66.84666666666645</v>
+      </c>
+      <c r="H154" t="n">
         <v>66.789</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5839,18 +6499,21 @@
         <v>25728.1692</v>
       </c>
       <c r="G155" t="n">
+        <v>66.86533333333313</v>
+      </c>
+      <c r="H155" t="n">
         <v>66.80233333333334</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5874,18 +6537,21 @@
         <v>283.1622</v>
       </c>
       <c r="G156" t="n">
+        <v>66.88333333333313</v>
+      </c>
+      <c r="H156" t="n">
         <v>66.81566666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5909,18 +6575,21 @@
         <v>65281.42221674208</v>
       </c>
       <c r="G157" t="n">
+        <v>66.88133333333312</v>
+      </c>
+      <c r="H157" t="n">
         <v>66.80083333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5944,18 +6613,21 @@
         <v>77271.5295</v>
       </c>
       <c r="G158" t="n">
+        <v>66.84199999999979</v>
+      </c>
+      <c r="H158" t="n">
         <v>66.77800000000001</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5979,18 +6651,21 @@
         <v>51.8627</v>
       </c>
       <c r="G159" t="n">
+        <v>66.89466666666645</v>
+      </c>
+      <c r="H159" t="n">
         <v>66.79966666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6014,18 +6689,21 @@
         <v>274443.8129</v>
       </c>
       <c r="G160" t="n">
+        <v>66.7879999999998</v>
+      </c>
+      <c r="H160" t="n">
         <v>66.76866666666666</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6049,18 +6727,21 @@
         <v>8</v>
       </c>
       <c r="G161" t="n">
+        <v>66.68133333333313</v>
+      </c>
+      <c r="H161" t="n">
         <v>66.7505</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6084,18 +6765,21 @@
         <v>15065</v>
       </c>
       <c r="G162" t="n">
+        <v>66.55866666666647</v>
+      </c>
+      <c r="H162" t="n">
         <v>66.73883333333332</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6119,18 +6803,21 @@
         <v>207.6656626506024</v>
       </c>
       <c r="G163" t="n">
+        <v>66.45866666666647</v>
+      </c>
+      <c r="H163" t="n">
         <v>66.73083333333332</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6154,18 +6841,21 @@
         <v>19936.4204373494</v>
       </c>
       <c r="G164" t="n">
+        <v>66.36999999999981</v>
+      </c>
+      <c r="H164" t="n">
         <v>66.72049999999999</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6189,18 +6879,21 @@
         <v>1714.5599</v>
       </c>
       <c r="G165" t="n">
+        <v>66.38999999999982</v>
+      </c>
+      <c r="H165" t="n">
         <v>66.70133333333334</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6224,18 +6917,21 @@
         <v>72432.848</v>
       </c>
       <c r="G166" t="n">
+        <v>66.40866666666648</v>
+      </c>
+      <c r="H166" t="n">
         <v>66.68300000000001</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6259,18 +6955,21 @@
         <v>3292.9177</v>
       </c>
       <c r="G167" t="n">
+        <v>66.37933333333314</v>
+      </c>
+      <c r="H167" t="n">
         <v>66.68633333333334</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6294,18 +6993,21 @@
         <v>3213.916</v>
       </c>
       <c r="G168" t="n">
+        <v>66.44466666666648</v>
+      </c>
+      <c r="H168" t="n">
         <v>66.69149999999999</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6329,18 +7031,21 @@
         <v>7917.282</v>
       </c>
       <c r="G169" t="n">
+        <v>66.39866666666647</v>
+      </c>
+      <c r="H169" t="n">
         <v>66.685</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,18 +7069,21 @@
         <v>200</v>
       </c>
       <c r="G170" t="n">
+        <v>66.47199999999981</v>
+      </c>
+      <c r="H170" t="n">
         <v>66.68866666666666</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6399,18 +7107,21 @@
         <v>2000.7691</v>
       </c>
       <c r="G171" t="n">
+        <v>66.51866666666648</v>
+      </c>
+      <c r="H171" t="n">
         <v>66.68566666666668</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6434,18 +7145,21 @@
         <v>913.0569</v>
       </c>
       <c r="G172" t="n">
+        <v>66.58533333333315</v>
+      </c>
+      <c r="H172" t="n">
         <v>66.68283333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6469,18 +7183,21 @@
         <v>480.4057</v>
       </c>
       <c r="G173" t="n">
+        <v>66.68399999999981</v>
+      </c>
+      <c r="H173" t="n">
         <v>66.6845</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6504,18 +7221,21 @@
         <v>3351.8487</v>
       </c>
       <c r="G174" t="n">
+        <v>66.65799999999982</v>
+      </c>
+      <c r="H174" t="n">
         <v>66.6995</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6539,18 +7259,21 @@
         <v>14631.0583</v>
       </c>
       <c r="G175" t="n">
+        <v>66.78466666666648</v>
+      </c>
+      <c r="H175" t="n">
         <v>66.72200000000001</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6574,18 +7297,21 @@
         <v>11516.8051</v>
       </c>
       <c r="G176" t="n">
+        <v>66.91133333333316</v>
+      </c>
+      <c r="H176" t="n">
         <v>66.71783333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6609,18 +7335,21 @@
         <v>18453.5485</v>
       </c>
       <c r="G177" t="n">
+        <v>66.94266666666648</v>
+      </c>
+      <c r="H177" t="n">
         <v>66.729</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6644,18 +7373,21 @@
         <v>45.0767</v>
       </c>
       <c r="G178" t="n">
+        <v>66.96266666666648</v>
+      </c>
+      <c r="H178" t="n">
         <v>66.74066666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6679,18 +7411,21 @@
         <v>16630.5434</v>
       </c>
       <c r="G179" t="n">
+        <v>66.96266666666649</v>
+      </c>
+      <c r="H179" t="n">
         <v>66.73133333333334</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6714,18 +7449,21 @@
         <v>151.7922</v>
       </c>
       <c r="G180" t="n">
+        <v>66.94733333333315</v>
+      </c>
+      <c r="H180" t="n">
         <v>66.72166666666666</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6749,18 +7487,21 @@
         <v>35047.0399</v>
       </c>
       <c r="G181" t="n">
+        <v>66.83399999999982</v>
+      </c>
+      <c r="H181" t="n">
         <v>66.69666666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6784,18 +7525,21 @@
         <v>8617.2389</v>
       </c>
       <c r="G182" t="n">
+        <v>66.68199999999982</v>
+      </c>
+      <c r="H182" t="n">
         <v>66.66549999999999</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6819,18 +7563,21 @@
         <v>1169.5129</v>
       </c>
       <c r="G183" t="n">
+        <v>66.52999999999982</v>
+      </c>
+      <c r="H183" t="n">
         <v>66.64333333333333</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6854,18 +7601,21 @@
         <v>186.9898</v>
       </c>
       <c r="G184" t="n">
+        <v>66.47666666666649</v>
+      </c>
+      <c r="H184" t="n">
         <v>66.62516666666666</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6889,18 +7639,21 @@
         <v>29357.416</v>
       </c>
       <c r="G185" t="n">
+        <v>66.38333333333316</v>
+      </c>
+      <c r="H185" t="n">
         <v>66.60699999999999</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6924,18 +7677,21 @@
         <v>9036.5954</v>
       </c>
       <c r="G186" t="n">
+        <v>66.31666666666648</v>
+      </c>
+      <c r="H186" t="n">
         <v>66.58883333333331</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6959,18 +7715,21 @@
         <v>4222.3692</v>
       </c>
       <c r="G187" t="n">
+        <v>66.27666666666649</v>
+      </c>
+      <c r="H187" t="n">
         <v>66.57883333333332</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6994,18 +7753,21 @@
         <v>2611.5971</v>
       </c>
       <c r="G188" t="n">
+        <v>66.24266666666649</v>
+      </c>
+      <c r="H188" t="n">
         <v>66.57199999999997</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7029,18 +7791,21 @@
         <v>5219.905</v>
       </c>
       <c r="G189" t="n">
+        <v>66.1566666666665</v>
+      </c>
+      <c r="H189" t="n">
         <v>66.55549999999998</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7064,18 +7829,21 @@
         <v>24409.8088</v>
       </c>
       <c r="G190" t="n">
+        <v>66.06799999999983</v>
+      </c>
+      <c r="H190" t="n">
         <v>66.53166666666665</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7099,18 +7867,21 @@
         <v>30347.8922</v>
       </c>
       <c r="G191" t="n">
+        <v>65.97933333333316</v>
+      </c>
+      <c r="H191" t="n">
         <v>66.51283333333332</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7134,18 +7905,21 @@
         <v>1488.2474</v>
       </c>
       <c r="G192" t="n">
+        <v>65.90133333333317</v>
+      </c>
+      <c r="H192" t="n">
         <v>66.49116666666666</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7169,18 +7943,21 @@
         <v>30</v>
       </c>
       <c r="G193" t="n">
+        <v>65.8146666666665</v>
+      </c>
+      <c r="H193" t="n">
         <v>66.47099999999999</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7204,18 +7981,21 @@
         <v>4115.9414</v>
       </c>
       <c r="G194" t="n">
+        <v>65.73666666666651</v>
+      </c>
+      <c r="H194" t="n">
         <v>66.44933333333333</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7239,18 +8019,21 @@
         <v>6652.2938</v>
       </c>
       <c r="G195" t="n">
+        <v>65.66533333333318</v>
+      </c>
+      <c r="H195" t="n">
         <v>66.42933333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7274,18 +8057,21 @@
         <v>13061.5519</v>
       </c>
       <c r="G196" t="n">
+        <v>65.74466666666652</v>
+      </c>
+      <c r="H196" t="n">
         <v>66.4225</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7309,18 +8095,21 @@
         <v>16368.9422</v>
       </c>
       <c r="G197" t="n">
+        <v>65.82866666666651</v>
+      </c>
+      <c r="H197" t="n">
         <v>66.42033333333333</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7344,18 +8133,21 @@
         <v>1320.6438</v>
       </c>
       <c r="G198" t="n">
+        <v>65.91266666666651</v>
+      </c>
+      <c r="H198" t="n">
         <v>66.41783333333333</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7379,18 +8171,21 @@
         <v>58514.2855</v>
       </c>
       <c r="G199" t="n">
+        <v>65.93933333333318</v>
+      </c>
+      <c r="H199" t="n">
         <v>66.41533333333334</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7414,18 +8209,21 @@
         <v>5527.3807</v>
       </c>
       <c r="G200" t="n">
+        <v>65.91999999999985</v>
+      </c>
+      <c r="H200" t="n">
         <v>66.41016666666667</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7449,18 +8247,21 @@
         <v>19236.8573</v>
       </c>
       <c r="G201" t="n">
+        <v>65.88733333333317</v>
+      </c>
+      <c r="H201" t="n">
         <v>66.4015</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7484,18 +8285,21 @@
         <v>219.4657</v>
       </c>
       <c r="G202" t="n">
+        <v>65.87999999999984</v>
+      </c>
+      <c r="H202" t="n">
         <v>66.40583333333333</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7519,18 +8323,21 @@
         <v>538.1514</v>
       </c>
       <c r="G203" t="n">
+        <v>65.86666666666652</v>
+      </c>
+      <c r="H203" t="n">
         <v>66.40883333333333</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7554,18 +8361,21 @@
         <v>1493.6002</v>
       </c>
       <c r="G204" t="n">
+        <v>65.90533333333318</v>
+      </c>
+      <c r="H204" t="n">
         <v>66.40366666666667</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7589,18 +8399,21 @@
         <v>11491.93842486245</v>
       </c>
       <c r="G205" t="n">
+        <v>66.01733333333318</v>
+      </c>
+      <c r="H205" t="n">
         <v>66.4145</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7624,18 +8437,21 @@
         <v>10</v>
       </c>
       <c r="G206" t="n">
+        <v>66.12599999999985</v>
+      </c>
+      <c r="H206" t="n">
         <v>66.42449999999999</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7659,18 +8475,21 @@
         <v>44856.4592</v>
       </c>
       <c r="G207" t="n">
+        <v>66.24533333333319</v>
+      </c>
+      <c r="H207" t="n">
         <v>66.41199999999999</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7694,18 +8513,21 @@
         <v>5233.348</v>
       </c>
       <c r="G208" t="n">
+        <v>66.29933333333319</v>
+      </c>
+      <c r="H208" t="n">
         <v>66.38383333333333</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7729,18 +8551,21 @@
         <v>5210.042</v>
       </c>
       <c r="G209" t="n">
+        <v>66.35333333333318</v>
+      </c>
+      <c r="H209" t="n">
         <v>66.35566666666666</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7764,18 +8589,21 @@
         <v>20000</v>
       </c>
       <c r="G210" t="n">
+        <v>66.40066666666651</v>
+      </c>
+      <c r="H210" t="n">
         <v>66.35083333333333</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7799,18 +8627,21 @@
         <v>4666.4494</v>
       </c>
       <c r="G211" t="n">
+        <v>66.39399999999985</v>
+      </c>
+      <c r="H211" t="n">
         <v>66.34533333333333</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7834,18 +8665,21 @@
         <v>2437.7202</v>
       </c>
       <c r="G212" t="n">
+        <v>66.37066666666651</v>
+      </c>
+      <c r="H212" t="n">
         <v>66.31516666666667</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7869,18 +8703,21 @@
         <v>26219.3397</v>
       </c>
       <c r="G213" t="n">
+        <v>66.34666666666651</v>
+      </c>
+      <c r="H213" t="n">
         <v>66.3085</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7904,18 +8741,21 @@
         <v>6641.4329</v>
       </c>
       <c r="G214" t="n">
+        <v>66.32799999999983</v>
+      </c>
+      <c r="H214" t="n">
         <v>66.28566666666667</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7939,18 +8779,21 @@
         <v>47.9334</v>
       </c>
       <c r="G215" t="n">
+        <v>66.39266666666649</v>
+      </c>
+      <c r="H215" t="n">
         <v>66.29199999999999</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7974,18 +8817,21 @@
         <v>122.62</v>
       </c>
       <c r="G216" t="n">
+        <v>66.46533333333315</v>
+      </c>
+      <c r="H216" t="n">
         <v>66.29699999999998</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8009,18 +8855,21 @@
         <v>3761.3082</v>
       </c>
       <c r="G217" t="n">
+        <v>66.4906666666665</v>
+      </c>
+      <c r="H217" t="n">
         <v>66.30816666666665</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8044,18 +8893,21 @@
         <v>3638.8319</v>
       </c>
       <c r="G218" t="n">
+        <v>66.51599999999983</v>
+      </c>
+      <c r="H218" t="n">
         <v>66.32733333333333</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8079,18 +8931,21 @@
         <v>444.805</v>
       </c>
       <c r="G219" t="n">
+        <v>66.54133333333317</v>
+      </c>
+      <c r="H219" t="n">
         <v>66.31533333333333</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8114,18 +8969,21 @@
         <v>2071.8036</v>
       </c>
       <c r="G220" t="n">
+        <v>66.50333333333317</v>
+      </c>
+      <c r="H220" t="n">
         <v>66.34333333333332</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8149,18 +9007,21 @@
         <v>2115.0061</v>
       </c>
       <c r="G221" t="n">
+        <v>66.46333333333317</v>
+      </c>
+      <c r="H221" t="n">
         <v>66.36999999999999</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8184,18 +9045,21 @@
         <v>36340.7731</v>
       </c>
       <c r="G222" t="n">
+        <v>66.39799999999984</v>
+      </c>
+      <c r="H222" t="n">
         <v>66.37183333333333</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8219,18 +9083,21 @@
         <v>15280.7914</v>
       </c>
       <c r="G223" t="n">
+        <v>66.39799999999984</v>
+      </c>
+      <c r="H223" t="n">
         <v>66.36866666666666</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8254,18 +9121,21 @@
         <v>4356.0809</v>
       </c>
       <c r="G224" t="n">
+        <v>66.39199999999983</v>
+      </c>
+      <c r="H224" t="n">
         <v>66.36116666666665</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8289,18 +9159,21 @@
         <v>3007.0073</v>
       </c>
       <c r="G225" t="n">
+        <v>66.38599999999981</v>
+      </c>
+      <c r="H225" t="n">
         <v>66.34983333333331</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8324,18 +9197,21 @@
         <v>1000</v>
       </c>
       <c r="G226" t="n">
+        <v>66.41333333333314</v>
+      </c>
+      <c r="H226" t="n">
         <v>66.34649999999998</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8359,18 +9235,21 @@
         <v>5958</v>
       </c>
       <c r="G227" t="n">
+        <v>66.39133333333314</v>
+      </c>
+      <c r="H227" t="n">
         <v>66.31816666666664</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8394,18 +9273,21 @@
         <v>28750.9557</v>
       </c>
       <c r="G228" t="n">
+        <v>66.37066666666648</v>
+      </c>
+      <c r="H228" t="n">
         <v>66.28999999999998</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8429,18 +9311,21 @@
         <v>16052.0685</v>
       </c>
       <c r="G229" t="n">
+        <v>66.34933333333315</v>
+      </c>
+      <c r="H229" t="n">
         <v>66.27333333333331</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8464,18 +9349,21 @@
         <v>22572.7245</v>
       </c>
       <c r="G230" t="n">
+        <v>66.29066666666648</v>
+      </c>
+      <c r="H230" t="n">
         <v>66.24666666666664</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8499,18 +9387,21 @@
         <v>5666.4929</v>
       </c>
       <c r="G231" t="n">
+        <v>66.23733333333314</v>
+      </c>
+      <c r="H231" t="n">
         <v>66.22666666666665</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8534,18 +9425,21 @@
         <v>3878.7372</v>
       </c>
       <c r="G232" t="n">
+        <v>66.18599999999981</v>
+      </c>
+      <c r="H232" t="n">
         <v>66.20833333333331</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8569,18 +9463,21 @@
         <v>4381.374</v>
       </c>
       <c r="G233" t="n">
+        <v>66.14733333333315</v>
+      </c>
+      <c r="H233" t="n">
         <v>66.19316666666666</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8604,18 +9501,21 @@
         <v>2721.009</v>
       </c>
       <c r="G234" t="n">
+        <v>66.11666666666648</v>
+      </c>
+      <c r="H234" t="n">
         <v>66.17999999999999</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8639,18 +9539,21 @@
         <v>1360.1415</v>
       </c>
       <c r="G235" t="n">
+        <v>66.11133333333314</v>
+      </c>
+      <c r="H235" t="n">
         <v>66.17499999999998</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8674,18 +9577,21 @@
         <v>6168.6197</v>
       </c>
       <c r="G236" t="n">
+        <v>66.11666666666648</v>
+      </c>
+      <c r="H236" t="n">
         <v>66.17133333333331</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8709,18 +9615,21 @@
         <v>1521.3929</v>
       </c>
       <c r="G237" t="n">
+        <v>66.12266666666648</v>
+      </c>
+      <c r="H237" t="n">
         <v>66.16683333333332</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8744,18 +9653,21 @@
         <v>1369.1126</v>
       </c>
       <c r="G238" t="n">
+        <v>66.12266666666648</v>
+      </c>
+      <c r="H238" t="n">
         <v>66.15866666666665</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8779,18 +9691,21 @@
         <v>1689.5731</v>
       </c>
       <c r="G239" t="n">
+        <v>66.12866666666648</v>
+      </c>
+      <c r="H239" t="n">
         <v>66.15266666666665</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8814,18 +9729,21 @@
         <v>5023.6554</v>
       </c>
       <c r="G240" t="n">
+        <v>66.12066666666648</v>
+      </c>
+      <c r="H240" t="n">
         <v>66.14316666666664</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8849,18 +9767,21 @@
         <v>401.1077389984825</v>
       </c>
       <c r="G241" t="n">
+        <v>66.0739999999998</v>
+      </c>
+      <c r="H241" t="n">
         <v>66.15649999999998</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8884,18 +9805,21 @@
         <v>7290.4295</v>
       </c>
       <c r="G242" t="n">
+        <v>66.07399999999981</v>
+      </c>
+      <c r="H242" t="n">
         <v>66.16616666666665</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8919,18 +9843,21 @@
         <v>57710.9511</v>
       </c>
       <c r="G243" t="n">
+        <v>66.06733333333315</v>
+      </c>
+      <c r="H243" t="n">
         <v>66.17433333333332</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8954,18 +9881,21 @@
         <v>11973.2050009009</v>
       </c>
       <c r="G244" t="n">
+        <v>66.04866666666649</v>
+      </c>
+      <c r="H244" t="n">
         <v>66.16633333333333</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8989,18 +9919,21 @@
         <v>739.7094</v>
       </c>
       <c r="G245" t="n">
+        <v>66.02999999999982</v>
+      </c>
+      <c r="H245" t="n">
         <v>66.15833333333333</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9024,18 +9957,21 @@
         <v>2500.4992</v>
       </c>
       <c r="G246" t="n">
+        <v>66.06266666666649</v>
+      </c>
+      <c r="H246" t="n">
         <v>66.16316666666665</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9059,18 +9995,21 @@
         <v>4489.7561</v>
       </c>
       <c r="G247" t="n">
+        <v>66.06866666666649</v>
+      </c>
+      <c r="H247" t="n">
         <v>66.15633333333332</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9094,18 +10033,21 @@
         <v>3468.2879</v>
       </c>
       <c r="G248" t="n">
+        <v>66.0626666666665</v>
+      </c>
+      <c r="H248" t="n">
         <v>66.14816666666665</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9129,18 +10071,21 @@
         <v>10988.6505</v>
       </c>
       <c r="G249" t="n">
+        <v>66.0686666666665</v>
+      </c>
+      <c r="H249" t="n">
         <v>66.15799999999999</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9164,18 +10109,21 @@
         <v>2690.8934</v>
       </c>
       <c r="G250" t="n">
+        <v>66.02199999999984</v>
+      </c>
+      <c r="H250" t="n">
         <v>66.16349999999998</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9199,18 +10147,21 @@
         <v>50000</v>
       </c>
       <c r="G251" t="n">
+        <v>65.9466666666665</v>
+      </c>
+      <c r="H251" t="n">
         <v>66.16316666666665</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9234,18 +10185,21 @@
         <v>29407.5982</v>
       </c>
       <c r="G252" t="n">
+        <v>65.89399999999983</v>
+      </c>
+      <c r="H252" t="n">
         <v>66.16499999999999</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9269,18 +10223,21 @@
         <v>92467.04180000001</v>
       </c>
       <c r="G253" t="n">
+        <v>65.84666666666651</v>
+      </c>
+      <c r="H253" t="n">
         <v>66.16666666666666</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9304,18 +10261,21 @@
         <v>5421.4851</v>
       </c>
       <c r="G254" t="n">
+        <v>65.79999999999983</v>
+      </c>
+      <c r="H254" t="n">
         <v>66.16849999999999</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9339,18 +10299,21 @@
         <v>174536.69</v>
       </c>
       <c r="G255" t="n">
+        <v>65.7406666666665</v>
+      </c>
+      <c r="H255" t="n">
         <v>66.16199999999999</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9374,18 +10337,21 @@
         <v>100</v>
       </c>
       <c r="G256" t="n">
+        <v>65.69399999999983</v>
+      </c>
+      <c r="H256" t="n">
         <v>66.14383333333333</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9409,18 +10375,21 @@
         <v>21593.4504</v>
       </c>
       <c r="G257" t="n">
+        <v>65.65399999999983</v>
+      </c>
+      <c r="H257" t="n">
         <v>66.12249999999999</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9444,18 +10413,21 @@
         <v>64871.6359</v>
       </c>
       <c r="G258" t="n">
+        <v>65.61399999999982</v>
+      </c>
+      <c r="H258" t="n">
         <v>66.09966666666666</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9479,18 +10451,21 @@
         <v>4.1446</v>
       </c>
       <c r="G259" t="n">
+        <v>65.58799999999982</v>
+      </c>
+      <c r="H259" t="n">
         <v>66.07849999999999</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9514,18 +10489,21 @@
         <v>464</v>
       </c>
       <c r="G260" t="n">
+        <v>65.60533333333316</v>
+      </c>
+      <c r="H260" t="n">
         <v>66.07966666666667</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9549,18 +10527,21 @@
         <v>2646.579</v>
       </c>
       <c r="G261" t="n">
+        <v>65.57133333333316</v>
+      </c>
+      <c r="H261" t="n">
         <v>66.08416666666666</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9584,18 +10565,21 @@
         <v>816.1048</v>
       </c>
       <c r="G262" t="n">
+        <v>65.5586666666665</v>
+      </c>
+      <c r="H262" t="n">
         <v>66.07599999999999</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9619,18 +10603,21 @@
         <v>844.0365</v>
       </c>
       <c r="G263" t="n">
+        <v>65.54533333333316</v>
+      </c>
+      <c r="H263" t="n">
         <v>66.06783333333334</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9654,18 +10641,21 @@
         <v>2529</v>
       </c>
       <c r="G264" t="n">
+        <v>65.51066666666649</v>
+      </c>
+      <c r="H264" t="n">
         <v>66.05933333333334</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9689,18 +10679,21 @@
         <v>2392.0363</v>
       </c>
       <c r="G265" t="n">
+        <v>65.50266666666649</v>
+      </c>
+      <c r="H265" t="n">
         <v>66.03483333333334</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9724,18 +10717,21 @@
         <v>540.1499</v>
       </c>
       <c r="G266" t="n">
+        <v>65.51799999999983</v>
+      </c>
+      <c r="H266" t="n">
         <v>66.01116666666668</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9759,18 +10755,21 @@
         <v>8</v>
       </c>
       <c r="G267" t="n">
+        <v>65.53733333333317</v>
+      </c>
+      <c r="H267" t="n">
         <v>65.98800000000001</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9794,18 +10793,21 @@
         <v>54.0831</v>
       </c>
       <c r="G268" t="n">
+        <v>65.55733333333316</v>
+      </c>
+      <c r="H268" t="n">
         <v>65.98116666666668</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9829,18 +10831,21 @@
         <v>660.1159</v>
       </c>
       <c r="G269" t="n">
+        <v>65.57533333333316</v>
+      </c>
+      <c r="H269" t="n">
         <v>65.97400000000002</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9864,18 +10869,21 @@
         <v>18996.1529</v>
       </c>
       <c r="G270" t="n">
+        <v>65.58133333333316</v>
+      </c>
+      <c r="H270" t="n">
         <v>65.95716666666668</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9899,18 +10907,431 @@
         <v>4922.7719</v>
       </c>
       <c r="G271" t="n">
+        <v>65.57466666666649</v>
+      </c>
+      <c r="H271" t="n">
         <v>65.93900000000002</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="C272" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D272" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="E272" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="F272" t="n">
+        <v>30743.5491</v>
+      </c>
+      <c r="G272" t="n">
+        <v>65.58133333333315</v>
+      </c>
+      <c r="H272" t="n">
+        <v>65.92516666666668</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="C273" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D273" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="E273" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="F273" t="n">
+        <v>370.6207</v>
+      </c>
+      <c r="G273" t="n">
+        <v>65.59399999999981</v>
+      </c>
+      <c r="H273" t="n">
+        <v>65.91150000000002</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="C274" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="D274" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="E274" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="F274" t="n">
+        <v>10</v>
+      </c>
+      <c r="G274" t="n">
+        <v>65.63866666666648</v>
+      </c>
+      <c r="H274" t="n">
+        <v>65.90616666666669</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="C275" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D275" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="E275" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="F275" t="n">
+        <v>11108.9033</v>
+      </c>
+      <c r="G275" t="n">
+        <v>65.6066666666665</v>
+      </c>
+      <c r="H275" t="n">
+        <v>65.8831666666667</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="C276" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D276" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="E276" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="F276" t="n">
+        <v>702.0003</v>
+      </c>
+      <c r="G276" t="n">
+        <v>65.57466666666649</v>
+      </c>
+      <c r="H276" t="n">
+        <v>65.86150000000004</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="C277" t="n">
+        <v>65.02</v>
+      </c>
+      <c r="D277" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="E277" t="n">
+        <v>65.02</v>
+      </c>
+      <c r="F277" t="n">
+        <v>4436.1723</v>
+      </c>
+      <c r="G277" t="n">
+        <v>65.5226666666665</v>
+      </c>
+      <c r="H277" t="n">
+        <v>65.83400000000003</v>
+      </c>
+      <c r="I277" t="n">
+        <v>1</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>65.02</v>
+      </c>
+      <c r="C278" t="n">
+        <v>65</v>
+      </c>
+      <c r="D278" t="n">
+        <v>65.02</v>
+      </c>
+      <c r="E278" t="n">
+        <v>65</v>
+      </c>
+      <c r="F278" t="n">
+        <v>50112.2827</v>
+      </c>
+      <c r="G278" t="n">
+        <v>65.46933333333317</v>
+      </c>
+      <c r="H278" t="n">
+        <v>65.8061666666667</v>
+      </c>
+      <c r="I278" t="n">
+        <v>1</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>65.02</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="C279" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="D279" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="E279" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="F279" t="n">
+        <v>22899.1715</v>
+      </c>
+      <c r="G279" t="n">
+        <v>65.42399999999982</v>
+      </c>
+      <c r="H279" t="n">
+        <v>65.78000000000003</v>
+      </c>
+      <c r="I279" t="n">
+        <v>1</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>65</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="C280" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="D280" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="E280" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="F280" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="G280" t="n">
+        <v>65.4186666666665</v>
+      </c>
+      <c r="H280" t="n">
+        <v>65.76366666666669</v>
+      </c>
+      <c r="I280" t="n">
+        <v>1</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="C281" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D281" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="E281" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1219.5098</v>
+      </c>
+      <c r="G281" t="n">
+        <v>65.3866666666665</v>
+      </c>
+      <c r="H281" t="n">
+        <v>65.74200000000003</v>
+      </c>
+      <c r="I281" t="n">
+        <v>1</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-26 BackTest WPX.xlsx
+++ b/BackTest/2020-01-26 BackTest WPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N339"/>
+  <dimension ref="A1:M339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-254652.3456006005</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-258597.6330012011</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-296437.7233012011</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,19 @@
         <v>-340473.1392012011</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>65</v>
+      </c>
+      <c r="J11" t="n">
+        <v>65</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +785,23 @@
         <v>-327731.9662012011</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>65.01000000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>65</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +826,23 @@
         <v>-325300.1354012011</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>66.13</v>
+      </c>
+      <c r="J13" t="n">
+        <v>65</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +869,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +900,15 @@
         <v>-320812.9918012011</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +933,15 @@
         <v>-320805.4718012011</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +966,15 @@
         <v>-310327.6634012011</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +999,15 @@
         <v>-310327.6634012011</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1032,15 @@
         <v>-305327.6634012011</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1067,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1100,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1133,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1166,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1199,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1232,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1265,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1296,15 @@
         <v>-313891.7297012011</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1331,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1364,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1397,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1428,15 @@
         <v>-314102.2705012011</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1463,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1496,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1529,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1562,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1595,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1628,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1661,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1694,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1727,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1760,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1793,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1826,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1859,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1892,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1925,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1958,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1991,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2024,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2057,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2090,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2123,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2156,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2189,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2222,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2255,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2288,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2321,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2354,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2387,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2420,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2453,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2486,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2519,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2552,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2585,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2618,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2651,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2684,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2717,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2750,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2783,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2816,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2849,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2882,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2915,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2948,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2981,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3014,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3047,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3080,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3111,15 @@
         <v>-321758.4627012011</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3146,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3177,15 @@
         <v>-333118.6082012011</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3210,15 @@
         <v>-333118.6082012011</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3245,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3278,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3309,15 @@
         <v>-339876.4804012011</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3344,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3377,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3410,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3443,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3476,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3509,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3542,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3575,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3608,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3641,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3674,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3707,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3740,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3773,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3806,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3839,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3872,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3905,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3938,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3971,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4004,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4035,15 @@
         <v>-287090.0052813409</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4068,15 @@
         <v>-299081.3373813409</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4103,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4134,15 @@
         <v>-287537.6648813409</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4488,18 +4167,15 @@
         <v>-303844.8696813409</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4202,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4235,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4268,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4301,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4334,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4367,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4740,18 +4398,15 @@
         <v>-359154.9686813409</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4431,15 @@
         <v>-359154.9686813409</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4466,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4499,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4532,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4565,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4598,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4631,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4664,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4697,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4730,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4763,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4796,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4829,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4862,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4895,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4928,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4961,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4994,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5027,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5060,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5093,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5126,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5159,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5192,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5225,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5258,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5291,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5324,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5357,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5390,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5423,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5456,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5489,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5522,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5555,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5588,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5621,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5654,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5687,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5720,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5753,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5786,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5819,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5852,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5885,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5918,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5951,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5984,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +6017,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6050,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6083,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6116,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6149,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6182,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6215,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6248,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6281,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6314,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6347,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6380,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6413,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6446,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6479,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6512,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6545,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6578,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6611,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6644,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7224,18 +6675,15 @@
         <v>-668212.2836645227</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7260,18 +6708,15 @@
         <v>-671359.2031645227</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7296,18 +6741,15 @@
         <v>-661572.4513645227</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6776,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6809,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6842,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6875,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6908,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6941,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6974,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +7007,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7040,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7073,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7106,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7139,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7172,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7205,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7238,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>1</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7872,18 +7269,15 @@
         <v>-635093.8834645228</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7304,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7337,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7370,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>1</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8016,18 +7401,15 @@
         <v>-635171.9618645228</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8052,18 +7434,15 @@
         <v>-660900.1310645228</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7469,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8124,18 +7500,15 @@
         <v>-726181.5532812648</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7535,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7568,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7601,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7634,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7667,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7700,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7733,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7766,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7799,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7832,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7865,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8556,18 +7896,15 @@
         <v>-1045545.751281265</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7931,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8628,18 +7962,15 @@
         <v>-1047346.520381265</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8664,18 +7995,15 @@
         <v>-1047346.520381265</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8700,18 +8028,15 @@
         <v>-1047346.520381265</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8063,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8096,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8129,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8162,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8195,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8228,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8261,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8294,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8327,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8360,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8393,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +8426,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +8459,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +8492,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +8525,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9278,16 +8558,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +8591,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9350,16 +8624,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9386,16 +8657,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9422,16 +8690,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9458,16 +8723,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9494,16 +8756,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9530,16 +8789,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9566,16 +8822,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9602,16 +8855,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9638,16 +8888,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9674,16 +8921,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9710,16 +8954,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9746,16 +8987,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9782,16 +9020,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9818,16 +9053,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9854,16 +9086,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9890,16 +9119,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9926,16 +9152,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9962,16 +9185,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9998,16 +9218,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10034,16 +9251,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10070,16 +9284,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10106,16 +9317,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10142,16 +9350,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10178,16 +9383,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10212,18 +9414,15 @@
         <v>-1266403.114556402</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10250,16 +9449,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10286,16 +9482,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10322,16 +9515,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10358,16 +9548,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10394,16 +9581,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10430,16 +9614,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10466,16 +9647,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10502,16 +9680,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10538,16 +9713,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10574,16 +9746,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10610,16 +9779,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10644,18 +9810,15 @@
         <v>-1308462.482856402</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10682,16 +9845,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10718,16 +9878,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10754,16 +9911,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10790,16 +9944,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10826,16 +9977,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10862,16 +10010,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10898,16 +10043,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10932,18 +10074,15 @@
         <v>-1283422.333956402</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10968,18 +10107,15 @@
         <v>-1277253.714256402</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11004,18 +10140,15 @@
         <v>-1278775.107156402</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11040,18 +10173,15 @@
         <v>-1280144.219756403</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11076,18 +10206,15 @@
         <v>-1280144.219756403</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11112,18 +10239,15 @@
         <v>-1285167.875156403</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11150,16 +10274,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11186,16 +10307,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11220,18 +10338,15 @@
         <v>-1350570.363495401</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11256,18 +10371,15 @@
         <v>-1362543.568496302</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11292,18 +10404,15 @@
         <v>-1362543.568496302</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11328,18 +10437,15 @@
         <v>-1360043.069296302</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11364,18 +10470,15 @@
         <v>-1364532.825396302</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11400,18 +10503,15 @@
         <v>-1361064.537496302</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11438,16 +10538,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11474,16 +10571,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11510,16 +10604,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11544,18 +10635,15 @@
         <v>-1432174.378596302</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11582,16 +10670,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11616,18 +10701,15 @@
         <v>-1519219.935296302</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11652,18 +10734,15 @@
         <v>-1693756.625296302</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11688,18 +10767,15 @@
         <v>-1693656.625296302</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11726,16 +10802,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11762,16 +10835,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11798,16 +10868,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11834,16 +10901,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11870,16 +10934,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11906,16 +10967,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11942,16 +11000,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11978,16 +11033,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12012,22 +11064,15 @@
         <v>-1759773.011796302</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
-      <c r="J323" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="K323" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12052,26 +11097,15 @@
         <v>-1759773.011796302</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
-      <c r="J324" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="K324" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12098,22 +11132,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12140,16 +11165,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12174,22 +11196,15 @@
         <v>-1760425.127696302</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
-      <c r="J327" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="K327" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12214,26 +11229,15 @@
         <v>-1779421.280596302</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
-      <c r="J328" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="K328" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12258,26 +11262,15 @@
         <v>-1784344.052496302</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
-      <c r="J329" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="K329" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12302,26 +11295,15 @@
         <v>-1753600.503396302</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
-      <c r="J330" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="K330" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12346,26 +11328,15 @@
         <v>-1753600.503396302</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
-      <c r="J331" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="K331" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12390,26 +11361,15 @@
         <v>-1753590.503396302</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
-      <c r="J332" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="K332" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12434,26 +11394,15 @@
         <v>-1764699.406696302</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
-      <c r="J333" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="K333" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12478,26 +11427,15 @@
         <v>-1764699.406696302</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
-      <c r="J334" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="K334" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12522,26 +11460,15 @@
         <v>-1769135.578996302</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
-      <c r="J335" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="K335" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12566,26 +11493,15 @@
         <v>-1819247.861696302</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
-      <c r="J336" t="n">
-        <v>65.02</v>
-      </c>
-      <c r="K336" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12610,26 +11526,15 @@
         <v>-1796348.690196302</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
-      <c r="J337" t="n">
-        <v>65</v>
-      </c>
-      <c r="K337" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12654,26 +11559,15 @@
         <v>-1796340.990196302</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
-      <c r="J338" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="K338" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12698,28 +11592,17 @@
         <v>-1797560.499996302</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
-      <c r="J339" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="K339" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest WPX.xlsx
+++ b/BackTest/2020-01-26 BackTest WPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-254652.3456006005</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-258597.6330012011</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-296437.7233012011</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -748,14 +748,10 @@
         <v>-340473.1392012011</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>65</v>
-      </c>
-      <c r="J11" t="n">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -785,19 +781,11 @@
         <v>-327731.9662012011</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>65.01000000000001</v>
-      </c>
-      <c r="J12" t="n">
-        <v>65</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -826,19 +814,11 @@
         <v>-325300.1354012011</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>66.13</v>
-      </c>
-      <c r="J13" t="n">
-        <v>65</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -900,7 +880,7 @@
         <v>-320812.9918012011</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -933,7 +913,7 @@
         <v>-320805.4718012011</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -966,7 +946,7 @@
         <v>-310327.6634012011</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -999,7 +979,7 @@
         <v>-310327.6634012011</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1032,7 +1012,7 @@
         <v>-305327.6634012011</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1230,7 +1210,7 @@
         <v>-313881.7297012011</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1263,7 +1243,7 @@
         <v>-313891.7297012011</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1296,7 +1276,7 @@
         <v>-313891.7297012011</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1428,7 +1408,7 @@
         <v>-314102.2705012011</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2946,7 +2926,7 @@
         <v>-303126.8847012011</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3045,7 +3025,7 @@
         <v>-311789.7184012011</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3111,7 +3091,7 @@
         <v>-321758.4627012011</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3177,7 +3157,7 @@
         <v>-333118.6082012011</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3210,7 +3190,7 @@
         <v>-333118.6082012011</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3243,7 +3223,7 @@
         <v>-338072.423801201</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3276,7 +3256,7 @@
         <v>-339876.4804012011</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3309,7 +3289,7 @@
         <v>-339876.4804012011</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3342,7 +3322,7 @@
         <v>-374503.5812012011</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3474,7 +3454,7 @@
         <v>-423808.4264012011</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3540,7 +3520,7 @@
         <v>-348151.2929012011</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3573,7 +3553,7 @@
         <v>-239366.7028149692</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3606,7 +3586,7 @@
         <v>-246858.7741149692</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3639,7 +3619,7 @@
         <v>-264395.4213149692</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3672,7 +3652,7 @@
         <v>-270837.2385149692</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4002,7 +3982,7 @@
         <v>-287090.0052813409</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4035,7 +4015,7 @@
         <v>-287090.0052813409</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4068,7 +4048,7 @@
         <v>-299081.3373813409</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4101,7 +4081,7 @@
         <v>-302537.6648813409</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4134,7 +4114,7 @@
         <v>-287537.6648813409</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4167,7 +4147,7 @@
         <v>-303844.8696813409</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4200,7 +4180,7 @@
         <v>-303844.8696813409</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4233,7 +4213,7 @@
         <v>-303764.8696813409</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4266,7 +4246,7 @@
         <v>-310559.6265813409</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4299,7 +4279,7 @@
         <v>-356238.8861813408</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4332,7 +4312,7 @@
         <v>-354600.1366813409</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4398,7 +4378,7 @@
         <v>-359154.9686813409</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4431,7 +4411,7 @@
         <v>-359154.9686813409</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -6675,7 +6655,7 @@
         <v>-668212.2836645227</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6708,7 +6688,7 @@
         <v>-671359.2031645227</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6741,7 +6721,7 @@
         <v>-661572.4513645227</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7269,7 +7249,7 @@
         <v>-635093.8834645228</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7401,7 +7381,7 @@
         <v>-635171.9618645228</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7434,7 +7414,7 @@
         <v>-660900.1310645228</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7500,7 +7480,7 @@
         <v>-726181.5532812648</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7896,7 +7876,7 @@
         <v>-1045545.751281265</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7962,7 +7942,7 @@
         <v>-1047346.520381265</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7995,7 +7975,7 @@
         <v>-1047346.520381265</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8028,7 +8008,7 @@
         <v>-1047346.520381265</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9414,7 +9394,7 @@
         <v>-1266403.114556402</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9810,7 +9790,7 @@
         <v>-1308462.482856402</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10074,7 +10054,7 @@
         <v>-1283422.333956402</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10107,7 +10087,7 @@
         <v>-1277253.714256402</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10140,7 +10120,7 @@
         <v>-1278775.107156402</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10173,7 +10153,7 @@
         <v>-1280144.219756403</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10206,7 +10186,7 @@
         <v>-1280144.219756403</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10239,7 +10219,7 @@
         <v>-1285167.875156403</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10340,9 +10320,15 @@
       <c r="H301" t="n">
         <v>1</v>
       </c>
-      <c r="I301" t="inlineStr"/>
+      <c r="I301" t="n">
+        <v>65.8</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10373,9 +10359,15 @@
       <c r="H302" t="n">
         <v>1</v>
       </c>
-      <c r="I302" t="inlineStr"/>
+      <c r="I302" t="n">
+        <v>65.70999999999999</v>
+      </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10404,11 +10396,15 @@
         <v>-1362543.568496302</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10437,11 +10433,15 @@
         <v>-1360043.069296302</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10470,11 +10470,15 @@
         <v>-1364532.825396302</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10503,11 +10507,15 @@
         <v>-1361064.537496302</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10540,7 +10548,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10573,7 +10585,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10606,7 +10622,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10635,11 +10655,15 @@
         <v>-1432174.378596302</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10668,11 +10692,17 @@
         <v>-1524641.420396302</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>65.51000000000001</v>
+      </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10703,9 +10733,15 @@
       <c r="H312" t="n">
         <v>1</v>
       </c>
-      <c r="I312" t="inlineStr"/>
+      <c r="I312" t="n">
+        <v>65.5</v>
+      </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10736,9 +10772,15 @@
       <c r="H313" t="n">
         <v>1</v>
       </c>
-      <c r="I313" t="inlineStr"/>
+      <c r="I313" t="n">
+        <v>65.51000000000001</v>
+      </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10767,11 +10809,15 @@
         <v>-1693656.625296302</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10804,7 +10850,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10837,7 +10887,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10870,7 +10924,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10903,7 +10961,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10932,11 +10994,17 @@
         <v>-1758060.116596302</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>65.78</v>
+      </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10965,11 +11033,17 @@
         <v>-1757244.011796302</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>65.78</v>
+      </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10998,11 +11072,17 @@
         <v>-1757244.011796302</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>65.8</v>
+      </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11031,11 +11111,17 @@
         <v>-1759773.011796302</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>65.8</v>
+      </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11064,11 +11150,17 @@
         <v>-1759773.011796302</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>65.78</v>
+      </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11097,11 +11189,17 @@
         <v>-1759773.011796302</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>65.78</v>
+      </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11130,11 +11228,17 @@
         <v>-1759765.011796302</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>65.78</v>
+      </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11163,11 +11267,17 @@
         <v>-1759765.011796302</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>65.8</v>
+      </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11196,11 +11306,17 @@
         <v>-1760425.127696302</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>65.8</v>
+      </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11229,11 +11345,17 @@
         <v>-1779421.280596302</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>65.78</v>
+      </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11262,11 +11384,17 @@
         <v>-1784344.052496302</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>65.2</v>
+      </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11295,11 +11423,17 @@
         <v>-1753600.503396302</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>65.09999999999999</v>
+      </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11328,11 +11462,17 @@
         <v>-1753600.503396302</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>65.3</v>
+      </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11361,11 +11501,17 @@
         <v>-1753590.503396302</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>65.3</v>
+      </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11394,11 +11540,17 @@
         <v>-1764699.406696302</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>65.8</v>
+      </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11427,11 +11579,17 @@
         <v>-1764699.406696302</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>65.3</v>
+      </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11460,11 +11618,17 @@
         <v>-1769135.578996302</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>65.3</v>
+      </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11493,11 +11657,17 @@
         <v>-1819247.861696302</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>65.02</v>
+      </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11526,11 +11696,17 @@
         <v>-1796348.690196302</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>65</v>
+      </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11559,11 +11735,17 @@
         <v>-1796340.990196302</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>65.09999999999999</v>
+      </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11592,17 +11774,23 @@
         <v>-1797560.499996302</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>65.7</v>
+      </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
       <c r="M339" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest WPX.xlsx
+++ b/BackTest/2020-01-26 BackTest WPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -979,7 +979,7 @@
         <v>-310327.6634012011</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-313881.7297012011</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-313891.7297012011</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-313891.7297012011</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-303126.8847012011</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-311789.7184012011</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-338072.423801201</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-339876.4804012011</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-339876.4804012011</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-374503.5812012011</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-423808.4264012011</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-348151.2929012011</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-239366.7028149692</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-246858.7741149692</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-264395.4213149692</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-270837.2385149692</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-272984.5110149692</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-277931.5086149692</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-277923.8391149692</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-287090.0052813409</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-287090.0052813409</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-299081.3373813409</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-302537.6648813409</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-303844.8696813409</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-303764.8696813409</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-310559.6265813409</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-356238.8861813408</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-354600.1366813409</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-388560.9944813409</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-388550.9944813409</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-406302.1030813408</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-406294.1030813408</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-393917.2252813408</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-403540.3474813408</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -10318,543 +10318,479 @@
         <v>-1350570.363495401</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>65.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C302" t="n">
+        <v>65.52</v>
+      </c>
+      <c r="D302" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E302" t="n">
+        <v>65.52</v>
+      </c>
+      <c r="F302" t="n">
+        <v>11973.2050009009</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-1362543.568496302</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>65.52</v>
+      </c>
+      <c r="C303" t="n">
+        <v>65.52</v>
+      </c>
+      <c r="D303" t="n">
+        <v>65.52</v>
+      </c>
+      <c r="E303" t="n">
+        <v>65.52</v>
+      </c>
+      <c r="F303" t="n">
+        <v>739.7094</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-1362543.568496302</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>66.29000000000001</v>
+      </c>
+      <c r="C304" t="n">
+        <v>66.29000000000001</v>
+      </c>
+      <c r="D304" t="n">
+        <v>66.29000000000001</v>
+      </c>
+      <c r="E304" t="n">
+        <v>66.29000000000001</v>
+      </c>
+      <c r="F304" t="n">
+        <v>2500.4992</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-1360043.069296302</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>66</v>
+      </c>
+      <c r="C305" t="n">
+        <v>65.98999999999999</v>
+      </c>
+      <c r="D305" t="n">
+        <v>66</v>
+      </c>
+      <c r="E305" t="n">
+        <v>65.98999999999999</v>
+      </c>
+      <c r="F305" t="n">
+        <v>4489.7561</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-1364532.825396302</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>65.98999999999999</v>
+      </c>
+      <c r="C306" t="n">
+        <v>66</v>
+      </c>
+      <c r="D306" t="n">
+        <v>66</v>
+      </c>
+      <c r="E306" t="n">
+        <v>65.98999999999999</v>
+      </c>
+      <c r="F306" t="n">
+        <v>3468.2879</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-1361064.537496302</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>66.29000000000001</v>
+      </c>
+      <c r="C307" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D307" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E307" t="n">
+        <v>66.29000000000001</v>
+      </c>
+      <c r="F307" t="n">
+        <v>10988.6505</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-1350075.886996302</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>65.98999999999999</v>
+      </c>
+      <c r="C308" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="D308" t="n">
+        <v>65.98999999999999</v>
+      </c>
+      <c r="E308" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="F308" t="n">
+        <v>2690.8934</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-1352766.780396302</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>65.61</v>
+      </c>
+      <c r="C309" t="n">
+        <v>65.55</v>
+      </c>
+      <c r="D309" t="n">
+        <v>65.61</v>
+      </c>
+      <c r="E309" t="n">
+        <v>65.55</v>
+      </c>
+      <c r="F309" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-1402766.780396302</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>65.55</v>
+      </c>
+      <c r="C310" t="n">
+        <v>65.51000000000001</v>
+      </c>
+      <c r="D310" t="n">
+        <v>65.55</v>
+      </c>
+      <c r="E310" t="n">
+        <v>65.51000000000001</v>
+      </c>
+      <c r="F310" t="n">
+        <v>29407.5982</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-1432174.378596302</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>65.51000000000001</v>
+      </c>
+      <c r="C311" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="D311" t="n">
+        <v>65.51000000000001</v>
+      </c>
+      <c r="E311" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="F311" t="n">
+        <v>92467.04180000001</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-1524641.420396302</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>65.51000000000001</v>
+      </c>
+      <c r="C312" t="n">
+        <v>65.51000000000001</v>
+      </c>
+      <c r="D312" t="n">
+        <v>65.51000000000001</v>
+      </c>
+      <c r="E312" t="n">
+        <v>65.51000000000001</v>
+      </c>
+      <c r="F312" t="n">
+        <v>5421.4851</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-1519219.935296302</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>65.51000000000001</v>
+      </c>
+      <c r="C313" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="D313" t="n">
+        <v>65.51000000000001</v>
+      </c>
+      <c r="E313" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="F313" t="n">
+        <v>174536.69</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-1693756.625296302</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="C314" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="D314" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="E314" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="F314" t="n">
+        <v>100</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-1693656.625296302</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>65.20999999999999</v>
+      </c>
+      <c r="C315" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="D315" t="n">
+        <v>65.20999999999999</v>
+      </c>
+      <c r="E315" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="F315" t="n">
+        <v>21593.4504</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-1693656.625296302</v>
+      </c>
+      <c r="H315" t="n">
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="C302" t="n">
-        <v>65.52</v>
-      </c>
-      <c r="D302" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="E302" t="n">
-        <v>65.52</v>
-      </c>
-      <c r="F302" t="n">
-        <v>11973.2050009009</v>
-      </c>
-      <c r="G302" t="n">
-        <v>-1362543.568496302</v>
-      </c>
-      <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>65.70999999999999</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>65.52</v>
-      </c>
-      <c r="C303" t="n">
-        <v>65.52</v>
-      </c>
-      <c r="D303" t="n">
-        <v>65.52</v>
-      </c>
-      <c r="E303" t="n">
-        <v>65.52</v>
-      </c>
-      <c r="F303" t="n">
-        <v>739.7094</v>
-      </c>
-      <c r="G303" t="n">
-        <v>-1362543.568496302</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>66.29000000000001</v>
-      </c>
-      <c r="C304" t="n">
-        <v>66.29000000000001</v>
-      </c>
-      <c r="D304" t="n">
-        <v>66.29000000000001</v>
-      </c>
-      <c r="E304" t="n">
-        <v>66.29000000000001</v>
-      </c>
-      <c r="F304" t="n">
-        <v>2500.4992</v>
-      </c>
-      <c r="G304" t="n">
-        <v>-1360043.069296302</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>66</v>
-      </c>
-      <c r="C305" t="n">
-        <v>65.98999999999999</v>
-      </c>
-      <c r="D305" t="n">
-        <v>66</v>
-      </c>
-      <c r="E305" t="n">
-        <v>65.98999999999999</v>
-      </c>
-      <c r="F305" t="n">
-        <v>4489.7561</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-1364532.825396302</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>65.98999999999999</v>
-      </c>
-      <c r="C306" t="n">
-        <v>66</v>
-      </c>
-      <c r="D306" t="n">
-        <v>66</v>
-      </c>
-      <c r="E306" t="n">
-        <v>65.98999999999999</v>
-      </c>
-      <c r="F306" t="n">
-        <v>3468.2879</v>
-      </c>
-      <c r="G306" t="n">
-        <v>-1361064.537496302</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>66.29000000000001</v>
-      </c>
-      <c r="C307" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="D307" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="E307" t="n">
-        <v>66.29000000000001</v>
-      </c>
-      <c r="F307" t="n">
-        <v>10988.6505</v>
-      </c>
-      <c r="G307" t="n">
-        <v>-1350075.886996302</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>65.98999999999999</v>
-      </c>
-      <c r="C308" t="n">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="D308" t="n">
-        <v>65.98999999999999</v>
-      </c>
-      <c r="E308" t="n">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="F308" t="n">
-        <v>2690.8934</v>
-      </c>
-      <c r="G308" t="n">
-        <v>-1352766.780396302</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>65.61</v>
-      </c>
-      <c r="C309" t="n">
-        <v>65.55</v>
-      </c>
-      <c r="D309" t="n">
-        <v>65.61</v>
-      </c>
-      <c r="E309" t="n">
-        <v>65.55</v>
-      </c>
-      <c r="F309" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G309" t="n">
-        <v>-1402766.780396302</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>65.55</v>
-      </c>
-      <c r="C310" t="n">
-        <v>65.51000000000001</v>
-      </c>
-      <c r="D310" t="n">
-        <v>65.55</v>
-      </c>
-      <c r="E310" t="n">
-        <v>65.51000000000001</v>
-      </c>
-      <c r="F310" t="n">
-        <v>29407.5982</v>
-      </c>
-      <c r="G310" t="n">
-        <v>-1432174.378596302</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>65.51000000000001</v>
-      </c>
-      <c r="C311" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="D311" t="n">
-        <v>65.51000000000001</v>
-      </c>
-      <c r="E311" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="F311" t="n">
-        <v>92467.04180000001</v>
-      </c>
-      <c r="G311" t="n">
-        <v>-1524641.420396302</v>
-      </c>
-      <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>65.51000000000001</v>
-      </c>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>65.51000000000001</v>
-      </c>
-      <c r="C312" t="n">
-        <v>65.51000000000001</v>
-      </c>
-      <c r="D312" t="n">
-        <v>65.51000000000001</v>
-      </c>
-      <c r="E312" t="n">
-        <v>65.51000000000001</v>
-      </c>
-      <c r="F312" t="n">
-        <v>5421.4851</v>
-      </c>
-      <c r="G312" t="n">
-        <v>-1519219.935296302</v>
-      </c>
-      <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>65.51000000000001</v>
-      </c>
-      <c r="C313" t="n">
-        <v>65.11</v>
-      </c>
-      <c r="D313" t="n">
-        <v>65.51000000000001</v>
-      </c>
-      <c r="E313" t="n">
-        <v>65.11</v>
-      </c>
-      <c r="F313" t="n">
-        <v>174536.69</v>
-      </c>
-      <c r="G313" t="n">
-        <v>-1693756.625296302</v>
-      </c>
-      <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>65.51000000000001</v>
-      </c>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="C314" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="D314" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="E314" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="F314" t="n">
-        <v>100</v>
-      </c>
-      <c r="G314" t="n">
-        <v>-1693656.625296302</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>65.20999999999999</v>
-      </c>
-      <c r="C315" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="D315" t="n">
-        <v>65.20999999999999</v>
-      </c>
-      <c r="E315" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="F315" t="n">
-        <v>21593.4504</v>
-      </c>
-      <c r="G315" t="n">
-        <v>-1693656.625296302</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10883,9 +10819,11 @@
         <v>-1758528.261196302</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>65.2</v>
+      </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -10920,9 +10858,11 @@
         <v>-1758524.116596302</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>65.11</v>
+      </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
@@ -10957,9 +10897,11 @@
         <v>-1758060.116596302</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>65.13</v>
+      </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
@@ -10994,11 +10936,9 @@
         <v>-1758060.116596302</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>65.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
@@ -11033,11 +10973,9 @@
         <v>-1757244.011796302</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>65.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
@@ -11072,11 +11010,9 @@
         <v>-1757244.011796302</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>65.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
@@ -11111,11 +11047,9 @@
         <v>-1759773.011796302</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>65.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
@@ -11150,11 +11084,9 @@
         <v>-1759773.011796302</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>65.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
@@ -11189,11 +11121,9 @@
         <v>-1759773.011796302</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>65.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -11228,11 +11158,9 @@
         <v>-1759765.011796302</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>65.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
@@ -11267,11 +11195,9 @@
         <v>-1759765.011796302</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>65.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -11306,11 +11232,9 @@
         <v>-1760425.127696302</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>65.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -11345,11 +11269,9 @@
         <v>-1779421.280596302</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>65.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
@@ -11384,11 +11306,9 @@
         <v>-1784344.052496302</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>65.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
@@ -11423,11 +11343,9 @@
         <v>-1753600.503396302</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>65.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
@@ -11579,11 +11497,9 @@
         <v>-1764699.406696302</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>65.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
@@ -11791,6 +11707,6 @@
       <c r="M339" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest WPX.xlsx
+++ b/BackTest/2020-01-26 BackTest WPX.xlsx
@@ -3586,7 +3586,7 @@
         <v>-246858.7741149692</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-264395.4213149692</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-272984.5110149692</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-277931.5086149692</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-277923.8391149692</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-388560.9944813409</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-388550.9944813409</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-406302.1030813408</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-406294.1030813408</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-393917.2252813408</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-403540.3474813408</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-635085.3819645228</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-635093.8834645228</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -10780,771 +10780,697 @@
         <v>-1693656.625296302</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
         <v>65.2</v>
       </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
+      <c r="C316" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="D316" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="E316" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="F316" t="n">
+        <v>64871.6359</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-1758528.261196302</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="C317" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="D317" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="E317" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="F317" t="n">
+        <v>4.1446</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-1758524.116596302</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="C318" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="D318" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="E318" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="F318" t="n">
+        <v>464</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-1758060.116596302</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="C319" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="D319" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="E319" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="F319" t="n">
+        <v>2646.579</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-1758060.116596302</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="C320" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="D320" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="E320" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="F320" t="n">
+        <v>816.1048</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-1757244.011796302</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="C321" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="D321" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="E321" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="F321" t="n">
+        <v>844.0365</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-1757244.011796302</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="C322" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="D322" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="E322" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="F322" t="n">
+        <v>2529</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-1759773.011796302</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="C323" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="D323" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="E323" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="F323" t="n">
+        <v>2392.0363</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-1759773.011796302</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="C324" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="D324" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="E324" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="F324" t="n">
+        <v>540.1499</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-1759773.011796302</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="C325" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="D325" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="E325" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="F325" t="n">
+        <v>8</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-1759765.011796302</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="C326" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="D326" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="E326" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="F326" t="n">
+        <v>54.0831</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-1759765.011796302</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="C327" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="D327" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="E327" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="F327" t="n">
+        <v>660.1159</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-1760425.127696302</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="C328" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="D328" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="E328" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="F328" t="n">
+        <v>18996.1529</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-1779421.280596302</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="C329" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="D329" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="E329" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="F329" t="n">
+        <v>4922.7719</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-1784344.052496302</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="C330" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D330" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="E330" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="F330" t="n">
+        <v>30743.5491</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-1753600.503396302</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="C331" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D331" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="E331" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="F331" t="n">
+        <v>370.6207</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-1753600.503396302</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="C332" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="D332" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="E332" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="F332" t="n">
+        <v>10</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-1753590.503396302</v>
+      </c>
+      <c r="H332" t="n">
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="J332" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="C333" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D333" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="E333" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="F333" t="n">
+        <v>11108.9033</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-1764699.406696302</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="C334" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D334" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="E334" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="F334" t="n">
+        <v>702.0003</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-1764699.406696302</v>
+      </c>
+      <c r="H334" t="n">
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="J334" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="C335" t="n">
+        <v>65.02</v>
+      </c>
+      <c r="D335" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="E335" t="n">
+        <v>65.02</v>
+      </c>
+      <c r="F335" t="n">
+        <v>4436.1723</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-1769135.578996302</v>
+      </c>
+      <c r="H335" t="n">
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="J335" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K335" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="C316" t="n">
-        <v>65.11</v>
-      </c>
-      <c r="D316" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="E316" t="n">
-        <v>65.11</v>
-      </c>
-      <c r="F316" t="n">
-        <v>64871.6359</v>
-      </c>
-      <c r="G316" t="n">
-        <v>-1758528.261196302</v>
-      </c>
-      <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>65.11</v>
-      </c>
-      <c r="C317" t="n">
-        <v>65.13</v>
-      </c>
-      <c r="D317" t="n">
-        <v>65.13</v>
-      </c>
-      <c r="E317" t="n">
-        <v>65.11</v>
-      </c>
-      <c r="F317" t="n">
-        <v>4.1446</v>
-      </c>
-      <c r="G317" t="n">
-        <v>-1758524.116596302</v>
-      </c>
-      <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>65.11</v>
-      </c>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="C318" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="D318" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="E318" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="F318" t="n">
-        <v>464</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-1758060.116596302</v>
-      </c>
-      <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>65.13</v>
-      </c>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="C319" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="D319" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="E319" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="F319" t="n">
-        <v>2646.579</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-1758060.116596302</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="C320" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="D320" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="E320" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="F320" t="n">
-        <v>816.1048</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-1757244.011796302</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="C321" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="D321" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="E321" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="F321" t="n">
-        <v>844.0365</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-1757244.011796302</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="C322" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="D322" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="E322" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="F322" t="n">
-        <v>2529</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-1759773.011796302</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="C323" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="D323" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="E323" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="F323" t="n">
-        <v>2392.0363</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-1759773.011796302</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="C324" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="D324" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="E324" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="F324" t="n">
-        <v>540.1499</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-1759773.011796302</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="C325" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="D325" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="E325" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="F325" t="n">
-        <v>8</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-1759765.011796302</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="C326" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="D326" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="E326" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="F326" t="n">
-        <v>54.0831</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-1759765.011796302</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="C327" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="D327" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="E327" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="F327" t="n">
-        <v>660.1159</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-1760425.127696302</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="C328" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="D328" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="E328" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="F328" t="n">
-        <v>18996.1529</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-1779421.280596302</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="C329" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="D329" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="E329" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="F329" t="n">
-        <v>4922.7719</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-1784344.052496302</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="C330" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="D330" t="n">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="E330" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="F330" t="n">
-        <v>30743.5491</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-1753600.503396302</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="C331" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="D331" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="E331" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="F331" t="n">
-        <v>370.6207</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-1753600.503396302</v>
-      </c>
-      <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="C332" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="D332" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="E332" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="F332" t="n">
-        <v>10</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-1753590.503396302</v>
-      </c>
-      <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="C333" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="D333" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="E333" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="F333" t="n">
-        <v>11108.9033</v>
-      </c>
-      <c r="G333" t="n">
-        <v>-1764699.406696302</v>
-      </c>
-      <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="C334" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="D334" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="E334" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="F334" t="n">
-        <v>702.0003</v>
-      </c>
-      <c r="G334" t="n">
-        <v>-1764699.406696302</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="C335" t="n">
-        <v>65.02</v>
-      </c>
-      <c r="D335" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="E335" t="n">
-        <v>65.02</v>
-      </c>
-      <c r="F335" t="n">
-        <v>4436.1723</v>
-      </c>
-      <c r="G335" t="n">
-        <v>-1769135.578996302</v>
-      </c>
-      <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11578,7 +11504,9 @@
       <c r="I336" t="n">
         <v>65.02</v>
       </c>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>65.3</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11617,7 +11545,9 @@
       <c r="I337" t="n">
         <v>65</v>
       </c>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>65.3</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11656,7 +11586,9 @@
       <c r="I338" t="n">
         <v>65.09999999999999</v>
       </c>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>65.3</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11695,7 +11627,9 @@
       <c r="I339" t="n">
         <v>65.7</v>
       </c>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>65.3</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-26 BackTest WPX.xlsx
+++ b/BackTest/2020-01-26 BackTest WPX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M339"/>
+  <dimension ref="A1:L339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>82.7323</v>
       </c>
       <c r="G2" t="n">
-        <v>-254652.3456006005</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>3945.2874006006</v>
       </c>
       <c r="G3" t="n">
-        <v>-258597.6330012011</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>37840.0903</v>
       </c>
       <c r="G4" t="n">
-        <v>-296437.7233012011</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>40117.0475</v>
       </c>
       <c r="G5" t="n">
-        <v>-336554.7708012011</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>340.6023</v>
       </c>
       <c r="G6" t="n">
-        <v>-336214.1685012011</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>5175.7582</v>
       </c>
       <c r="G7" t="n">
-        <v>-341389.9267012011</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>3886.4848</v>
       </c>
       <c r="G8" t="n">
-        <v>-341389.9267012011</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1591.9235</v>
       </c>
       <c r="G9" t="n">
-        <v>-341389.9267012011</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>5083.2125</v>
       </c>
       <c r="G10" t="n">
-        <v>-346473.1392012011</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>6000</v>
       </c>
       <c r="G11" t="n">
-        <v>-340473.1392012011</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,19 @@
         <v>12741.173</v>
       </c>
       <c r="G12" t="n">
-        <v>-327731.9662012011</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>65.01000000000001</v>
+      </c>
+      <c r="I12" t="n">
+        <v>65.01000000000001</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +777,23 @@
         <v>2431.8308</v>
       </c>
       <c r="G13" t="n">
-        <v>-325300.1354012011</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>66.13</v>
+      </c>
+      <c r="I13" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +815,21 @@
         <v>4494.8436</v>
       </c>
       <c r="G14" t="n">
-        <v>-320805.2918012011</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +851,15 @@
         <v>7.7</v>
       </c>
       <c r="G15" t="n">
-        <v>-320812.9918012011</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +881,15 @@
         <v>7.52</v>
       </c>
       <c r="G16" t="n">
-        <v>-320805.4718012011</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +911,15 @@
         <v>10477.8084</v>
       </c>
       <c r="G17" t="n">
-        <v>-310327.6634012011</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +941,15 @@
         <v>300</v>
       </c>
       <c r="G18" t="n">
-        <v>-310327.6634012011</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +971,15 @@
         <v>5000</v>
       </c>
       <c r="G19" t="n">
-        <v>-305327.6634012011</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1001,15 @@
         <v>1218</v>
       </c>
       <c r="G20" t="n">
-        <v>-305327.6634012011</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1031,15 @@
         <v>8645.4854</v>
       </c>
       <c r="G21" t="n">
-        <v>-313973.1488012011</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1061,15 @@
         <v>2827.4833</v>
       </c>
       <c r="G22" t="n">
-        <v>-313973.1488012011</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1091,15 @@
         <v>7.7</v>
       </c>
       <c r="G23" t="n">
-        <v>-313980.8488012011</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1121,15 @@
         <v>109.1191</v>
       </c>
       <c r="G24" t="n">
-        <v>-313871.7297012011</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1151,15 @@
         <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>-313881.7297012011</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1181,15 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>-313891.7297012011</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1211,15 @@
         <v>9247.767400000001</v>
       </c>
       <c r="G27" t="n">
-        <v>-313891.7297012011</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1241,15 @@
         <v>103.9405</v>
       </c>
       <c r="G28" t="n">
-        <v>-313787.7892012011</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1271,15 @@
         <v>67.66</v>
       </c>
       <c r="G29" t="n">
-        <v>-313720.1292012011</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1301,15 @@
         <v>374.4413</v>
       </c>
       <c r="G30" t="n">
-        <v>-314094.5705012011</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1331,15 @@
         <v>7.7</v>
       </c>
       <c r="G31" t="n">
-        <v>-314102.2705012011</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1361,15 @@
         <v>80.0517</v>
       </c>
       <c r="G32" t="n">
-        <v>-314022.2188012011</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1391,15 @@
         <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>-314122.2188012011</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1421,15 @@
         <v>9149.671700000001</v>
       </c>
       <c r="G34" t="n">
-        <v>-323271.8905012011</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1451,15 @@
         <v>36512.7289</v>
       </c>
       <c r="G35" t="n">
-        <v>-323271.8905012011</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1481,15 @@
         <v>76.2071</v>
       </c>
       <c r="G36" t="n">
-        <v>-323195.6834012011</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1511,15 @@
         <v>7688.3337</v>
       </c>
       <c r="G37" t="n">
-        <v>-330884.0171012011</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1541,15 @@
         <v>72.7123</v>
       </c>
       <c r="G38" t="n">
-        <v>-330811.3048012011</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1571,15 @@
         <v>2827.4833</v>
       </c>
       <c r="G39" t="n">
-        <v>-333638.7881012011</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1601,15 @@
         <v>6351.8373</v>
       </c>
       <c r="G40" t="n">
-        <v>-327286.9508012011</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1631,15 @@
         <v>50000</v>
       </c>
       <c r="G41" t="n">
-        <v>-377286.9508012011</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1661,15 @@
         <v>69.1266</v>
       </c>
       <c r="G42" t="n">
-        <v>-377217.8242012011</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1691,15 @@
         <v>71.3292</v>
       </c>
       <c r="G43" t="n">
-        <v>-377289.1534012011</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1721,15 @@
         <v>3887.4812</v>
       </c>
       <c r="G44" t="n">
-        <v>-381176.634601201</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1751,15 @@
         <v>2449.6367</v>
       </c>
       <c r="G45" t="n">
-        <v>-383626.271301201</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1781,15 @@
         <v>13960.5491</v>
       </c>
       <c r="G46" t="n">
-        <v>-397586.820401201</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1811,15 @@
         <v>60</v>
       </c>
       <c r="G47" t="n">
-        <v>-397586.820401201</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1841,15 @@
         <v>118.4063</v>
       </c>
       <c r="G48" t="n">
-        <v>-397468.4141012011</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1871,15 @@
         <v>2000</v>
       </c>
       <c r="G49" t="n">
-        <v>-399468.4141012011</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1901,15 @@
         <v>22456.8639</v>
       </c>
       <c r="G50" t="n">
-        <v>-421925.278001201</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1931,15 @@
         <v>7423</v>
       </c>
       <c r="G51" t="n">
-        <v>-429348.278001201</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1961,15 @@
         <v>3171.3624</v>
       </c>
       <c r="G52" t="n">
-        <v>-426176.9156012011</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1991,15 @@
         <v>15997.9624</v>
       </c>
       <c r="G53" t="n">
-        <v>-426176.9156012011</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2021,15 @@
         <v>5550.0728</v>
       </c>
       <c r="G54" t="n">
-        <v>-420626.842801201</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2051,15 @@
         <v>2872.45</v>
       </c>
       <c r="G55" t="n">
-        <v>-423499.2928012011</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2081,15 @@
         <v>2620.3186</v>
       </c>
       <c r="G56" t="n">
-        <v>-420878.9742012011</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2111,15 @@
         <v>4335.0683</v>
       </c>
       <c r="G57" t="n">
-        <v>-425214.042501201</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2141,15 @@
         <v>10000.9069</v>
       </c>
       <c r="G58" t="n">
-        <v>-425214.042501201</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2171,15 @@
         <v>2620.3186</v>
       </c>
       <c r="G59" t="n">
-        <v>-425214.042501201</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2201,15 @@
         <v>219.3265</v>
       </c>
       <c r="G60" t="n">
-        <v>-424994.716001201</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2231,15 @@
         <v>501.6438</v>
       </c>
       <c r="G61" t="n">
-        <v>-425496.359801201</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2261,15 @@
         <v>6103.2504</v>
       </c>
       <c r="G62" t="n">
-        <v>-419393.109401201</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2291,15 @@
         <v>370.0899</v>
       </c>
       <c r="G63" t="n">
-        <v>-419393.109401201</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2321,15 @@
         <v>170.7284</v>
       </c>
       <c r="G64" t="n">
-        <v>-419393.109401201</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2351,15 @@
         <v>4913.0805</v>
       </c>
       <c r="G65" t="n">
-        <v>-419393.109401201</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2381,15 @@
         <v>30684.9538</v>
       </c>
       <c r="G66" t="n">
-        <v>-388708.155601201</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2411,15 @@
         <v>178481.5342</v>
       </c>
       <c r="G67" t="n">
-        <v>-210226.621401201</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2441,15 @@
         <v>77180.4316</v>
       </c>
       <c r="G68" t="n">
-        <v>-287407.053001201</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2471,15 @@
         <v>30396.4668</v>
       </c>
       <c r="G69" t="n">
-        <v>-257010.586201201</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2501,15 @@
         <v>32359.4635</v>
       </c>
       <c r="G70" t="n">
-        <v>-289370.049701201</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2531,15 @@
         <v>27836.8694</v>
       </c>
       <c r="G71" t="n">
-        <v>-289370.049701201</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2561,15 @@
         <v>3989.7655</v>
       </c>
       <c r="G72" t="n">
-        <v>-289370.049701201</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2591,15 @@
         <v>2761.794325942029</v>
       </c>
       <c r="G73" t="n">
-        <v>-289370.049701201</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2621,15 @@
         <v>13756.835</v>
       </c>
       <c r="G74" t="n">
-        <v>-303126.8847012011</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2651,15 @@
         <v>16568.4896</v>
       </c>
       <c r="G75" t="n">
-        <v>-303126.8847012011</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2681,15 @@
         <v>826.4332000000001</v>
       </c>
       <c r="G76" t="n">
-        <v>-303126.8847012011</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2711,15 @@
         <v>2443.6113</v>
       </c>
       <c r="G77" t="n">
-        <v>-303126.8847012011</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2741,15 @@
         <v>8662.833699999999</v>
       </c>
       <c r="G78" t="n">
-        <v>-311789.7184012011</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2771,15 @@
         <v>7.4284</v>
       </c>
       <c r="G79" t="n">
-        <v>-311789.7184012011</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2801,15 @@
         <v>1070.9069</v>
       </c>
       <c r="G80" t="n">
-        <v>-311789.7184012011</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2831,15 @@
         <v>9968.7443</v>
       </c>
       <c r="G81" t="n">
-        <v>-321758.4627012011</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2861,15 @@
         <v>6140.1698</v>
       </c>
       <c r="G82" t="n">
-        <v>-321758.4627012011</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2891,15 @@
         <v>11360.1455</v>
       </c>
       <c r="G83" t="n">
-        <v>-333118.6082012011</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2921,15 @@
         <v>5833.6344</v>
       </c>
       <c r="G84" t="n">
-        <v>-333118.6082012011</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2951,15 @@
         <v>80.9312</v>
       </c>
       <c r="G85" t="n">
-        <v>-333118.6082012011</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2981,15 @@
         <v>4953.8156</v>
       </c>
       <c r="G86" t="n">
-        <v>-338072.423801201</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3011,15 @@
         <v>1804.0566</v>
       </c>
       <c r="G87" t="n">
-        <v>-339876.4804012011</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3041,15 @@
         <v>1388.3406</v>
       </c>
       <c r="G88" t="n">
-        <v>-339876.4804012011</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3071,15 @@
         <v>34627.1008</v>
       </c>
       <c r="G89" t="n">
-        <v>-374503.5812012011</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3101,15 @@
         <v>2786.1236</v>
       </c>
       <c r="G90" t="n">
-        <v>-371717.4576012011</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3131,15 @@
         <v>11272.691</v>
       </c>
       <c r="G91" t="n">
-        <v>-382990.1486012011</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3161,15 @@
         <v>66.0808</v>
       </c>
       <c r="G92" t="n">
-        <v>-382924.0678012011</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3191,15 @@
         <v>40884.3586</v>
       </c>
       <c r="G93" t="n">
-        <v>-423808.4264012011</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3221,15 @@
         <v>967.0719</v>
       </c>
       <c r="G94" t="n">
-        <v>-422841.3545012011</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3251,15 @@
         <v>74690.0616</v>
       </c>
       <c r="G95" t="n">
-        <v>-348151.2929012011</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3281,15 @@
         <v>108784.5900862319</v>
       </c>
       <c r="G96" t="n">
-        <v>-239366.7028149692</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3311,15 @@
         <v>7492.0713</v>
       </c>
       <c r="G97" t="n">
-        <v>-246858.7741149692</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3341,15 @@
         <v>17536.6472</v>
       </c>
       <c r="G98" t="n">
-        <v>-264395.4213149692</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3371,15 @@
         <v>6441.8172</v>
       </c>
       <c r="G99" t="n">
-        <v>-270837.2385149692</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3401,15 @@
         <v>2147.2725</v>
       </c>
       <c r="G100" t="n">
-        <v>-272984.5110149692</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3431,15 @@
         <v>4946.9976</v>
       </c>
       <c r="G101" t="n">
-        <v>-277931.5086149692</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3461,15 @@
         <v>7.6695</v>
       </c>
       <c r="G102" t="n">
-        <v>-277923.8391149692</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3491,15 @@
         <v>7000</v>
       </c>
       <c r="G103" t="n">
-        <v>-284923.8391149692</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3521,15 @@
         <v>3080.6986</v>
       </c>
       <c r="G104" t="n">
-        <v>-281843.1405149692</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3551,15 @@
         <v>4456.327433628318</v>
       </c>
       <c r="G105" t="n">
-        <v>-277386.8130813409</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3581,15 @@
         <v>6849.4732</v>
       </c>
       <c r="G106" t="n">
-        <v>-270537.3398813409</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3611,15 @@
         <v>108.6453</v>
       </c>
       <c r="G107" t="n">
-        <v>-270428.6945813409</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3641,15 @@
         <v>17296.589</v>
       </c>
       <c r="G108" t="n">
-        <v>-287725.2835813409</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3671,15 @@
         <v>635.2782999999999</v>
       </c>
       <c r="G109" t="n">
-        <v>-287090.0052813409</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3701,15 @@
         <v>3066.5672</v>
       </c>
       <c r="G110" t="n">
-        <v>-287090.0052813409</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3731,15 @@
         <v>11991.3321</v>
       </c>
       <c r="G111" t="n">
-        <v>-299081.3373813409</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3761,15 @@
         <v>3456.3275</v>
       </c>
       <c r="G112" t="n">
-        <v>-302537.6648813409</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3791,15 @@
         <v>15000</v>
       </c>
       <c r="G113" t="n">
-        <v>-287537.6648813409</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3821,15 @@
         <v>16307.2048</v>
       </c>
       <c r="G114" t="n">
-        <v>-303844.8696813409</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3851,15 @@
         <v>10000</v>
       </c>
       <c r="G115" t="n">
-        <v>-303844.8696813409</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3881,15 @@
         <v>80</v>
       </c>
       <c r="G116" t="n">
-        <v>-303764.8696813409</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3911,15 @@
         <v>6794.7569</v>
       </c>
       <c r="G117" t="n">
-        <v>-310559.6265813409</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3941,15 @@
         <v>45679.2596</v>
       </c>
       <c r="G118" t="n">
-        <v>-356238.8861813408</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3971,15 @@
         <v>1638.7495</v>
       </c>
       <c r="G119" t="n">
-        <v>-354600.1366813409</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4001,15 @@
         <v>3116.1168</v>
       </c>
       <c r="G120" t="n">
-        <v>-357716.2534813409</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4031,15 @@
         <v>1438.7152</v>
       </c>
       <c r="G121" t="n">
-        <v>-359154.9686813409</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4061,15 @@
         <v>14930.9618</v>
       </c>
       <c r="G122" t="n">
-        <v>-359154.9686813409</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4091,15 @@
         <v>20000</v>
       </c>
       <c r="G123" t="n">
-        <v>-379154.9686813409</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4121,15 @@
         <v>1163.6632</v>
       </c>
       <c r="G124" t="n">
-        <v>-377991.3054813409</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4151,15 @@
         <v>15.6238</v>
       </c>
       <c r="G125" t="n">
-        <v>-377975.6816813409</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4181,15 @@
         <v>9786.627699999999</v>
       </c>
       <c r="G126" t="n">
-        <v>-377975.6816813409</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4211,15 @@
         <v>29.244</v>
       </c>
       <c r="G127" t="n">
-        <v>-378004.9256813409</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4241,15 @@
         <v>1446.1352</v>
       </c>
       <c r="G128" t="n">
-        <v>-379451.0608813409</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4271,15 @@
         <v>1374.837</v>
       </c>
       <c r="G129" t="n">
-        <v>-379451.0608813409</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4301,15 @@
         <v>9109.9336</v>
       </c>
       <c r="G130" t="n">
-        <v>-388560.9944813409</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4331,15 @@
         <v>10</v>
       </c>
       <c r="G131" t="n">
-        <v>-388550.9944813409</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4361,15 @@
         <v>17751.1086</v>
       </c>
       <c r="G132" t="n">
-        <v>-406302.1030813408</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4391,15 @@
         <v>8</v>
       </c>
       <c r="G133" t="n">
-        <v>-406294.1030813408</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4421,15 @@
         <v>16</v>
       </c>
       <c r="G134" t="n">
-        <v>-406294.1030813408</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4451,15 @@
         <v>8</v>
       </c>
       <c r="G135" t="n">
-        <v>-406294.1030813408</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4481,15 @@
         <v>17759.1086</v>
       </c>
       <c r="G136" t="n">
-        <v>-406294.1030813408</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4511,15 @@
         <v>8</v>
       </c>
       <c r="G137" t="n">
-        <v>-406294.1030813408</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4541,15 @@
         <v>24</v>
       </c>
       <c r="G138" t="n">
-        <v>-406294.1030813408</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4571,15 @@
         <v>24</v>
       </c>
       <c r="G139" t="n">
-        <v>-406294.1030813408</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4601,15 @@
         <v>200</v>
       </c>
       <c r="G140" t="n">
-        <v>-406294.1030813408</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4631,15 @@
         <v>12376.8778</v>
       </c>
       <c r="G141" t="n">
-        <v>-393917.2252813408</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4661,15 @@
         <v>9623.1222</v>
       </c>
       <c r="G142" t="n">
-        <v>-403540.3474813408</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4691,15 @@
         <v>8</v>
       </c>
       <c r="G143" t="n">
-        <v>-403532.3474813408</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4721,15 @@
         <v>12418.8829</v>
       </c>
       <c r="G144" t="n">
-        <v>-415951.2303813408</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4751,15 @@
         <v>8</v>
       </c>
       <c r="G145" t="n">
-        <v>-415943.2303813408</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4781,15 @@
         <v>9604.627399999999</v>
       </c>
       <c r="G146" t="n">
-        <v>-425547.8577813408</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4811,15 @@
         <v>14736.795</v>
       </c>
       <c r="G147" t="n">
-        <v>-440284.6527813408</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4841,15 @@
         <v>58.7868</v>
       </c>
       <c r="G148" t="n">
-        <v>-440225.8659813408</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4871,15 @@
         <v>4340.002981070204</v>
       </c>
       <c r="G149" t="n">
-        <v>-440225.8659813408</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4901,15 @@
         <v>10</v>
       </c>
       <c r="G150" t="n">
-        <v>-440235.8659813408</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4931,15 @@
         <v>197.1637557844454</v>
       </c>
       <c r="G151" t="n">
-        <v>-440235.8659813408</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4961,15 @@
         <v>41776.8409</v>
       </c>
       <c r="G152" t="n">
-        <v>-482012.7068813408</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4991,15 @@
         <v>45350</v>
       </c>
       <c r="G153" t="n">
-        <v>-527362.7068813408</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5021,15 @@
         <v>2849.1716</v>
       </c>
       <c r="G154" t="n">
-        <v>-527362.7068813408</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5051,15 @@
         <v>197.5728</v>
       </c>
       <c r="G155" t="n">
-        <v>-527165.1340813409</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5081,15 @@
         <v>50404.2052</v>
       </c>
       <c r="G156" t="n">
-        <v>-527165.1340813409</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5111,15 @@
         <v>11886.5186</v>
       </c>
       <c r="G157" t="n">
-        <v>-539051.6526813408</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5141,15 @@
         <v>8</v>
       </c>
       <c r="G158" t="n">
-        <v>-539043.6526813408</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5171,15 @@
         <v>3500</v>
       </c>
       <c r="G159" t="n">
-        <v>-542543.6526813408</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5201,15 @@
         <v>10</v>
       </c>
       <c r="G160" t="n">
-        <v>-542533.6526813408</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5231,15 @@
         <v>12093.6525</v>
       </c>
       <c r="G161" t="n">
-        <v>-530440.0001813408</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5261,15 @@
         <v>15299.5708</v>
       </c>
       <c r="G162" t="n">
-        <v>-515140.4293813409</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5291,15 @@
         <v>6524.3078</v>
       </c>
       <c r="G163" t="n">
-        <v>-508616.1215813408</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5321,15 @@
         <v>5475.6931</v>
       </c>
       <c r="G164" t="n">
-        <v>-514091.8146813408</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5351,15 @@
         <v>6499.6713</v>
       </c>
       <c r="G165" t="n">
-        <v>-520591.4859813408</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5381,15 @@
         <v>41038.4997</v>
       </c>
       <c r="G166" t="n">
-        <v>-561629.9856813408</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5411,15 @@
         <v>14193.8041</v>
       </c>
       <c r="G167" t="n">
-        <v>-561629.9856813408</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5441,15 @@
         <v>29993.4604</v>
       </c>
       <c r="G168" t="n">
-        <v>-591623.4460813408</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5471,15 @@
         <v>4616.6013</v>
       </c>
       <c r="G169" t="n">
-        <v>-591623.4460813408</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5501,15 @@
         <v>3282.1016</v>
       </c>
       <c r="G170" t="n">
-        <v>-594905.5476813408</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5531,15 @@
         <v>1878.4159</v>
       </c>
       <c r="G171" t="n">
-        <v>-596783.9635813409</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5561,15 @@
         <v>24343.6379</v>
       </c>
       <c r="G172" t="n">
-        <v>-621127.6014813408</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5591,15 @@
         <v>21404.7697</v>
       </c>
       <c r="G173" t="n">
-        <v>-642532.3711813408</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5621,15 @@
         <v>11422.2176</v>
       </c>
       <c r="G174" t="n">
-        <v>-631110.1535813408</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5651,15 @@
         <v>47444.1201</v>
       </c>
       <c r="G175" t="n">
-        <v>-678554.2736813407</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5681,15 @@
         <v>814.6976</v>
       </c>
       <c r="G176" t="n">
-        <v>-677739.5760813408</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5711,15 @@
         <v>45.07671681811411</v>
       </c>
       <c r="G177" t="n">
-        <v>-677694.4993645226</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5741,15 @@
         <v>200</v>
       </c>
       <c r="G178" t="n">
-        <v>-677494.4993645226</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5771,15 @@
         <v>1371.955</v>
       </c>
       <c r="G179" t="n">
-        <v>-678866.4543645226</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5801,15 @@
         <v>4156.4881</v>
       </c>
       <c r="G180" t="n">
-        <v>-674709.9662645226</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5831,15 @@
         <v>800.1879</v>
       </c>
       <c r="G181" t="n">
-        <v>-675510.1541645227</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5861,15 @@
         <v>8</v>
       </c>
       <c r="G182" t="n">
-        <v>-675502.1541645227</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5891,15 @@
         <v>4813.361</v>
       </c>
       <c r="G183" t="n">
-        <v>-675502.1541645227</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5921,15 @@
         <v>3607.7796</v>
       </c>
       <c r="G184" t="n">
-        <v>-675502.1541645227</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5951,15 @@
         <v>6059.5213</v>
       </c>
       <c r="G185" t="n">
-        <v>-681561.6754645227</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5981,15 @@
         <v>1371.955</v>
       </c>
       <c r="G186" t="n">
-        <v>-682933.6304645226</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6011,15 @@
         <v>4803.3302</v>
       </c>
       <c r="G187" t="n">
-        <v>-687736.9606645226</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6041,15 @@
         <v>23718.3812</v>
       </c>
       <c r="G188" t="n">
-        <v>-664018.5794645227</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6071,15 @@
         <v>4193.7042</v>
       </c>
       <c r="G189" t="n">
-        <v>-668212.2836645227</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6101,15 @@
         <v>24579.0407</v>
       </c>
       <c r="G190" t="n">
-        <v>-668212.2836645227</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6131,15 @@
         <v>3146.9195</v>
       </c>
       <c r="G191" t="n">
-        <v>-671359.2031645227</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6161,15 @@
         <v>9786.7518</v>
       </c>
       <c r="G192" t="n">
-        <v>-661572.4513645227</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6191,15 @@
         <v>6360.1815</v>
       </c>
       <c r="G193" t="n">
-        <v>-661572.4513645227</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6221,15 @@
         <v>23519.6084</v>
       </c>
       <c r="G194" t="n">
-        <v>-661572.4513645227</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6251,15 @@
         <v>3000</v>
       </c>
       <c r="G195" t="n">
-        <v>-664572.4513645227</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6281,15 @@
         <v>10710</v>
       </c>
       <c r="G196" t="n">
-        <v>-653862.4513645227</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6311,15 @@
         <v>5882.4344</v>
       </c>
       <c r="G197" t="n">
-        <v>-659744.8857645227</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6341,15 @@
         <v>10018.408</v>
       </c>
       <c r="G198" t="n">
-        <v>-669763.2937645228</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6371,15 @@
         <v>22525.4984</v>
       </c>
       <c r="G199" t="n">
-        <v>-647237.7953645227</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6401,15 @@
         <v>131035.2018</v>
       </c>
       <c r="G200" t="n">
-        <v>-647237.7953645227</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6431,15 @@
         <v>8</v>
       </c>
       <c r="G201" t="n">
-        <v>-647229.7953645227</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6461,15 @@
         <v>8</v>
       </c>
       <c r="G202" t="n">
-        <v>-647221.7953645227</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6491,15 @@
         <v>1448.4712</v>
       </c>
       <c r="G203" t="n">
-        <v>-647221.7953645227</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6521,15 @@
         <v>26453.0412</v>
       </c>
       <c r="G204" t="n">
-        <v>-647221.7953645227</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6551,15 @@
         <v>12500</v>
       </c>
       <c r="G205" t="n">
-        <v>-634721.7953645227</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6581,15 @@
         <v>363.5866</v>
       </c>
       <c r="G206" t="n">
-        <v>-635085.3819645228</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6611,15 @@
         <v>4666.4494</v>
       </c>
       <c r="G207" t="n">
-        <v>-635085.3819645228</v>
-      </c>
-      <c r="H207" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6641,15 @@
         <v>8.5015</v>
       </c>
       <c r="G208" t="n">
-        <v>-635093.8834645228</v>
-      </c>
-      <c r="H208" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6671,15 @@
         <v>39.3143</v>
       </c>
       <c r="G209" t="n">
-        <v>-635054.5691645228</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6701,15 @@
         <v>10</v>
       </c>
       <c r="G210" t="n">
-        <v>-635044.5691645228</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6731,15 @@
         <v>180</v>
       </c>
       <c r="G211" t="n">
-        <v>-635224.5691645228</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6761,15 @@
         <v>52.6073</v>
       </c>
       <c r="G212" t="n">
-        <v>-635171.9618645228</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6791,15 @@
         <v>25728.1692</v>
       </c>
       <c r="G213" t="n">
-        <v>-660900.1310645228</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6821,15 @@
         <v>283.1622</v>
       </c>
       <c r="G214" t="n">
-        <v>-660900.1310645228</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6851,15 @@
         <v>65281.42221674208</v>
       </c>
       <c r="G215" t="n">
-        <v>-726181.5532812648</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6881,15 @@
         <v>77271.5295</v>
       </c>
       <c r="G216" t="n">
-        <v>-803453.0827812648</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6911,15 @@
         <v>51.8627</v>
       </c>
       <c r="G217" t="n">
-        <v>-803401.2200812647</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6941,15 @@
         <v>274443.8129</v>
       </c>
       <c r="G218" t="n">
-        <v>-1077845.032981265</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6971,15 @@
         <v>8</v>
       </c>
       <c r="G219" t="n">
-        <v>-1077845.032981265</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7001,15 @@
         <v>15065</v>
       </c>
       <c r="G220" t="n">
-        <v>-1062780.032981265</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7031,15 @@
         <v>207.6656626506024</v>
       </c>
       <c r="G221" t="n">
-        <v>-1062572.367318614</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7061,15 @@
         <v>19936.4204373494</v>
       </c>
       <c r="G222" t="n">
-        <v>-1042635.946881265</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7091,15 @@
         <v>1714.5599</v>
       </c>
       <c r="G223" t="n">
-        <v>-1040921.386981265</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7121,15 @@
         <v>72432.848</v>
       </c>
       <c r="G224" t="n">
-        <v>-1040921.386981265</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7151,15 @@
         <v>3292.9177</v>
       </c>
       <c r="G225" t="n">
-        <v>-1037628.469281265</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7181,15 @@
         <v>3213.916</v>
       </c>
       <c r="G226" t="n">
-        <v>-1037628.469281265</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7211,15 @@
         <v>7917.282</v>
       </c>
       <c r="G227" t="n">
-        <v>-1045545.751281265</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7241,15 @@
         <v>200</v>
       </c>
       <c r="G228" t="n">
-        <v>-1045345.751281265</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7271,15 @@
         <v>2000.7691</v>
       </c>
       <c r="G229" t="n">
-        <v>-1047346.520381265</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7301,15 @@
         <v>913.0569</v>
       </c>
       <c r="G230" t="n">
-        <v>-1047346.520381265</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7331,15 @@
         <v>480.4057</v>
       </c>
       <c r="G231" t="n">
-        <v>-1047346.520381265</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7361,15 @@
         <v>3351.8487</v>
       </c>
       <c r="G232" t="n">
-        <v>-1047346.520381265</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7391,15 @@
         <v>14631.0583</v>
       </c>
       <c r="G233" t="n">
-        <v>-1061977.578681265</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7421,15 @@
         <v>11516.8051</v>
       </c>
       <c r="G234" t="n">
-        <v>-1061977.578681265</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7451,15 @@
         <v>18453.5485</v>
       </c>
       <c r="G235" t="n">
-        <v>-1080431.127181265</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7481,15 @@
         <v>45.0767</v>
       </c>
       <c r="G236" t="n">
-        <v>-1080386.050481265</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7511,15 @@
         <v>16630.5434</v>
       </c>
       <c r="G237" t="n">
-        <v>-1097016.593881265</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7541,15 @@
         <v>151.7922</v>
       </c>
       <c r="G238" t="n">
-        <v>-1097016.593881265</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7571,15 @@
         <v>35047.0399</v>
       </c>
       <c r="G239" t="n">
-        <v>-1132063.633781265</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7601,15 @@
         <v>8617.2389</v>
       </c>
       <c r="G240" t="n">
-        <v>-1123446.394881265</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7631,15 @@
         <v>1169.5129</v>
       </c>
       <c r="G241" t="n">
-        <v>-1123446.394881265</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7661,15 @@
         <v>186.9898</v>
       </c>
       <c r="G242" t="n">
-        <v>-1123259.405081265</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7691,15 @@
         <v>29357.416</v>
       </c>
       <c r="G243" t="n">
-        <v>-1123259.405081265</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7721,15 @@
         <v>9036.5954</v>
       </c>
       <c r="G244" t="n">
-        <v>-1123259.405081265</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7751,15 @@
         <v>4222.3692</v>
       </c>
       <c r="G245" t="n">
-        <v>-1119037.035881265</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7781,15 @@
         <v>2611.5971</v>
       </c>
       <c r="G246" t="n">
-        <v>-1116425.438781265</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7811,15 @@
         <v>5219.905</v>
       </c>
       <c r="G247" t="n">
-        <v>-1121645.343781265</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7841,15 @@
         <v>24409.8088</v>
       </c>
       <c r="G248" t="n">
-        <v>-1146055.152581265</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7871,15 @@
         <v>30347.8922</v>
       </c>
       <c r="G249" t="n">
-        <v>-1146055.152581265</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7901,15 @@
         <v>1488.2474</v>
       </c>
       <c r="G250" t="n">
-        <v>-1147543.399981265</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7931,15 @@
         <v>30</v>
       </c>
       <c r="G251" t="n">
-        <v>-1147543.399981265</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7961,15 @@
         <v>4115.9414</v>
       </c>
       <c r="G252" t="n">
-        <v>-1147543.399981265</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +7991,15 @@
         <v>6652.2938</v>
       </c>
       <c r="G253" t="n">
-        <v>-1140891.106181265</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8021,15 @@
         <v>13061.5519</v>
       </c>
       <c r="G254" t="n">
-        <v>-1127829.554281265</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8051,15 @@
         <v>16368.9422</v>
       </c>
       <c r="G255" t="n">
-        <v>-1111460.612081265</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8081,15 @@
         <v>1320.6438</v>
       </c>
       <c r="G256" t="n">
-        <v>-1111460.612081265</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8111,15 @@
         <v>58514.2855</v>
       </c>
       <c r="G257" t="n">
-        <v>-1169974.897581265</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8141,15 @@
         <v>5527.3807</v>
       </c>
       <c r="G258" t="n">
-        <v>-1175502.278281265</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8171,15 @@
         <v>19236.8573</v>
       </c>
       <c r="G259" t="n">
-        <v>-1194739.135581265</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8201,15 @@
         <v>219.4657</v>
       </c>
       <c r="G260" t="n">
-        <v>-1194519.669881265</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8231,15 @@
         <v>538.1514</v>
       </c>
       <c r="G261" t="n">
-        <v>-1194519.669881265</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8261,15 @@
         <v>1493.6002</v>
       </c>
       <c r="G262" t="n">
-        <v>-1194519.669881265</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8291,15 @@
         <v>11491.93842486245</v>
       </c>
       <c r="G263" t="n">
-        <v>-1183027.731456402</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8321,15 @@
         <v>10</v>
       </c>
       <c r="G264" t="n">
-        <v>-1183037.731456402</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8351,15 @@
         <v>44856.4592</v>
       </c>
       <c r="G265" t="n">
-        <v>-1227894.190656402</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8381,15 @@
         <v>5233.348</v>
       </c>
       <c r="G266" t="n">
-        <v>-1233127.538656402</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +8411,15 @@
         <v>5210.042</v>
       </c>
       <c r="G267" t="n">
-        <v>-1233127.538656402</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +8441,15 @@
         <v>20000</v>
       </c>
       <c r="G268" t="n">
-        <v>-1233127.538656402</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +8471,15 @@
         <v>4666.4494</v>
       </c>
       <c r="G269" t="n">
-        <v>-1237793.988056402</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +8501,15 @@
         <v>2437.7202</v>
       </c>
       <c r="G270" t="n">
-        <v>-1240231.708256402</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +8531,15 @@
         <v>26219.3397</v>
       </c>
       <c r="G271" t="n">
-        <v>-1266451.047956402</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +8561,15 @@
         <v>6641.4329</v>
       </c>
       <c r="G272" t="n">
-        <v>-1266451.047956402</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +8591,15 @@
         <v>47.9334</v>
       </c>
       <c r="G273" t="n">
-        <v>-1266403.114556402</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +8621,15 @@
         <v>122.62</v>
       </c>
       <c r="G274" t="n">
-        <v>-1266525.734556402</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +8651,15 @@
         <v>3761.3082</v>
       </c>
       <c r="G275" t="n">
-        <v>-1262764.426356402</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +8681,15 @@
         <v>3638.8319</v>
       </c>
       <c r="G276" t="n">
-        <v>-1262764.426356402</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +8711,15 @@
         <v>444.805</v>
       </c>
       <c r="G277" t="n">
-        <v>-1262764.426356402</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +8741,15 @@
         <v>2071.8036</v>
       </c>
       <c r="G278" t="n">
-        <v>-1260692.622756402</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +8771,15 @@
         <v>2115.0061</v>
       </c>
       <c r="G279" t="n">
-        <v>-1262807.628856402</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,18 +8801,15 @@
         <v>36340.7731</v>
       </c>
       <c r="G280" t="n">
-        <v>-1299148.401956402</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9655,18 +8831,15 @@
         <v>15280.7914</v>
       </c>
       <c r="G281" t="n">
-        <v>-1299148.401956402</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9688,18 +8861,15 @@
         <v>4356.0809</v>
       </c>
       <c r="G282" t="n">
-        <v>-1303504.482856402</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9721,18 +8891,15 @@
         <v>3007.0073</v>
       </c>
       <c r="G283" t="n">
-        <v>-1303504.482856402</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9754,18 +8921,15 @@
         <v>1000</v>
       </c>
       <c r="G284" t="n">
-        <v>-1302504.482856402</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9787,18 +8951,15 @@
         <v>5958</v>
       </c>
       <c r="G285" t="n">
-        <v>-1308462.482856402</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9820,18 +8981,15 @@
         <v>28750.9557</v>
       </c>
       <c r="G286" t="n">
-        <v>-1279711.527156402</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9853,18 +9011,15 @@
         <v>16052.0685</v>
       </c>
       <c r="G287" t="n">
-        <v>-1295763.595656402</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9886,18 +9041,15 @@
         <v>22572.7245</v>
       </c>
       <c r="G288" t="n">
-        <v>-1295763.595656402</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9919,18 +9071,15 @@
         <v>5666.4929</v>
       </c>
       <c r="G289" t="n">
-        <v>-1295763.595656402</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9952,18 +9101,15 @@
         <v>3878.7372</v>
       </c>
       <c r="G290" t="n">
-        <v>-1291884.858456402</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9985,18 +9131,15 @@
         <v>4381.374</v>
       </c>
       <c r="G291" t="n">
-        <v>-1287503.484456402</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10018,18 +9161,15 @@
         <v>2721.009</v>
       </c>
       <c r="G292" t="n">
-        <v>-1284782.475456402</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10051,18 +9191,15 @@
         <v>1360.1415</v>
       </c>
       <c r="G293" t="n">
-        <v>-1283422.333956402</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10084,18 +9221,15 @@
         <v>6168.6197</v>
       </c>
       <c r="G294" t="n">
-        <v>-1277253.714256402</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10117,18 +9251,15 @@
         <v>1521.3929</v>
       </c>
       <c r="G295" t="n">
-        <v>-1278775.107156402</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10150,18 +9281,15 @@
         <v>1369.1126</v>
       </c>
       <c r="G296" t="n">
-        <v>-1280144.219756403</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10183,18 +9311,15 @@
         <v>1689.5731</v>
       </c>
       <c r="G297" t="n">
-        <v>-1280144.219756403</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10216,18 +9341,15 @@
         <v>5023.6554</v>
       </c>
       <c r="G298" t="n">
-        <v>-1285167.875156403</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10249,18 +9371,15 @@
         <v>401.1077389984825</v>
       </c>
       <c r="G299" t="n">
-        <v>-1285568.982895401</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10282,18 +9401,15 @@
         <v>7290.4295</v>
       </c>
       <c r="G300" t="n">
-        <v>-1292859.412395401</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10315,18 +9431,15 @@
         <v>57710.9511</v>
       </c>
       <c r="G301" t="n">
-        <v>-1350570.363495401</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10348,18 +9461,15 @@
         <v>11973.2050009009</v>
       </c>
       <c r="G302" t="n">
-        <v>-1362543.568496302</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10381,18 +9491,15 @@
         <v>739.7094</v>
       </c>
       <c r="G303" t="n">
-        <v>-1362543.568496302</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10414,18 +9521,15 @@
         <v>2500.4992</v>
       </c>
       <c r="G304" t="n">
-        <v>-1360043.069296302</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10447,18 +9551,15 @@
         <v>4489.7561</v>
       </c>
       <c r="G305" t="n">
-        <v>-1364532.825396302</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10480,18 +9581,15 @@
         <v>3468.2879</v>
       </c>
       <c r="G306" t="n">
-        <v>-1361064.537496302</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10513,18 +9611,15 @@
         <v>10988.6505</v>
       </c>
       <c r="G307" t="n">
-        <v>-1350075.886996302</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10546,18 +9641,15 @@
         <v>2690.8934</v>
       </c>
       <c r="G308" t="n">
-        <v>-1352766.780396302</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10579,18 +9671,15 @@
         <v>50000</v>
       </c>
       <c r="G309" t="n">
-        <v>-1402766.780396302</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10612,18 +9701,15 @@
         <v>29407.5982</v>
       </c>
       <c r="G310" t="n">
-        <v>-1432174.378596302</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10645,18 +9731,15 @@
         <v>92467.04180000001</v>
       </c>
       <c r="G311" t="n">
-        <v>-1524641.420396302</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10678,18 +9761,15 @@
         <v>5421.4851</v>
       </c>
       <c r="G312" t="n">
-        <v>-1519219.935296302</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10711,18 +9791,15 @@
         <v>174536.69</v>
       </c>
       <c r="G313" t="n">
-        <v>-1693756.625296302</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10744,18 +9821,15 @@
         <v>100</v>
       </c>
       <c r="G314" t="n">
-        <v>-1693656.625296302</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10777,18 +9851,15 @@
         <v>21593.4504</v>
       </c>
       <c r="G315" t="n">
-        <v>-1693656.625296302</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10810,18 +9881,15 @@
         <v>64871.6359</v>
       </c>
       <c r="G316" t="n">
-        <v>-1758528.261196302</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -10843,18 +9911,15 @@
         <v>4.1446</v>
       </c>
       <c r="G317" t="n">
-        <v>-1758524.116596302</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -10876,18 +9941,15 @@
         <v>464</v>
       </c>
       <c r="G318" t="n">
-        <v>-1758060.116596302</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -10909,18 +9971,15 @@
         <v>2646.579</v>
       </c>
       <c r="G319" t="n">
-        <v>-1758060.116596302</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -10942,18 +10001,15 @@
         <v>816.1048</v>
       </c>
       <c r="G320" t="n">
-        <v>-1757244.011796302</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -10975,18 +10031,15 @@
         <v>844.0365</v>
       </c>
       <c r="G321" t="n">
-        <v>-1757244.011796302</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11008,18 +10061,15 @@
         <v>2529</v>
       </c>
       <c r="G322" t="n">
-        <v>-1759773.011796302</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11041,18 +10091,15 @@
         <v>2392.0363</v>
       </c>
       <c r="G323" t="n">
-        <v>-1759773.011796302</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11074,18 +10121,15 @@
         <v>540.1499</v>
       </c>
       <c r="G324" t="n">
-        <v>-1759773.011796302</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11107,18 +10151,15 @@
         <v>8</v>
       </c>
       <c r="G325" t="n">
-        <v>-1759765.011796302</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11140,18 +10181,15 @@
         <v>54.0831</v>
       </c>
       <c r="G326" t="n">
-        <v>-1759765.011796302</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11173,18 +10211,15 @@
         <v>660.1159</v>
       </c>
       <c r="G327" t="n">
-        <v>-1760425.127696302</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11206,18 +10241,15 @@
         <v>18996.1529</v>
       </c>
       <c r="G328" t="n">
-        <v>-1779421.280596302</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11239,18 +10271,15 @@
         <v>4922.7719</v>
       </c>
       <c r="G329" t="n">
-        <v>-1784344.052496302</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11272,18 +10301,15 @@
         <v>30743.5491</v>
       </c>
       <c r="G330" t="n">
-        <v>-1753600.503396302</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11305,18 +10331,15 @@
         <v>370.6207</v>
       </c>
       <c r="G331" t="n">
-        <v>-1753600.503396302</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11338,22 +10361,15 @@
         <v>10</v>
       </c>
       <c r="G332" t="n">
-        <v>-1753590.503396302</v>
-      </c>
-      <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="J332" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11375,270 +10391,207 @@
         <v>11108.9033</v>
       </c>
       <c r="G333" t="n">
-        <v>-1764699.406696302</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
         <v>65.3</v>
       </c>
-      <c r="K333" t="inlineStr">
+      <c r="C334" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D334" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="E334" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="F334" t="n">
+        <v>702.0003</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="C335" t="n">
+        <v>65.02</v>
+      </c>
+      <c r="D335" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="E335" t="n">
+        <v>65.02</v>
+      </c>
+      <c r="F335" t="n">
+        <v>4436.1723</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>65.02</v>
+      </c>
+      <c r="C336" t="n">
+        <v>65</v>
+      </c>
+      <c r="D336" t="n">
+        <v>65.02</v>
+      </c>
+      <c r="E336" t="n">
+        <v>65</v>
+      </c>
+      <c r="F336" t="n">
+        <v>50112.2827</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0</v>
+      </c>
+      <c r="H336" t="inlineStr"/>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
+      <c r="L336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="C337" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="D337" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="E337" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="F337" t="n">
+        <v>22899.1715</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0</v>
+      </c>
+      <c r="H337" t="inlineStr"/>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
+      <c r="L337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="C338" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="D338" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="E338" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="F338" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="G338" t="n">
+        <v>1</v>
+      </c>
+      <c r="H338" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="I338" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>1</v>
+      </c>
+      <c r="L338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="C339" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D339" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="E339" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="F339" t="n">
+        <v>1219.5098</v>
+      </c>
+      <c r="G339" t="n">
+        <v>1</v>
+      </c>
+      <c r="H339" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="I339" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="J339" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="C334" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="D334" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="E334" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="F334" t="n">
-        <v>702.0003</v>
-      </c>
-      <c r="G334" t="n">
-        <v>-1764699.406696302</v>
-      </c>
-      <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="J334" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="C335" t="n">
-        <v>65.02</v>
-      </c>
-      <c r="D335" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="E335" t="n">
-        <v>65.02</v>
-      </c>
-      <c r="F335" t="n">
-        <v>4436.1723</v>
-      </c>
-      <c r="G335" t="n">
-        <v>-1769135.578996302</v>
-      </c>
-      <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="J335" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>65.02</v>
-      </c>
-      <c r="C336" t="n">
-        <v>65</v>
-      </c>
-      <c r="D336" t="n">
-        <v>65.02</v>
-      </c>
-      <c r="E336" t="n">
-        <v>65</v>
-      </c>
-      <c r="F336" t="n">
-        <v>50112.2827</v>
-      </c>
-      <c r="G336" t="n">
-        <v>-1819247.861696302</v>
-      </c>
-      <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>65.02</v>
-      </c>
-      <c r="J336" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="C337" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="D337" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="E337" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="F337" t="n">
-        <v>22899.1715</v>
-      </c>
-      <c r="G337" t="n">
-        <v>-1796348.690196302</v>
-      </c>
-      <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>65</v>
-      </c>
-      <c r="J337" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="C338" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="D338" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="E338" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="F338" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="G338" t="n">
-        <v>-1796340.990196302</v>
-      </c>
-      <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="J338" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="C339" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="D339" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="E339" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="F339" t="n">
-        <v>1219.5098</v>
-      </c>
-      <c r="G339" t="n">
-        <v>-1797560.499996302</v>
-      </c>
-      <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="J339" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>1</v>
+      </c>
+      <c r="L339" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
